--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -111,21 +111,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="175">
   <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
-    <t xml:space="preserve">vector4</t>
+    <t xml:space="preserve">string</t>
   </si>
   <si>
     <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vector4</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -517,121 +511,133 @@
     <t xml:space="preserve">天光颜色</t>
   </si>
   <si>
-    <t xml:space="preserve">1.000000|1.000000|1.000000|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052106|0.242233|0.944853|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.066626|0.152926|0.921582|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.018860|0.050527|0.305147|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|0.686685|0.304987|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.063010|0.246201|0.434154|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000|0.000000|0.000000|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|1.000000|1.000000|0.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917647|0.917647|1.000000|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.729412|0.815686|0.952941|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.737255|0.737255|0.737255|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427451|0.635294|0.882353|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231373|0.458824|0.776471|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|0.886275|0.713725|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784314|0.894118|0.980392|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|0.768627|0.584314|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|0.800000|0.596078|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882353|0.721569|0.764706|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392157|0.411765|0.776471|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|0.890196|0.611765|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933333|0.858824|0.858824|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.721569|0.776471|1.000000|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631373|0.717647|0.952941|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403922|0.611765|0.964706|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137255|0.352941|0.905882|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|1.000000|1.000000|0.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|0.882353|0.800000|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|0.921569|0.843137|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980392|0.972549|0.949020|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894118|0.917647|1.000000|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.737255|0.737255|0.737255|0.737255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603922|0.698039|0.952941|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192157|0.317647|0.733333|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811765|0.847059|1.000000|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752941|0.376471|0.552941|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000000|0.811765|1.000000|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388235|0.329412|0.403922|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.529412|0.635294|0.780392|1.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988235|0.737255|0.996078|0.000000</t>
+    <t xml:space="preserve">255|255|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13|62|241|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17|39|235|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5|13|78|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|175|78|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|63|111|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|0|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|255|255|0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235|235|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186|208|243|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188|188|188|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109|162|225|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59|117|198|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|226|182|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200|228|250|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|197|150|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|204|152|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225|184|195|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|105|198|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|227|156|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238|219|219|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185|199|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161|183|243|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103|156|246|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35|90|231|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|255|255|242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|226|204|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|235|215|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250|248|242|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228|235|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188|188|188|188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154|178|243|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49|81|187|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207|216|255|255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192|96|141|255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|207|255|255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">99|84|103|255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|0|255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|226|182|255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|63|111|255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">135|162|199|255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">252|188|254|0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|255|255|0 </t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -746,15 +752,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -782,7 +784,7 @@
   <dimension ref="A1:BO46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -791,24 +793,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="45.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="34.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="50.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="36.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="50.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="51.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="37.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="41.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="41.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="44.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="37.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="33.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="50.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="36.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="50.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="51.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="37.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="41.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="41.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="44.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="37.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="33.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="10.94"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -846,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>0</v>
@@ -873,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>1</v>
@@ -885,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>0</v>
@@ -900,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>0</v>
@@ -951,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV1" s="3" t="s">
         <v>2</v>
@@ -1010,393 +1012,393 @@
     </row>
     <row r="2" s="3" customFormat="true" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BH2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1408,192 +1410,192 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>178196</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>178196</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="n">
+      <c r="U5" s="8" t="n">
+        <v>209510</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="S5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7" t="s">
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U5" s="7" t="n">
-        <v>209510</v>
-      </c>
-      <c r="V5" s="7" t="s">
+      <c r="AB5" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="8" t="n">
+        <v>14309</v>
+      </c>
+      <c r="AE5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="8" t="n">
+        <v>137.93</v>
+      </c>
+      <c r="AG5" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ5" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS5" s="8" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AT5" s="8" t="n">
+        <v>-361.83</v>
+      </c>
+      <c r="AU5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AV5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AX5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AB5" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="AE5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="7" t="n">
-        <v>137.93</v>
-      </c>
-      <c r="AG5" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AH5" s="7" t="n">
+      <c r="BA5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="BC5" s="8" t="n">
+        <v>-27.81</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="8" t="n">
+        <v>7500</v>
+      </c>
+      <c r="BH5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="8" t="n">
+        <v>6000</v>
+      </c>
+      <c r="BJ5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AI5" s="7" t="n">
+      <c r="BK5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL5" s="8" t="n">
         <v>1.5</v>
       </c>
-      <c r="AJ5" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AK5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS5" s="7" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT5" s="7" t="n">
-        <v>-361.83</v>
-      </c>
-      <c r="AU5" s="7" t="s">
+      <c r="BM5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AV5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AX5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="7" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="BC5" s="7" t="n">
-        <v>-27.81</v>
-      </c>
-      <c r="BD5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="BE5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="7" t="n">
-        <v>7500</v>
-      </c>
-      <c r="BH5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="BJ5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="BL5" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BM5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="BN5" s="0"/>
-      <c r="BO5" s="0"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
     </row>
     <row r="6" s="4" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>142</v>
+      <c r="A6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>1</v>
@@ -1611,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>5</v>
@@ -1628,11 +1630,11 @@
       <c r="N6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>143</v>
+      <c r="O6" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>1</v>
@@ -1643,14 +1645,14 @@
       <c r="S6" s="4" t="n">
         <v>1.17</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>145</v>
+      <c r="T6" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="U6" s="4" t="n">
         <v>195714</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>146</v>
+      <c r="V6" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="W6" s="4" t="n">
         <v>0.68</v>
@@ -1661,8 +1663,8 @@
       <c r="Z6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>147</v>
+      <c r="AA6" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="AB6" s="4" t="n">
         <v>40</v>
@@ -1709,8 +1711,8 @@
       <c r="AT6" s="4" t="n">
         <v>-361.83</v>
       </c>
-      <c r="AU6" s="4" t="s">
-        <v>139</v>
+      <c r="AU6" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="AV6" s="4" t="n">
         <v>1</v>
@@ -1724,8 +1726,8 @@
       <c r="AY6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ6" s="4" t="s">
-        <v>140</v>
+      <c r="AZ6" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="BA6" s="4" t="n">
         <v>0</v>
@@ -1736,8 +1738,8 @@
       <c r="BC6" s="4" t="n">
         <v>32.74</v>
       </c>
-      <c r="BD6" s="4" t="s">
-        <v>148</v>
+      <c r="BD6" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="BE6" s="4" t="n">
         <v>-1.36</v>
@@ -1757,14 +1759,14 @@
       <c r="BJ6" s="4" t="n">
         <v>44.96</v>
       </c>
-      <c r="BK6" s="4" t="s">
-        <v>141</v>
+      <c r="BK6" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="BL6" s="4" t="n">
         <v>1.62</v>
       </c>
       <c r="BM6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,8 +1776,8 @@
       <c r="B7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>149</v>
+      <c r="C7" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1</v>
@@ -1793,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>1</v>
@@ -1810,11 +1812,11 @@
       <c r="N7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>134</v>
+      <c r="O7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>1</v>
@@ -1825,14 +1827,14 @@
       <c r="S7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>151</v>
+      <c r="T7" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="U7" s="4" t="n">
         <v>108338</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>152</v>
+      <c r="V7" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="W7" s="4" t="n">
         <v>1</v>
@@ -1846,8 +1848,8 @@
       <c r="Z7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA7" s="4" t="s">
-        <v>153</v>
+      <c r="AA7" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="AB7" s="4" t="n">
         <v>20</v>
@@ -1894,8 +1896,8 @@
       <c r="AT7" s="4" t="n">
         <v>-361.83</v>
       </c>
-      <c r="AU7" s="4" t="s">
-        <v>139</v>
+      <c r="AU7" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="AV7" s="4" t="n">
         <v>1</v>
@@ -1909,8 +1911,8 @@
       <c r="AY7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ7" s="4" t="s">
-        <v>140</v>
+      <c r="AZ7" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="BA7" s="4" t="n">
         <v>0</v>
@@ -1921,8 +1923,8 @@
       <c r="BC7" s="4" t="n">
         <v>-20</v>
       </c>
-      <c r="BD7" s="4" t="s">
-        <v>154</v>
+      <c r="BD7" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="BE7" s="4" t="n">
         <v>0</v>
@@ -1942,25 +1944,25 @@
       <c r="BJ7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="BK7" s="4" t="s">
-        <v>141</v>
+      <c r="BK7" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="BL7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="BM7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>155</v>
+      <c r="C8" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1</v>
@@ -1978,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>5</v>
@@ -1995,11 +1997,11 @@
       <c r="N8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>134</v>
+      <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>1</v>
@@ -2010,14 +2012,14 @@
       <c r="S8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>157</v>
+      <c r="T8" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="U8" s="4" t="n">
         <v>108338</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>158</v>
+      <c r="V8" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="W8" s="4" t="n">
         <v>1</v>
@@ -2028,8 +2030,8 @@
       <c r="Z8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>147</v>
+      <c r="AA8" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="AB8" s="4" t="n">
         <v>1</v>
@@ -2076,8 +2078,8 @@
       <c r="AT8" s="4" t="n">
         <v>-361.83</v>
       </c>
-      <c r="AU8" s="4" t="s">
-        <v>139</v>
+      <c r="AU8" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="AV8" s="4" t="n">
         <v>1</v>
@@ -2091,8 +2093,8 @@
       <c r="AY8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ8" s="4" t="s">
-        <v>140</v>
+      <c r="AZ8" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="BA8" s="4" t="n">
         <v>0</v>
@@ -2103,8 +2105,8 @@
       <c r="BC8" s="4" t="n">
         <v>-50</v>
       </c>
-      <c r="BD8" s="4" t="s">
-        <v>159</v>
+      <c r="BD8" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="BE8" s="4" t="n">
         <v>0</v>
@@ -2124,14 +2126,14 @@
       <c r="BJ8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="BK8" s="4" t="s">
-        <v>141</v>
+      <c r="BK8" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="BL8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="BM8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,8 +2143,8 @@
       <c r="B9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>160</v>
+      <c r="C9" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
@@ -2160,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>5</v>
@@ -2177,11 +2179,11 @@
       <c r="N9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>144</v>
+      <c r="O9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>1</v>
@@ -2192,14 +2194,14 @@
       <c r="S9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>151</v>
+      <c r="T9" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="U9" s="4" t="n">
         <v>59838</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>146</v>
+      <c r="V9" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="W9" s="4" t="n">
         <v>1</v>
@@ -2210,8 +2212,8 @@
       <c r="Z9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="4" t="s">
-        <v>153</v>
+      <c r="AA9" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="AB9" s="4" t="n">
         <v>20</v>
@@ -2258,8 +2260,8 @@
       <c r="AT9" s="4" t="n">
         <v>-361.83</v>
       </c>
-      <c r="AU9" s="4" t="s">
-        <v>139</v>
+      <c r="AU9" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="AV9" s="4" t="n">
         <v>1</v>
@@ -2273,8 +2275,8 @@
       <c r="AY9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="4" t="s">
-        <v>140</v>
+      <c r="AZ9" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="BA9" s="4" t="n">
         <v>0</v>
@@ -2285,8 +2287,8 @@
       <c r="BC9" s="4" t="n">
         <v>-75.54</v>
       </c>
-      <c r="BD9" s="4" t="s">
-        <v>162</v>
+      <c r="BD9" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="BE9" s="4" t="n">
         <v>-1.24</v>
@@ -2306,25 +2308,25 @@
       <c r="BJ9" s="4" t="n">
         <v>1.17</v>
       </c>
-      <c r="BK9" s="4" t="s">
-        <v>141</v>
+      <c r="BK9" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="BL9" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="BM9" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>163</v>
+      <c r="C10" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1</v>
@@ -2342,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>5</v>
@@ -2359,11 +2361,11 @@
       <c r="N10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>164</v>
+      <c r="O10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>1</v>
@@ -2374,14 +2376,14 @@
       <c r="S10" s="4" t="n">
         <v>1.17</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>165</v>
+      <c r="T10" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="U10" s="4" t="n">
         <v>195714</v>
       </c>
-      <c r="V10" s="4" t="s">
-        <v>166</v>
+      <c r="V10" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="W10" s="4" t="n">
         <v>1</v>
@@ -2392,8 +2394,8 @@
       <c r="Z10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>147</v>
+      <c r="AA10" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="AB10" s="4" t="n">
         <v>40</v>
@@ -2413,10 +2415,10 @@
       <c r="AG10" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AH10" s="10" t="n">
+      <c r="AH10" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI10" s="10" t="n">
+      <c r="AI10" s="9" t="n">
         <v>1.2</v>
       </c>
       <c r="AJ10" s="4" t="n">
@@ -2440,8 +2442,8 @@
       <c r="AT10" s="4" t="n">
         <v>-361.83</v>
       </c>
-      <c r="AU10" s="4" t="s">
-        <v>139</v>
+      <c r="AU10" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="AV10" s="4" t="n">
         <v>1</v>
@@ -2455,8 +2457,8 @@
       <c r="AY10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ10" s="4" t="s">
-        <v>140</v>
+      <c r="AZ10" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="BA10" s="4" t="n">
         <v>0</v>
@@ -2467,8 +2469,8 @@
       <c r="BC10" s="4" t="n">
         <v>-50</v>
       </c>
-      <c r="BD10" s="4" t="s">
-        <v>134</v>
+      <c r="BD10" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="BE10" s="4" t="n">
         <v>0</v>
@@ -2488,14 +2490,14 @@
       <c r="BJ10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="BK10" s="4" t="s">
-        <v>141</v>
+      <c r="BK10" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="BL10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="BM10" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,8 +2507,8 @@
       <c r="B11" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>167</v>
+      <c r="C11" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>1</v>
@@ -2523,8 +2525,8 @@
       <c r="H11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>168</v>
+      <c r="I11" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>2</v>
@@ -2541,11 +2543,11 @@
       <c r="N11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>169</v>
+      <c r="O11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>1</v>
@@ -2556,14 +2558,14 @@
       <c r="S11" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>170</v>
+      <c r="T11" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="U11" s="4" t="n">
         <v>59821</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>140</v>
+      <c r="V11" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="W11" s="4" t="n">
         <v>0.72</v>
@@ -2577,8 +2579,8 @@
       <c r="Z11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AA11" s="4" t="s">
-        <v>147</v>
+      <c r="AA11" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="AB11" s="4" t="n">
         <v>40</v>
@@ -2625,8 +2627,8 @@
       <c r="AT11" s="4" t="n">
         <v>-361.83</v>
       </c>
-      <c r="AU11" s="4" t="s">
-        <v>139</v>
+      <c r="AU11" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="AV11" s="4" t="n">
         <v>1</v>
@@ -2640,8 +2642,8 @@
       <c r="AY11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ11" s="4" t="s">
-        <v>140</v>
+      <c r="AZ11" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BA11" s="4" t="n">
         <v>0</v>
@@ -2652,8 +2654,8 @@
       <c r="BC11" s="4" t="n">
         <v>-1.73</v>
       </c>
-      <c r="BD11" s="4" t="s">
-        <v>171</v>
+      <c r="BD11" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="BE11" s="4" t="n">
         <v>-0.65</v>
@@ -2673,73 +2675,73 @@
       <c r="BJ11" s="4" t="n">
         <v>44.96</v>
       </c>
-      <c r="BK11" s="4" t="s">
-        <v>172</v>
+      <c r="BK11" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="BL11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="BM11" s="7" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="182">
   <si>
     <t>int</t>
   </si>
@@ -530,40 +530,49 @@
     <t>255|175|78|255</t>
   </si>
   <si>
+    <t>(R=0.062526,G=0.247767,B=0.433824,A=1.000000)</t>
+  </si>
+  <si>
+    <t>(R=0.000000,G=0.000000,B=0.000000,A=1.000000)</t>
+  </si>
+  <si>
+    <t>(R=1.000000,G=1.000000,B=1.000000,A=1.000000)</t>
+  </si>
+  <si>
+    <t>255|255|255|0</t>
+  </si>
+  <si>
+    <t>235|235|255|255</t>
+  </si>
+  <si>
+    <t>186|208|243|255</t>
+  </si>
+  <si>
+    <t>188|188|188|255</t>
+  </si>
+  <si>
+    <t>109|162|225|255</t>
+  </si>
+  <si>
+    <t>59|117|198|255</t>
+  </si>
+  <si>
+    <t>255|226|182|255</t>
+  </si>
+  <si>
     <t>16|63|111|255</t>
   </si>
   <si>
     <t>0|0|0|255</t>
   </si>
   <si>
-    <t>255|255|255|0</t>
-  </si>
-  <si>
-    <t>235|235|255|255</t>
-  </si>
-  <si>
-    <t>186|208|243|255</t>
-  </si>
-  <si>
-    <t>188|188|188|255</t>
-  </si>
-  <si>
-    <t>109|162|225|255</t>
-  </si>
-  <si>
-    <t>59|117|198|255</t>
-  </si>
-  <si>
-    <t>255|226|182|255</t>
-  </si>
-  <si>
     <t>200|228|250|255</t>
   </si>
   <si>
     <t>255|197|150|255</t>
   </si>
   <si>
-    <t>255|204|152|255</t>
+    <t>255|204|155|255</t>
   </si>
   <si>
     <t>225|184|195|255</t>
@@ -596,7 +605,16 @@
     <t>255|226|204|255</t>
   </si>
   <si>
-    <t>255|235|215|255</t>
+    <t>(R=1.000000,G=0.830770,B=0.679543,A=1.000000)</t>
+  </si>
+  <si>
+    <t>(R=0.500000,G=0.500000,B=0.500000,A=1.000000)</t>
+  </si>
+  <si>
+    <t>(R=0.752942,G=0.479320,B=0.545725,A=1.000000)</t>
+  </si>
+  <si>
+    <t>(R=0.127438,G=0.141263,B=0.564712,A=1.000000)</t>
   </si>
   <si>
     <t>250|248|242|255</t>
@@ -627,9 +645,6 @@
   </si>
   <si>
     <t>(R=0.124772,G=0.088656,B=0.135633,A=1.000000)</t>
-  </si>
-  <si>
-    <t>(R=0.000000,G=0.000000,B=0.000000,A=1.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">255|226|182|255 </t>
@@ -1830,8 +1845,8 @@
   <sheetPr/>
   <dimension ref="A1:BO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5"/>
@@ -2487,7 +2502,9 @@
       <c r="M5" s="8">
         <v>0</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
         <v>133</v>
       </c>
@@ -2602,7 +2619,7 @@
         <v>-27.81</v>
       </c>
       <c r="BD5" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="BE5" s="8">
         <v>0</v>
@@ -2623,13 +2640,13 @@
         <v>4</v>
       </c>
       <c r="BK5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL5" s="8">
         <v>1.5</v>
       </c>
       <c r="BM5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BN5" s="3"/>
       <c r="BO5" s="3"/>
@@ -2642,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2678,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="2">
         <v>1</v>
@@ -2693,13 +2710,13 @@
         <v>1.17</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U6" s="2">
         <v>195714</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W6" s="2">
         <v>0.68</v>
@@ -2711,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB6" s="2">
         <v>40</v>
@@ -2759,7 +2776,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU6" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AV6" s="2">
         <v>1</v>
@@ -2774,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -2786,7 +2803,7 @@
         <v>32.74</v>
       </c>
       <c r="BD6" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BE6" s="2">
         <v>-1.36</v>
@@ -2807,13 +2824,13 @@
         <v>44.96</v>
       </c>
       <c r="BK6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL6" s="2">
         <v>1.62</v>
       </c>
       <c r="BM6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:65">
@@ -2824,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2860,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>132</v>
@@ -2875,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="U7" s="2">
-        <v>108338</v>
+        <v>14304</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="W7" s="2">
         <v>1</v>
@@ -2896,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AB7" s="2">
         <v>20</v>
@@ -2944,7 +2961,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU7" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AV7" s="2">
         <v>1</v>
@@ -2959,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2971,7 +2988,7 @@
         <v>-20</v>
       </c>
       <c r="BD7" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -2992,13 +3009,13 @@
         <v>4</v>
       </c>
       <c r="BK7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL7" s="2">
         <v>1</v>
       </c>
       <c r="BM7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:65">
@@ -3009,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3045,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>132</v>
@@ -3060,13 +3077,13 @@
         <v>1</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="U8" s="2">
-        <v>108338</v>
+        <v>14304</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W8" s="2">
         <v>1</v>
@@ -3078,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB8" s="2">
         <v>1</v>
@@ -3126,7 +3143,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU8" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AV8" s="2">
         <v>1</v>
@@ -3141,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -3153,7 +3170,7 @@
         <v>-50</v>
       </c>
       <c r="BD8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -3174,13 +3191,13 @@
         <v>4</v>
       </c>
       <c r="BK8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL8" s="2">
         <v>1</v>
       </c>
       <c r="BM8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:65">
@@ -3191,7 +3208,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3227,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="2">
         <v>1</v>
@@ -3242,13 +3259,13 @@
         <v>1</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="U9" s="2">
         <v>59838</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="W9" s="2">
         <v>1</v>
@@ -3260,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AB9" s="2">
         <v>20</v>
@@ -3308,7 +3325,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU9" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AV9" s="2">
         <v>1</v>
@@ -3323,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -3335,7 +3352,7 @@
         <v>-75.54</v>
       </c>
       <c r="BD9" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="BE9" s="2">
         <v>-1.24</v>
@@ -3356,13 +3373,13 @@
         <v>1.17</v>
       </c>
       <c r="BK9" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL9" s="2">
         <v>1.4</v>
       </c>
       <c r="BM9" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:65">
@@ -3373,7 +3390,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3409,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="2">
         <v>1</v>
@@ -3424,13 +3441,13 @@
         <v>1.17</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="U10" s="2">
         <v>195714</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="W10" s="2">
         <v>1</v>
@@ -3442,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB10" s="2">
         <v>40</v>
@@ -3490,7 +3507,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AV10" s="2">
         <v>1</v>
@@ -3505,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -3538,13 +3555,13 @@
         <v>4</v>
       </c>
       <c r="BK10" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL10" s="2">
         <v>1</v>
       </c>
       <c r="BM10" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" spans="1:65">
@@ -3555,7 +3572,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3573,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
@@ -3591,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="2">
         <v>1</v>
@@ -3606,13 +3623,13 @@
         <v>2</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U11" s="2">
-        <v>114028</v>
+        <v>14304</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="W11" s="2">
         <v>0.72</v>
@@ -3627,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB11" s="2">
         <v>40</v>
@@ -3675,7 +3692,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU11" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AV11" s="2">
         <v>1</v>
@@ -3690,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3702,7 +3719,7 @@
         <v>-1.73</v>
       </c>
       <c r="BD11" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="BE11" s="2">
         <v>-0.65</v>
@@ -3723,13 +3740,13 @@
         <v>44.96</v>
       </c>
       <c r="BK11" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BL11" s="2">
         <v>1</v>
       </c>
       <c r="BM11" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
   <si>
     <t>int</t>
   </si>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>(R=0.089798,G=0.068563,B=0.117647,A=1.000000)</t>
-  </si>
-  <si>
-    <t>(R=1.000000,G=0.623963,B=0.993237,A=1.000000)</t>
   </si>
   <si>
     <t>(R=0.124772,G=0.088656,B=0.135633,A=1.000000)</t>
@@ -1845,8 +1842,8 @@
   <sheetPr/>
   <dimension ref="A1:BO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5"/>
@@ -2895,7 +2892,7 @@
         <v>152</v>
       </c>
       <c r="U7" s="2">
-        <v>14304</v>
+        <v>108338</v>
       </c>
       <c r="V7" s="7" t="s">
         <v>153</v>
@@ -3080,7 +3077,7 @@
         <v>158</v>
       </c>
       <c r="U8" s="2">
-        <v>14304</v>
+        <v>108338</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>159</v>
@@ -3611,7 +3608,7 @@
         <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="2">
         <v>1</v>
@@ -3623,10 +3620,10 @@
         <v>2</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U11" s="2">
-        <v>14304</v>
+        <v>59821</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>138</v>
@@ -3644,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB11" s="2">
         <v>40</v>
@@ -3692,7 +3689,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU11" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AV11" s="2">
         <v>1</v>
@@ -3707,19 +3704,19 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
       </c>
       <c r="BB11" s="2">
-        <v>2.52</v>
+        <v>70</v>
       </c>
       <c r="BC11" s="2">
         <v>-1.73</v>
       </c>
       <c r="BD11" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BE11" s="2">
         <v>-0.65</v>
@@ -3737,16 +3734,16 @@
         <v>4368.6</v>
       </c>
       <c r="BJ11" s="2">
-        <v>44.96</v>
+        <v>4</v>
       </c>
       <c r="BK11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="BL11" s="2">
-        <v>1</v>
-      </c>
-      <c r="BM11" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1842,8 +1842,8 @@
   <sheetPr/>
   <dimension ref="A1:BO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5"/>
@@ -3128,16 +3128,16 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="2">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AS8" s="2">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2">
-        <v>-361.83</v>
+        <v>9000</v>
       </c>
       <c r="AU8" s="7" t="s">
         <v>147</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AX8" s="2">
         <v>0</v>
@@ -3492,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AS10" s="2">
         <v>0.44</v>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AX10" s="2">
         <v>0</v>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -526,7 +526,7 @@
     <t xml:space="preserve">(R=1.000000,G=0.687345,B=0.305147,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=0.062526,G=0.247767,B=0.433824,A=1.000000)</t>
+    <t xml:space="preserve">(R=0.063010,G=0.246201,B=0.434154,A=1.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">(R=0.000000,G=0.000000,B=0.000000,A=1.000000)</t>
@@ -801,8 +801,8 @@
   </sheetPr>
   <dimension ref="A1:BO46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AU5" activeCellId="0" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1,32 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={003B001E-006A-40F5-A035-0019009F0059}</author>
     <author>tc={00F00089-0000-41E9-BD90-004100DE00E4}</author>
     <author>tc={00E90094-00B2-4C7F-94D1-006900040063}</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" xr:uid="{003B001E-006A-40F5-A035-0019009F0059}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> :</t>
         </r>
@@ -34,6 +49,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 清晨（二次元）：0
@@ -48,13 +64,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="1" xr:uid="{00F00089-0000-41E9-BD90-004100DE00E4}">
+    <comment ref="AF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> :</t>
         </r>
@@ -62,6 +79,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 后处理预设
@@ -100,13 +118,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="2" xr:uid="{00E90094-00B2-4C7F-94D1-006900040063}">
+    <comment ref="AZ3" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> :</t>
         </r>
@@ -114,6 +133,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 默认 0
@@ -130,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="179">
   <si>
     <t>int</t>
   </si>
@@ -488,7 +508,7 @@
     <t>雾预设</t>
   </si>
   <si>
-    <t xml:space="preserve">灯光朝向角度（-180 ~ 180）</t>
+    <t>灯光朝向角度（-180 ~ 180）</t>
   </si>
   <si>
     <t>俯仰角度</t>
@@ -509,7 +529,7 @@
     <t>是否开启色温</t>
   </si>
   <si>
-    <t xml:space="preserve">设置色温 （1000 ~ 14000）</t>
+    <t>设置色温 （1000 ~ 14000）</t>
   </si>
   <si>
     <t>平行光强度</t>
@@ -674,148 +694,180 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="160" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="163" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="4"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="20"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="2"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18.000000"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15.000000"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13.000000"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="65"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -875,20 +927,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431398"/>
-        <bgColor theme="4" tint="0.79998168889431398"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810496"/>
-        <bgColor theme="4" tint="0.59999389629810496"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241899"/>
-        <bgColor theme="4" tint="0.39997558519241899"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -899,20 +951,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431398"/>
-        <bgColor theme="5" tint="0.79998168889431398"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810496"/>
-        <bgColor theme="5" tint="0.59999389629810496"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241899"/>
-        <bgColor theme="5" tint="0.39997558519241899"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -923,20 +975,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431398"/>
-        <bgColor theme="6" tint="0.79998168889431398"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810496"/>
-        <bgColor theme="6" tint="0.59999389629810496"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241899"/>
-        <bgColor theme="6" tint="0.39997558519241899"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -947,20 +999,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431398"/>
-        <bgColor theme="7" tint="0.79998168889431398"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810496"/>
-        <bgColor theme="7" tint="0.59999389629810496"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241899"/>
-        <bgColor theme="7" tint="0.39997558519241899"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -971,20 +1023,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431398"/>
-        <bgColor theme="8" tint="0.79998168889431398"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810496"/>
-        <bgColor theme="8" tint="0.59999389629810496"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241899"/>
-        <bgColor theme="8" tint="0.39997558519241899"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -995,30 +1047,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431398"/>
-        <bgColor theme="9" tint="0.79998168889431398"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810496"/>
-        <bgColor theme="9" tint="0.59999389629810496"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241899"/>
-        <bgColor theme="9" tint="0.39997558519241899"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="9">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1033,25 +1085,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1066,7 +1118,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1081,7 +1133,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1096,185 +1148,185 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="9" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="11" fillId="3" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="12" fillId="4" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="13" fillId="4" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="14" fillId="5" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="17" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="14" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="22" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="27" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="28" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="29" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="31" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="32" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1331,48 +1383,36 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431398"/>
-          <bgColor theme="4" tint="0.79998168889431398"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431398"/>
-          <bgColor theme="4" tint="0.79998168889431398"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1382,8 +1422,19 @@
           <color theme="4"/>
         </top>
         <bottom/>
-        <diagonal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1402,27 +1453,50 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
         <horizontal style="thin">
-          <color theme="4" tint="0.39997558519241899"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431398"/>
-          <bgColor theme="4" tint="0.79998168889431398"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431398"/>
-          <bgColor theme="4" tint="0.79998168889431398"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1433,14 +1507,19 @@
         <right/>
         <top/>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241899"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1452,18 +1531,55 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431398"/>
-          <bgColor theme="4" tint="0.79998168889431398"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
@@ -1471,104 +1587,32 @@
         <right/>
         <top/>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241899"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431398"/>
-          <bgColor theme="4" tint="0.79998168889431398"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241899"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431398"/>
-          <bgColor theme="4" tint="0.79998168889431398"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241899"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431398"/>
-          <bgColor theme="4" tint="0.79998168889431398"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241899"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241899"/>
-        </bottom>
-        <diagonal/>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="firstColumn" size="1" dxfId="0"/>
-      <tableStyleElement type="firstColumnStripe" size="1" dxfId="1"/>
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="3"/>
-      <tableStyleElement type="lastColumn" size="1" dxfId="4"/>
-      <tableStyleElement type="totalRow" size="1" dxfId="5"/>
-      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{99609D40-81E6-4A86-A2A9-942003CB8F96}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
-      <tableStyleElement type="firstColumnStripe" size="1" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="8"/>
-      <tableStyleElement type="firstRowSubheading" size="1" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" size="1" dxfId="10"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
-      <tableStyleElement type="pageFieldLabels" size="1" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" size="1" dxfId="13"/>
-      <tableStyleElement type="secondRowSubheading" size="1" dxfId="14"/>
-      <tableStyleElement type="secondSubtotalRow" size="1" dxfId="15"/>
-      <tableStyleElement type="totalRow" size="1" dxfId="16"/>
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{F6E0C8AA-3ADF-4903-B734-3A58704A9ADC}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1580,8 +1624,8 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
@@ -1596,13 +1640,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="22659974" y="485774"/>
-          <a:ext cx="6143624" cy="2752724"/>
+          <a:off x="22646640" y="504190"/>
+          <a:ext cx="6146800" cy="2722245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1624,13 +1668,12 @@
           <a:pPr>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>704849</xdr:colOff>
@@ -1645,13 +1688,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="3" name="文本框 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="52663724" y="485774"/>
-          <a:ext cx="1057274" cy="5915024"/>
+          <a:off x="52607845" y="504190"/>
+          <a:ext cx="1058545" cy="6189345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,13 +1716,12 @@
           <a:pPr>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
@@ -1694,13 +1736,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="4" name="文本框 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="74094974" y="485774"/>
-          <a:ext cx="1076324" cy="838199"/>
+          <a:off x="73956545" y="504190"/>
+          <a:ext cx="1071245" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,7 +1764,6 @@
           <a:pPr>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1731,297 +1772,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName=" " id="{EF5B9167-D614-75E9-133B-1C83F5AF21B9}"/>
-</personList>
-</file>
-
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2227,728 +1979,666 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M3" personId="{EF5B9167-D614-75E9-133B-1C83F5AF21B9}" id="{003B001E-006A-40F5-A035-0019009F0059}" done="0">
-    <text xml:space="preserve">清晨（二次元）：0
-中午（二次元）：1
-黄昏（二次元）：2
-夜晚（二次元）：3
-清晨（LowPoly）：4
-中午（LowPoly）：5
-黄昏（LowPoly）：6
-夜晚（LowPoly）：7
-</text>
-  </threadedComment>
-  <threadedComment ref="AF3" personId="{EF5B9167-D614-75E9-133B-1C83F5AF21B9}" id="{00F00089-0000-41E9-BD90-004100DE00E4}" done="0">
-    <text xml:space="preserve">后处理预设
-默认 0
-梦境 1
-反差色 2
-暖阳 3
-老照片 4
-夜幕 5
-鲜暖色 6
-奶油 7
-鲜亮 8
-夏日 9
-高级 10
-自然 11
-苏打水 12
-日落1 13
-日落2 14
-日落3 15
-灰1 16
-梦幻 17
-电影 18
-灰2 19
-多彩1 20
-黎明 21
-多彩2 22
-黄昏 23
-破晓 24
-森林 25
-青1 26
-青2 27
-老照片1 28
-老照片2 29
-泛黄 30
-</text>
-  </threadedComment>
-  <threadedComment ref="AZ3" personId="{EF5B9167-D614-75E9-133B-1C83F5AF21B9}" id="{00E90094-00B2-4C7F-94D1-006900040063}" done="0">
-    <text xml:space="preserve">默认 0
-大气雾(近) 1
-大气雾(远) 2
-地下雾 3
-沙漠雾 4
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BN46"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="BI14" activeCellId="0" sqref="BI14"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BI14" sqref="BI14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="46.75"/>
-    <col customWidth="1" min="2" max="2" style="1" width="39.5833333333333"/>
-    <col customWidth="1" min="3" max="4" style="1" width="16.658333333333299"/>
-    <col customWidth="1" min="5" max="7" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="8" max="8" style="1" width="45.141666666666701"/>
-    <col customWidth="1" min="9" max="9" style="1" width="13.1916666666667"/>
-    <col customWidth="1" min="10" max="10" style="1" width="14.1833333333333"/>
-    <col customWidth="1" min="11" max="11" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="12" max="12" style="1" width="34.308333333333302"/>
-    <col customWidth="1" min="13" max="13" style="1" width="24.091666666666701"/>
-    <col customWidth="1" min="14" max="14" style="1" width="50.6666666666667"/>
-    <col customWidth="1" min="15" max="15" style="1" width="46.5"/>
-    <col customWidth="1" min="16" max="17" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="18" max="18" style="1" width="19.283333333333299"/>
-    <col customWidth="1" min="19" max="19" style="1" width="50.5416666666667"/>
-    <col customWidth="1" min="20" max="20" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="21" max="21" style="1" width="51.058333333333302"/>
-    <col customWidth="1" min="22" max="25" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="26" max="26" style="1" width="37.466666666666697"/>
-    <col customWidth="1" min="27" max="31" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="32" max="32" style="1" width="16.266666666666701"/>
-    <col customWidth="1" min="33" max="45" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="46" max="46" style="1" width="41.691666666666698"/>
-    <col customWidth="1" min="47" max="50" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="51" max="51" style="1" width="41.691666666666698"/>
-    <col customWidth="1" min="52" max="54" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="55" max="55" style="1" width="44.991666666666703"/>
-    <col customWidth="1" min="56" max="61" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="62" max="62" style="1" width="37.741666666666703"/>
-    <col customWidth="1" min="63" max="63" style="1" width="10.9416666666667"/>
-    <col customWidth="1" min="64" max="64" style="1" width="33.25"/>
-    <col customWidth="1" min="65" max="16384" style="1" width="10.9416666666667"/>
+    <col min="1" max="1" width="46.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.5833333333333" style="3" customWidth="1"/>
+    <col min="3" max="4" width="16.6583333333333" style="3" customWidth="1"/>
+    <col min="5" max="7" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.1416666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.1916666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.1833333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="12" max="12" width="34.3083333333333" style="3" customWidth="1"/>
+    <col min="13" max="13" width="24.0916666666667" style="3" customWidth="1"/>
+    <col min="14" max="14" width="50.6666666666667" style="3" customWidth="1"/>
+    <col min="15" max="15" width="46.5" style="3" customWidth="1"/>
+    <col min="16" max="17" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.2833333333333" style="3" customWidth="1"/>
+    <col min="19" max="19" width="50.5416666666667" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="21" max="21" width="51.0583333333333" style="3" customWidth="1"/>
+    <col min="22" max="25" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="26" max="26" width="37.4666666666667" style="3" customWidth="1"/>
+    <col min="27" max="31" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="32" max="32" width="16.2666666666667" style="3" customWidth="1"/>
+    <col min="33" max="45" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="46" max="46" width="41.6916666666667" style="3" customWidth="1"/>
+    <col min="47" max="50" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="51" max="51" width="41.6916666666667" style="3" customWidth="1"/>
+    <col min="52" max="54" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="55" max="55" width="44.9916666666667" style="3" customWidth="1"/>
+    <col min="56" max="61" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="62" max="62" width="37.7416666666667" style="3" customWidth="1"/>
+    <col min="63" max="63" width="10.9416666666667" style="3" customWidth="1"/>
+    <col min="64" max="64" width="33.25" style="3" customWidth="1"/>
+    <col min="65" max="16384" width="10.9416666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:64">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="S1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BC1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BE1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BG1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BJ1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="60">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="49.5" spans="1:64">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AO2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AP2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AR2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AS2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AT2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AU2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AV2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AX2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AY2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BA2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BB2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BC2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BD2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BE2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BF2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BG2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BH2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BI2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BK2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BL2" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="72.75" customHeight="1">
-      <c r="B3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="72.75" customHeight="1" spans="2:64">
+      <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AM3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AN3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AP3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BA3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BB3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BC3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BD3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BE3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BF3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BG3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BH3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BI3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BK3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BL3" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1"/>
-    <row r="5" s="4" customFormat="1" ht="30.550000000000001" customHeight="1">
+    <row r="4" s="2" customFormat="1"/>
+    <row r="5" s="2" customFormat="1" ht="30.55" customHeight="1" spans="1:66">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.75</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>178196</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -2957,184 +2647,179 @@
       <c r="O5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>5.2300000000000004</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="R5" s="2">
         <v>1</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="2">
         <v>209510</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="4">
-        <v>1</v>
-      </c>
-      <c r="W5" s="4">
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
         <v>10</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4">
+      <c r="Y5" s="2">
         <v>0</v>
       </c>
       <c r="Z5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="2">
         <v>40</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="2">
         <v>10</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="2">
         <v>14309</v>
       </c>
-      <c r="AD5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>137.93000000000001</v>
-      </c>
-      <c r="AF5" s="4">
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>137.93</v>
+      </c>
+      <c r="AF5" s="2">
         <v>-1</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="2">
         <v>4</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="2">
         <v>1.5</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="2">
         <v>1.2</v>
       </c>
-      <c r="AJ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="4">
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="AR5" s="4">
+      <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AR5" s="2">
         <v>0.44</v>
       </c>
-      <c r="AS5" s="4">
-        <v>-361.82999999999998</v>
+      <c r="AS5" s="2">
+        <v>-361.83</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AU5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="4">
+      <c r="AU5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="2">
         <v>4000</v>
       </c>
-      <c r="AW5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="4">
+      <c r="AW5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2">
         <v>0</v>
       </c>
       <c r="AY5" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AZ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="4">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="BB5" s="4">
-        <v>-27.809999999999999</v>
+      <c r="AZ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>5.02</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>-27.81</v>
       </c>
       <c r="BC5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="BD5" s="4">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="4">
+      <c r="BD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="2">
         <v>7500</v>
       </c>
-      <c r="BG5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="4">
+      <c r="BG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="2">
         <v>6000</v>
       </c>
-      <c r="BI5" s="4">
+      <c r="BI5" s="2">
         <v>4</v>
       </c>
       <c r="BJ5" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BK5" s="4">
+      <c r="BK5" s="2">
         <v>1.5</v>
       </c>
       <c r="BL5" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
     </row>
-    <row r="6" s="4" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="1:64">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>178196</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>19.41</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>95624</v>
       </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -3143,177 +2828,177 @@
       <c r="O6" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>20</v>
       </c>
-      <c r="R6" s="4">
-        <v>1.1699999999999999</v>
+      <c r="R6" s="2">
+        <v>1.17</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="2">
         <v>195714</v>
       </c>
       <c r="U6" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="V6" s="4">
-        <v>0.68000000000000005</v>
-      </c>
-      <c r="W6" s="4">
-        <v>26.140000000000001</v>
-      </c>
-      <c r="Y6" s="4">
+      <c r="V6" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="W6" s="2">
+        <v>26.14</v>
+      </c>
+      <c r="Y6" s="2">
         <v>0</v>
       </c>
       <c r="Z6" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="2">
         <v>40</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="2">
         <v>9</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="2">
         <v>184494</v>
       </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4">
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
         <v>-1</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="2">
         <v>1.5</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="2">
         <v>1.2</v>
       </c>
-      <c r="AI6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="AR6" s="4">
+      <c r="AI6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AR6" s="2">
         <v>0.44</v>
       </c>
-      <c r="AS6" s="4">
-        <v>-361.82999999999998</v>
+      <c r="AS6" s="2">
+        <v>-361.83</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AU6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="4">
+      <c r="AU6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="2">
         <v>4000</v>
       </c>
-      <c r="AW6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="4">
+      <c r="AW6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="2">
         <v>0</v>
       </c>
       <c r="AY6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AZ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="4">
-        <v>-159.78999999999999</v>
-      </c>
-      <c r="BB6" s="4">
-        <v>32.740000000000002</v>
+      <c r="AZ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>-159.79</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>32.74</v>
       </c>
       <c r="BC6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="BD6" s="4">
-        <v>-1.3600000000000001</v>
-      </c>
-      <c r="BE6" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="4">
+      <c r="BD6" s="2">
+        <v>-1.36</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="2">
         <v>1500</v>
       </c>
-      <c r="BG6" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="4">
-        <v>5256.1000000000004</v>
-      </c>
-      <c r="BI6" s="4">
+      <c r="BG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>5256.1</v>
+      </c>
+      <c r="BI6" s="2">
         <v>4</v>
       </c>
       <c r="BJ6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BK6" s="4">
-        <v>1.6200000000000001</v>
+      <c r="BK6" s="2">
+        <v>1.62</v>
       </c>
       <c r="BL6" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1">
+    <row r="7" s="2" customFormat="1" spans="1:64">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.5</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>28450</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>10</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>95626</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -3322,180 +3007,180 @@
       <c r="O7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>3</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <v>1</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="2">
         <v>108338</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="V7" s="4">
-        <v>1</v>
-      </c>
-      <c r="W7" s="4">
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
         <v>10</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="2">
         <v>14307</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="2">
         <v>0</v>
       </c>
       <c r="Z7" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="2">
         <v>20</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="2">
         <v>6</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="2">
         <v>163437</v>
       </c>
-      <c r="AD7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4">
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
         <v>-1</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="2">
         <v>1.5</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="2">
         <v>1.2</v>
       </c>
-      <c r="AI7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="4">
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="AR7" s="4">
+      <c r="AI7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AR7" s="2">
         <v>0.44</v>
       </c>
-      <c r="AS7" s="4">
-        <v>-361.82999999999998</v>
+      <c r="AS7" s="2">
+        <v>-361.83</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AU7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="4">
+      <c r="AU7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="2">
         <v>4000</v>
       </c>
-      <c r="AW7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="4">
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2">
         <v>0</v>
       </c>
       <c r="AY7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AZ7" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="4">
+      <c r="AZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
         <v>20</v>
       </c>
-      <c r="BB7" s="4">
+      <c r="BB7" s="2">
         <v>-20</v>
       </c>
       <c r="BC7" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="BD7" s="4">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="4">
+      <c r="BD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="2">
         <v>2800</v>
       </c>
-      <c r="BG7" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="4">
+      <c r="BG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="2">
         <v>4000</v>
       </c>
-      <c r="BI7" s="4">
+      <c r="BI7" s="2">
         <v>4</v>
       </c>
       <c r="BJ7" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BK7" s="4">
+      <c r="BK7" s="2">
         <v>1</v>
       </c>
       <c r="BL7" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1">
+    <row r="8" s="2" customFormat="1" spans="1:64">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>28450</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>19.41</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <v>95624</v>
       </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -3504,177 +3189,177 @@
       <c r="O8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
         <v>5</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <v>1</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="2">
         <v>108338</v>
       </c>
       <c r="U8" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="V8" s="4">
-        <v>1</v>
-      </c>
-      <c r="W8" s="4">
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
         <v>10</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="2">
         <v>0</v>
       </c>
       <c r="Z8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AA8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="4">
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
         <v>10</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC8" s="2">
         <v>184494</v>
       </c>
-      <c r="AD8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4">
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
         <v>-1</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AG8" s="2">
         <v>1.5</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AH8" s="2">
         <v>1.2</v>
       </c>
-      <c r="AI8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="4">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="AR8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="4">
+      <c r="AI8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
         <v>9000</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AU8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="4">
+      <c r="AU8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="2">
         <v>2000</v>
       </c>
-      <c r="AW8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="4">
+      <c r="AW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2">
         <v>0</v>
       </c>
       <c r="AY8" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AZ8" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="4">
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
         <v>-135</v>
       </c>
-      <c r="BB8" s="4">
+      <c r="BB8" s="2">
         <v>-50</v>
       </c>
       <c r="BC8" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="BD8" s="4">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF8" s="4">
+      <c r="BD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="2">
         <v>2500</v>
       </c>
-      <c r="BG8" s="4">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="4">
-        <v>4368.6000000000004</v>
-      </c>
-      <c r="BI8" s="4">
+      <c r="BG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>4368.6</v>
+      </c>
+      <c r="BI8" s="2">
         <v>4</v>
       </c>
       <c r="BJ8" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BK8" s="4">
+      <c r="BK8" s="2">
         <v>1</v>
       </c>
       <c r="BL8" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1">
+    <row r="9" s="2" customFormat="1" spans="1:64">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>178196</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>19.41</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>95624</v>
       </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -3683,177 +3368,177 @@
       <c r="O9" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
         <v>3</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <v>1</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="2">
         <v>59838</v>
       </c>
       <c r="U9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="V9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" s="4">
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
         <v>10</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="2">
         <v>0</v>
       </c>
       <c r="Z9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="2">
         <v>20</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="2">
         <v>6</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AC9" s="2">
         <v>184494</v>
       </c>
-      <c r="AD9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4">
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
         <v>-1</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AG9" s="2">
         <v>1.5</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AH9" s="2">
         <v>1.2</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AI9" s="2">
         <v>1.03</v>
       </c>
-      <c r="AJ9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4">
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="AR9" s="4">
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AR9" s="2">
         <v>0.44</v>
       </c>
-      <c r="AS9" s="4">
-        <v>-361.82999999999998</v>
+      <c r="AS9" s="2">
+        <v>-361.83</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AU9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="4">
+      <c r="AU9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="2">
         <v>4000</v>
       </c>
-      <c r="AW9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4">
+      <c r="AW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2">
         <v>0</v>
       </c>
       <c r="AY9" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AZ9" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="4">
-        <v>78.579999999999998</v>
-      </c>
-      <c r="BB9" s="4">
-        <v>-75.540000000000006</v>
+      <c r="AZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>78.58</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>-75.54</v>
       </c>
       <c r="BC9" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="BD9" s="4">
+      <c r="BD9" s="2">
         <v>-1.24</v>
       </c>
-      <c r="BE9" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="4">
+      <c r="BE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="2">
         <v>2000</v>
       </c>
-      <c r="BG9" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH9" s="4">
-        <v>1809.3800000000001</v>
-      </c>
-      <c r="BI9" s="4">
-        <v>1.1699999999999999</v>
+      <c r="BG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>1809.38</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>1.17</v>
       </c>
       <c r="BJ9" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BK9" s="4">
-        <v>1.3999999999999999</v>
+      <c r="BK9" s="2">
+        <v>1.4</v>
       </c>
       <c r="BL9" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1">
+    <row r="10" s="2" customFormat="1" spans="1:64">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>28450</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>19.41</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <v>95624</v>
       </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -3862,52 +3547,52 @@
       <c r="O10" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
         <v>20</v>
       </c>
-      <c r="R10" s="4">
-        <v>1.1699999999999999</v>
+      <c r="R10" s="2">
+        <v>1.17</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="2">
         <v>195714</v>
       </c>
       <c r="U10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="V10" s="4">
-        <v>1</v>
-      </c>
-      <c r="W10" s="4">
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
         <v>10</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="2">
         <v>0</v>
       </c>
       <c r="Z10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="2">
         <v>40</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10" s="2">
         <v>9</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC10" s="2">
         <v>184494</v>
       </c>
-      <c r="AD10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4">
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
         <v>-1</v>
       </c>
       <c r="AG10" s="7">
@@ -3916,123 +3601,123 @@
       <c r="AH10" s="7">
         <v>1.2</v>
       </c>
-      <c r="AI10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="4">
+      <c r="AI10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="2">
         <v>0.44</v>
       </c>
-      <c r="AS10" s="4">
-        <v>-361.82999999999998</v>
+      <c r="AS10" s="2">
+        <v>-361.83</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AU10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="4">
+      <c r="AU10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="2">
         <v>2000</v>
       </c>
-      <c r="AW10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="4">
+      <c r="AW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2">
         <v>0</v>
       </c>
       <c r="AY10" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AZ10" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="4">
+      <c r="AZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2">
         <v>-135</v>
       </c>
-      <c r="BB10" s="4">
+      <c r="BB10" s="2">
         <v>-50</v>
       </c>
       <c r="BC10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="BD10" s="4">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF10" s="4">
+      <c r="BD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="2">
         <v>2800</v>
       </c>
-      <c r="BG10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH10" s="4">
-        <v>4478.6499999999996</v>
-      </c>
-      <c r="BI10" s="4">
+      <c r="BG10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>4478.65</v>
+      </c>
+      <c r="BI10" s="2">
         <v>4</v>
       </c>
       <c r="BJ10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BK10" s="4">
+      <c r="BK10" s="2">
         <v>1</v>
       </c>
       <c r="BL10" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="30">
+    <row r="11" s="2" customFormat="1" ht="33" spans="1:64">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>178196</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="4">
-        <v>47.850000000000001</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="J11" s="2">
+        <v>47.85</v>
+      </c>
+      <c r="K11" s="2">
         <v>233556</v>
       </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -4041,234 +3726,233 @@
       <c r="O11" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>5.0700000000000003</v>
-      </c>
-      <c r="R11" s="4">
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="R11" s="2">
         <v>2</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="2">
         <v>59821</v>
       </c>
       <c r="U11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="V11" s="4">
-        <v>0.71999999999999997</v>
-      </c>
-      <c r="W11" s="4">
+      <c r="V11" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="W11" s="2">
         <v>14.6</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="2">
         <v>14307</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="2">
         <v>1</v>
       </c>
       <c r="Z11" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="2">
         <v>40</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11" s="2">
         <v>9</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AC11" s="2">
         <v>184494</v>
       </c>
-      <c r="AD11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4">
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
         <v>-1</v>
       </c>
-      <c r="AG11" s="4">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="AH11" s="4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AI11" s="4">
-        <v>1.3300000000000001</v>
-      </c>
-      <c r="AJ11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="4">
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="AR11" s="4">
+      <c r="AG11" s="2">
+        <v>4.48</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>1.09</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AR11" s="2">
         <v>0.44</v>
       </c>
-      <c r="AS11" s="4">
-        <v>-361.82999999999998</v>
+      <c r="AS11" s="2">
+        <v>-361.83</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="AU11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="4">
+      <c r="AU11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="2">
         <v>4000</v>
       </c>
-      <c r="AW11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="4">
+      <c r="AW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="2">
         <v>0</v>
       </c>
       <c r="AY11" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AZ11" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="4">
+      <c r="AZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2">
         <v>70</v>
       </c>
-      <c r="BB11" s="4">
+      <c r="BB11" s="2">
         <v>-1.73</v>
       </c>
       <c r="BC11" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="BD11" s="4">
-        <v>-0.65000000000000002</v>
-      </c>
-      <c r="BE11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF11" s="4">
+      <c r="BD11" s="2">
+        <v>-0.65</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="2">
         <v>239.12</v>
       </c>
-      <c r="BG11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="4">
-        <v>4368.6000000000004</v>
-      </c>
-      <c r="BI11" s="4">
+      <c r="BG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>4368.6</v>
+      </c>
+      <c r="BI11" s="2">
         <v>4</v>
       </c>
       <c r="BJ11" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="BK11" s="4">
+      <c r="BK11" s="2">
         <v>1</v>
       </c>
       <c r="BL11" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1"/>
-    <row r="13" s="4" customFormat="1"/>
-    <row r="14" s="4" customFormat="1">
+    <row r="12" s="2" customFormat="1"/>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1" spans="2:6">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" s="4" customFormat="1">
+    <row r="15" s="2" customFormat="1" spans="2:6">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" s="4" customFormat="1">
+    <row r="16" s="2" customFormat="1" spans="2:6">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" s="4" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="2:6">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" s="4" customFormat="1">
+    <row r="18" s="2" customFormat="1" spans="2:6">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" s="4" customFormat="1">
+    <row r="19" s="2" customFormat="1" spans="2:6">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" s="4" customFormat="1">
+    <row r="20" s="2" customFormat="1" spans="2:6">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" s="4" customFormat="1">
+    <row r="21" s="2" customFormat="1" spans="2:6">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" s="4" customFormat="1"/>
-    <row r="23" s="4" customFormat="1"/>
-    <row r="24" s="4" customFormat="1"/>
-    <row r="25" s="4" customFormat="1"/>
-    <row r="26" s="4" customFormat="1"/>
-    <row r="27" s="4" customFormat="1"/>
-    <row r="28" s="4" customFormat="1"/>
-    <row r="29" s="4" customFormat="1"/>
-    <row r="30" s="4" customFormat="1"/>
-    <row r="31" s="4" customFormat="1"/>
-    <row r="32" s="4" customFormat="1"/>
-    <row r="33" s="4" customFormat="1"/>
-    <row r="34" s="4" customFormat="1"/>
-    <row r="35" s="4" customFormat="1"/>
-    <row r="36" s="4" customFormat="1"/>
-    <row r="37" s="4" customFormat="1"/>
-    <row r="38" s="4" customFormat="1"/>
-    <row r="39" s="4" customFormat="1"/>
-    <row r="40" s="4" customFormat="1"/>
-    <row r="41" s="4" customFormat="1"/>
-    <row r="42" s="4" customFormat="1"/>
-    <row r="43" s="4" customFormat="1"/>
-    <row r="44" s="4" customFormat="1"/>
-    <row r="45" s="4" customFormat="1"/>
-    <row r="46" s="4" customFormat="1"/>
+    <row r="22" s="2" customFormat="1"/>
+    <row r="23" s="2" customFormat="1"/>
+    <row r="24" s="2" customFormat="1"/>
+    <row r="25" s="2" customFormat="1"/>
+    <row r="26" s="2" customFormat="1"/>
+    <row r="27" s="2" customFormat="1"/>
+    <row r="28" s="2" customFormat="1"/>
+    <row r="29" s="2" customFormat="1"/>
+    <row r="30" s="2" customFormat="1"/>
+    <row r="31" s="2" customFormat="1"/>
+    <row r="32" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1"/>
+    <row r="34" s="2" customFormat="1"/>
+    <row r="35" s="2" customFormat="1"/>
+    <row r="36" s="2" customFormat="1"/>
+    <row r="37" s="2" customFormat="1"/>
+    <row r="38" s="2" customFormat="1"/>
+    <row r="39" s="2" customFormat="1"/>
+    <row r="40" s="2" customFormat="1"/>
+    <row r="41" s="2" customFormat="1"/>
+    <row r="42" s="2" customFormat="1"/>
+    <row r="43" s="2" customFormat="1"/>
+    <row r="44" s="2" customFormat="1"/>
+    <row r="45" s="2" customFormat="1"/>
+    <row r="46" s="2" customFormat="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="216">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1573,37 +1573,40 @@
     <t xml:space="preserve">(R=0.775822,G=0.822786,B=1.000000,A=0.000000)</t>
   </si>
   <si>
+    <t xml:space="preserve">(R=0.162029,G=0.296138,B=0.434154,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.028426,G=0.031896,B=0.059511,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.104616,G=0.132868,B=0.184475,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.283149,G=0.296138,B=0.381326,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.043945,G=0.178211,B=0.562500,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.838799,B=0.838799,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.806952,G=0.428690,B=0.715693,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.000000,G=0.180000,B=0.540000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.150000,G=0.540000,B=0.700000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.850000,B=0.750000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.850000,B=0.860000,A=1.000000)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(R=0.760784,G=0.800000,B=0.823529,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.028426,G=0.031896,B=0.059511,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.104616,G=0.132868,B=0.184475,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.283149,G=0.296138,B=0.381326,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.043945,G=0.178211,B=0.562500,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.838799,B=0.838799,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.806952,G=0.428690,B=0.715693,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.000000,G=0.180000,B=0.540000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.150000,G=0.540000,B=0.700000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.850000,B=0.750000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.850000,B=0.860000,A=1.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">(R=0.605554,G=0.641578,B=0.950000,A=1.000000)</t>
@@ -1761,7 +1764,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1788,18 +1791,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1997,8 +1988,8 @@
   </sheetPr>
   <dimension ref="A1:BN46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AU18" activeCellId="0" sqref="AU18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3886,26 +3877,26 @@
       <c r="C12" s="7" t="n">
         <v>14304</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="7" t="n">
         <v>0</v>
       </c>
@@ -3927,7 +3918,7 @@
       <c r="R12" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="5" t="s">
         <v>182</v>
       </c>
       <c r="T12" s="7" t="n">
@@ -3942,7 +3933,7 @@
       <c r="W12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X12" s="9" t="s">
+      <c r="X12" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y12" s="7" t="n">
@@ -3957,7 +3948,7 @@
       <c r="AB12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC12" s="9" t="s">
+      <c r="AC12" s="5" t="s">
         <v>183</v>
       </c>
       <c r="AD12" s="7" t="n">
@@ -3981,44 +3972,44 @@
       <c r="AJ12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK12" s="8"/>
+      <c r="AK12" s="7"/>
       <c r="AL12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU12" s="9" t="s">
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS12" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AT12" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AU12" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AV12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX12" s="7" t="n">
+      <c r="AV12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AX12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AY12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ12" s="9" t="s">
+      <c r="AZ12" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA12" s="7" t="n">
@@ -4030,7 +4021,7 @@
       <c r="BC12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="BD12" s="9" t="s">
+      <c r="BD12" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE12" s="7" t="n">
@@ -4042,23 +4033,23 @@
       <c r="BG12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH12" s="9" t="s">
+      <c r="BH12" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="BI12" s="8"/>
+      <c r="BI12" s="7"/>
       <c r="BJ12" s="7" t="n">
         <v>1</v>
       </c>
       <c r="BK12" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="BL12" s="9" t="s">
+      <c r="BL12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="BM12" s="9" t="s">
+      <c r="BM12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="BN12" s="0"/>
+      <c r="BN12" s="1"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
@@ -4076,19 +4067,19 @@
       <c r="E13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="5" t="s">
         <v>187</v>
       </c>
       <c r="K13" s="7" t="n">
@@ -4115,7 +4106,7 @@
       <c r="R13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="5" t="s">
         <v>188</v>
       </c>
       <c r="T13" s="7" t="n">
@@ -4124,11 +4115,11 @@
       <c r="U13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="7"/>
       <c r="W13" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="X13" s="5" t="s">
         <v>189</v>
       </c>
       <c r="Y13" s="7" t="n">
@@ -4143,7 +4134,7 @@
       <c r="AB13" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="AC13" s="9" t="s">
+      <c r="AC13" s="5" t="s">
         <v>173</v>
       </c>
       <c r="AD13" s="7" t="n">
@@ -4167,13 +4158,13 @@
       <c r="AJ13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK13" s="8"/>
+      <c r="AK13" s="7"/>
       <c r="AL13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
       <c r="AP13" s="7" t="n">
         <v>1</v>
       </c>
@@ -4181,15 +4172,15 @@
         <v>2</v>
       </c>
       <c r="AR13" s="7" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="AS13" s="7" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="AT13" s="7" t="n">
-        <v>-1988.675537</v>
-      </c>
-      <c r="AU13" s="9" t="s">
+        <v>3000</v>
+      </c>
+      <c r="AU13" s="5" t="s">
         <v>190</v>
       </c>
       <c r="AV13" s="7" t="n">
@@ -4204,7 +4195,7 @@
       <c r="AY13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ13" s="9" t="s">
+      <c r="AZ13" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA13" s="7" t="n">
@@ -4216,7 +4207,7 @@
       <c r="BC13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="BD13" s="9" t="s">
+      <c r="BD13" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE13" s="7" t="n">
@@ -4228,7 +4219,7 @@
       <c r="BG13" s="7" t="n">
         <v>1.7</v>
       </c>
-      <c r="BH13" s="9" t="s">
+      <c r="BH13" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI13" s="7" t="n">
@@ -4240,13 +4231,13 @@
       <c r="BK13" s="7" t="n">
         <v>2800</v>
       </c>
-      <c r="BL13" s="9" t="s">
+      <c r="BL13" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="BM13" s="9" t="s">
+      <c r="BM13" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="BN13" s="0"/>
+      <c r="BN13" s="1"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
@@ -4264,19 +4255,19 @@
       <c r="E14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>159</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="5" t="s">
         <v>193</v>
       </c>
       <c r="K14" s="7" t="n">
@@ -4303,7 +4294,7 @@
       <c r="R14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="5" t="s">
         <v>188</v>
       </c>
       <c r="T14" s="7" t="n">
@@ -4318,7 +4309,7 @@
       <c r="W14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="X14" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y14" s="7" t="n">
@@ -4333,7 +4324,7 @@
       <c r="AB14" s="7" t="n">
         <v>0.85</v>
       </c>
-      <c r="AC14" s="9" t="s">
+      <c r="AC14" s="5" t="s">
         <v>194</v>
       </c>
       <c r="AD14" s="7" t="n">
@@ -4357,13 +4348,13 @@
       <c r="AJ14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK14" s="8"/>
+      <c r="AK14" s="7"/>
       <c r="AL14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
       <c r="AP14" s="7" t="n">
         <v>0</v>
       </c>
@@ -4371,22 +4362,22 @@
         <v>0</v>
       </c>
       <c r="AR14" s="7" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AS14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AT14" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU14" s="9" t="s">
-        <v>184</v>
+        <v>4000</v>
+      </c>
+      <c r="AU14" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AW14" s="7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AX14" s="7" t="n">
         <v>0</v>
@@ -4394,7 +4385,7 @@
       <c r="AY14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ14" s="9" t="s">
+      <c r="AZ14" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA14" s="7" t="n">
@@ -4406,7 +4397,7 @@
       <c r="BC14" s="7" t="n">
         <v>1.340545</v>
       </c>
-      <c r="BD14" s="9" t="s">
+      <c r="BD14" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE14" s="7" t="n">
@@ -4418,7 +4409,7 @@
       <c r="BG14" s="7" t="n">
         <v>1.463273</v>
       </c>
-      <c r="BH14" s="9" t="s">
+      <c r="BH14" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI14" s="7" t="n">
@@ -4430,11 +4421,11 @@
       <c r="BK14" s="7" t="n">
         <v>2000</v>
       </c>
-      <c r="BL14" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM14" s="9" t="s">
-        <v>195</v>
+      <c r="BL14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BM14" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4453,20 +4444,20 @@
       <c r="E15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="5" t="s">
         <v>198</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="K15" s="7" t="n">
         <v>4.581142</v>
@@ -4474,7 +4465,7 @@
       <c r="L15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="7" t="n">
         <v>1</v>
       </c>
@@ -4490,7 +4481,7 @@
       <c r="R15" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="5" t="s">
         <v>182</v>
       </c>
       <c r="T15" s="7" t="n">
@@ -4499,11 +4490,11 @@
       <c r="U15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V15" s="8"/>
+      <c r="V15" s="7"/>
       <c r="W15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="X15" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y15" s="7" t="n">
@@ -4518,8 +4509,8 @@
       <c r="AB15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC15" s="9" t="s">
-        <v>199</v>
+      <c r="AC15" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="AD15" s="7" t="n">
         <v>1</v>
@@ -4542,30 +4533,30 @@
       <c r="AJ15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK15" s="8"/>
+      <c r="AK15" s="7"/>
       <c r="AL15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
       <c r="AP15" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AR15" s="7" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AS15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AT15" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU15" s="9" t="s">
-        <v>184</v>
+        <v>4000</v>
+      </c>
+      <c r="AU15" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV15" s="7" t="n">
         <v>1</v>
@@ -4579,7 +4570,7 @@
       <c r="AY15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ15" s="9" t="s">
+      <c r="AZ15" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA15" s="7" t="n">
@@ -4591,7 +4582,7 @@
       <c r="BC15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="BD15" s="9" t="s">
+      <c r="BD15" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE15" s="7" t="n">
@@ -4603,7 +4594,7 @@
       <c r="BG15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH15" s="9" t="s">
+      <c r="BH15" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI15" s="7" t="n">
@@ -4615,11 +4606,11 @@
       <c r="BK15" s="7" t="n">
         <v>2500</v>
       </c>
-      <c r="BL15" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM15" s="9" t="s">
-        <v>200</v>
+      <c r="BL15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BM15" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4638,20 +4629,20 @@
       <c r="E16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="5" t="s">
         <v>198</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="n">
         <v>4.581142</v>
@@ -4659,7 +4650,7 @@
       <c r="L16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="7" t="n">
         <v>1</v>
       </c>
@@ -4675,7 +4666,7 @@
       <c r="R16" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="5" t="s">
         <v>182</v>
       </c>
       <c r="T16" s="7" t="n">
@@ -4684,11 +4675,11 @@
       <c r="U16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V16" s="8"/>
+      <c r="V16" s="7"/>
       <c r="W16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X16" s="9" t="s">
+      <c r="X16" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y16" s="7" t="n">
@@ -4703,8 +4694,8 @@
       <c r="AB16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC16" s="9" t="s">
-        <v>199</v>
+      <c r="AC16" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="AD16" s="7" t="n">
         <v>1</v>
@@ -4727,21 +4718,21 @@
       <c r="AJ16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK16" s="8"/>
+      <c r="AK16" s="7"/>
       <c r="AL16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
       <c r="AP16" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AR16" s="7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS16" s="7" t="n">
         <v>1</v>
@@ -4749,8 +4740,8 @@
       <c r="AT16" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="AU16" s="9" t="s">
-        <v>184</v>
+      <c r="AU16" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV16" s="7" t="n">
         <v>1</v>
@@ -4764,7 +4755,7 @@
       <c r="AY16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ16" s="9" t="s">
+      <c r="AZ16" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA16" s="7" t="n">
@@ -4776,7 +4767,7 @@
       <c r="BC16" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="BD16" s="9" t="s">
+      <c r="BD16" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE16" s="7" t="n">
@@ -4788,7 +4779,7 @@
       <c r="BG16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH16" s="9" t="s">
+      <c r="BH16" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI16" s="7" t="n">
@@ -4800,11 +4791,11 @@
       <c r="BK16" s="7" t="n">
         <v>2500</v>
       </c>
-      <c r="BL16" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM16" s="9" t="s">
-        <v>200</v>
+      <c r="BL16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BM16" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4823,20 +4814,20 @@
       <c r="E17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>201</v>
+      <c r="J17" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="n">
         <v>3</v>
@@ -4844,7 +4835,7 @@
       <c r="L17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="7" t="n">
         <v>1</v>
       </c>
@@ -4860,8 +4851,8 @@
       <c r="R17" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>202</v>
+      <c r="S17" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="T17" s="7" t="n">
         <v>6</v>
@@ -4875,7 +4866,7 @@
       <c r="W17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X17" s="9" t="s">
+      <c r="X17" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y17" s="7" t="n">
@@ -4890,8 +4881,8 @@
       <c r="AB17" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC17" s="9" t="s">
-        <v>203</v>
+      <c r="AC17" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="AD17" s="7" t="n">
         <v>1</v>
@@ -4914,21 +4905,21 @@
       <c r="AJ17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK17" s="8"/>
+      <c r="AK17" s="7"/>
       <c r="AL17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
       <c r="AP17" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AR17" s="7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS17" s="7" t="n">
         <v>1</v>
@@ -4936,8 +4927,8 @@
       <c r="AT17" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="AU17" s="9" t="s">
-        <v>184</v>
+      <c r="AU17" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV17" s="7" t="n">
         <v>1</v>
@@ -4951,7 +4942,7 @@
       <c r="AY17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ17" s="9" t="s">
+      <c r="AZ17" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA17" s="7" t="n">
@@ -4963,7 +4954,7 @@
       <c r="BC17" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="BD17" s="9" t="s">
+      <c r="BD17" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE17" s="7" t="n">
@@ -4975,7 +4966,7 @@
       <c r="BG17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH17" s="9" t="s">
+      <c r="BH17" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI17" s="7" t="n">
@@ -4987,11 +4978,11 @@
       <c r="BK17" s="7" t="n">
         <v>2800</v>
       </c>
-      <c r="BL17" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="BM17" s="9" t="s">
-        <v>204</v>
+      <c r="BL17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BM17" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5010,19 +5001,19 @@
       <c r="E18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="I18" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>193</v>
       </c>
       <c r="K18" s="7" t="n">
@@ -5049,7 +5040,7 @@
       <c r="R18" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="5" t="s">
         <v>188</v>
       </c>
       <c r="T18" s="7" t="n">
@@ -5064,7 +5055,7 @@
       <c r="W18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X18" s="9" t="s">
+      <c r="X18" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y18" s="7" t="n">
@@ -5079,8 +5070,8 @@
       <c r="AB18" s="7" t="n">
         <v>0.85</v>
       </c>
-      <c r="AC18" s="9" t="s">
-        <v>207</v>
+      <c r="AC18" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="AD18" s="7" t="n">
         <v>1</v>
@@ -5103,15 +5094,15 @@
       <c r="AJ18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK18" s="8"/>
+      <c r="AK18" s="7"/>
       <c r="AL18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="8"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
       <c r="AP18" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="7" t="n">
         <v>0</v>
@@ -5123,10 +5114,10 @@
         <v>1</v>
       </c>
       <c r="AT18" s="7" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="AU18" s="9" t="s">
-        <v>184</v>
+        <v>3000</v>
+      </c>
+      <c r="AU18" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV18" s="7" t="n">
         <v>1</v>
@@ -5140,7 +5131,7 @@
       <c r="AY18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ18" s="9" t="s">
+      <c r="AZ18" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA18" s="7" t="n">
@@ -5152,7 +5143,7 @@
       <c r="BC18" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="BD18" s="9" t="s">
+      <c r="BD18" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE18" s="7" t="n">
@@ -5164,7 +5155,7 @@
       <c r="BG18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH18" s="9" t="s">
+      <c r="BH18" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI18" s="7" t="n">
@@ -5176,11 +5167,11 @@
       <c r="BK18" s="7" t="n">
         <v>2800</v>
       </c>
-      <c r="BL18" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="BM18" s="9" t="s">
-        <v>208</v>
+      <c r="BL18" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM18" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5199,20 +5190,20 @@
       <c r="E19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="I19" s="5" t="s">
         <v>198</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="n">
         <v>4.581142</v>
@@ -5220,7 +5211,7 @@
       <c r="L19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="7" t="n">
         <v>1</v>
       </c>
@@ -5236,7 +5227,7 @@
       <c r="R19" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S19" s="5" t="s">
         <v>182</v>
       </c>
       <c r="T19" s="7" t="n">
@@ -5245,11 +5236,11 @@
       <c r="U19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V19" s="8"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X19" s="9" t="s">
+      <c r="X19" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y19" s="7" t="n">
@@ -5264,8 +5255,8 @@
       <c r="AB19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC19" s="9" t="s">
-        <v>199</v>
+      <c r="AC19" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="AD19" s="7" t="n">
         <v>1</v>
@@ -5288,30 +5279,30 @@
       <c r="AJ19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK19" s="8"/>
+      <c r="AK19" s="7"/>
       <c r="AL19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
       <c r="AP19" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AR19" s="7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS19" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AT19" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU19" s="9" t="s">
-        <v>184</v>
+        <v>3000</v>
+      </c>
+      <c r="AU19" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV19" s="7" t="n">
         <v>1</v>
@@ -5325,7 +5316,7 @@
       <c r="AY19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ19" s="9" t="s">
+      <c r="AZ19" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA19" s="7" t="n">
@@ -5337,7 +5328,7 @@
       <c r="BC19" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="BD19" s="9" t="s">
+      <c r="BD19" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE19" s="7" t="n">
@@ -5349,7 +5340,7 @@
       <c r="BG19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH19" s="9" t="s">
+      <c r="BH19" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI19" s="7" t="n">
@@ -5361,11 +5352,11 @@
       <c r="BK19" s="7" t="n">
         <v>2500</v>
       </c>
-      <c r="BL19" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM19" s="9" t="s">
-        <v>200</v>
+      <c r="BL19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BM19" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5384,20 +5375,20 @@
       <c r="E20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="I20" s="5" t="s">
         <v>210</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="n">
         <v>6.818502</v>
@@ -5423,7 +5414,7 @@
       <c r="R20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="S20" s="5" t="s">
         <v>188</v>
       </c>
       <c r="T20" s="7" t="n">
@@ -5438,7 +5429,7 @@
       <c r="W20" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="X20" s="9" t="s">
+      <c r="X20" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y20" s="7" t="n">
@@ -5453,7 +5444,7 @@
       <c r="AB20" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="AC20" s="9" t="s">
+      <c r="AC20" s="5" t="s">
         <v>173</v>
       </c>
       <c r="AD20" s="7" t="n">
@@ -5477,30 +5468,30 @@
       <c r="AJ20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK20" s="8"/>
+      <c r="AK20" s="7"/>
       <c r="AL20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="8"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
       <c r="AP20" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AR20" s="7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS20" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AT20" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU20" s="9" t="s">
-        <v>184</v>
+        <v>3000</v>
+      </c>
+      <c r="AU20" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV20" s="7" t="n">
         <v>1</v>
@@ -5514,7 +5505,7 @@
       <c r="AY20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ20" s="9" t="s">
+      <c r="AZ20" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA20" s="7" t="n">
@@ -5526,8 +5517,8 @@
       <c r="BC20" s="7" t="n">
         <v>7.131848</v>
       </c>
-      <c r="BD20" s="9" t="s">
-        <v>211</v>
+      <c r="BD20" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="BE20" s="7" t="n">
         <v>1</v>
@@ -5538,7 +5529,7 @@
       <c r="BG20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH20" s="9" t="s">
+      <c r="BH20" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI20" s="7" t="n">
@@ -5550,11 +5541,11 @@
       <c r="BK20" s="7" t="n">
         <v>1598.976807</v>
       </c>
-      <c r="BL20" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM20" s="9" t="s">
-        <v>212</v>
+      <c r="BL20" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BM20" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5573,20 +5564,20 @@
       <c r="E21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="I21" s="5" t="s">
         <v>198</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="K21" s="7" t="n">
         <v>4.581142</v>
@@ -5594,7 +5585,7 @@
       <c r="L21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="7" t="n">
         <v>1</v>
       </c>
@@ -5610,7 +5601,7 @@
       <c r="R21" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="S21" s="5" t="s">
         <v>182</v>
       </c>
       <c r="T21" s="7" t="n">
@@ -5619,11 +5610,11 @@
       <c r="U21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V21" s="8"/>
+      <c r="V21" s="7"/>
       <c r="W21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X21" s="9" t="s">
+      <c r="X21" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y21" s="7" t="n">
@@ -5638,8 +5629,8 @@
       <c r="AB21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC21" s="9" t="s">
-        <v>199</v>
+      <c r="AC21" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="AD21" s="7" t="n">
         <v>1</v>
@@ -5662,30 +5653,30 @@
       <c r="AJ21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="8"/>
+      <c r="AK21" s="7"/>
       <c r="AL21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
       <c r="AP21" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AR21" s="7" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AS21" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AT21" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU21" s="9" t="s">
-        <v>184</v>
+        <v>3000</v>
+      </c>
+      <c r="AU21" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV21" s="7" t="n">
         <v>1</v>
@@ -5699,7 +5690,7 @@
       <c r="AY21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="9" t="s">
+      <c r="AZ21" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA21" s="7" t="n">
@@ -5711,7 +5702,7 @@
       <c r="BC21" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="BD21" s="9" t="s">
+      <c r="BD21" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE21" s="7" t="n">
@@ -5723,7 +5714,7 @@
       <c r="BG21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH21" s="9" t="s">
+      <c r="BH21" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI21" s="7" t="n">
@@ -5735,11 +5726,11 @@
       <c r="BK21" s="7" t="n">
         <v>2500</v>
       </c>
-      <c r="BL21" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM21" s="9" t="s">
-        <v>200</v>
+      <c r="BL21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BM21" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5758,20 +5749,20 @@
       <c r="E22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G22" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="I22" s="5" t="s">
         <v>198</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="n">
         <v>4.581142</v>
@@ -5779,7 +5770,7 @@
       <c r="L22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="7" t="n">
         <v>1</v>
       </c>
@@ -5795,7 +5786,7 @@
       <c r="R22" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="5" t="s">
         <v>182</v>
       </c>
       <c r="T22" s="7" t="n">
@@ -5804,11 +5795,11 @@
       <c r="U22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V22" s="8"/>
+      <c r="V22" s="7"/>
       <c r="W22" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X22" s="9" t="s">
+      <c r="X22" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y22" s="7" t="n">
@@ -5823,8 +5814,8 @@
       <c r="AB22" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC22" s="9" t="s">
-        <v>199</v>
+      <c r="AC22" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="AD22" s="7" t="n">
         <v>1</v>
@@ -5847,30 +5838,30 @@
       <c r="AJ22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK22" s="8"/>
+      <c r="AK22" s="7"/>
       <c r="AL22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
       <c r="AP22" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AR22" s="7" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AS22" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AT22" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU22" s="9" t="s">
-        <v>184</v>
+        <v>3000</v>
+      </c>
+      <c r="AU22" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV22" s="7" t="n">
         <v>1</v>
@@ -5884,7 +5875,7 @@
       <c r="AY22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ22" s="9" t="s">
+      <c r="AZ22" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA22" s="7" t="n">
@@ -5896,7 +5887,7 @@
       <c r="BC22" s="7" t="n">
         <v>8.518238</v>
       </c>
-      <c r="BD22" s="9" t="s">
+      <c r="BD22" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE22" s="7" t="n">
@@ -5908,7 +5899,7 @@
       <c r="BG22" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH22" s="9" t="s">
+      <c r="BH22" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI22" s="7" t="n">
@@ -5920,11 +5911,11 @@
       <c r="BK22" s="7" t="n">
         <v>2500</v>
       </c>
-      <c r="BL22" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM22" s="9" t="s">
-        <v>200</v>
+      <c r="BL22" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BM22" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5943,20 +5934,20 @@
       <c r="E23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>201</v>
+      <c r="J23" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="n">
         <v>3</v>
@@ -5964,7 +5955,7 @@
       <c r="L23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="7" t="n">
         <v>1</v>
       </c>
@@ -5980,8 +5971,8 @@
       <c r="R23" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="S23" s="9" t="s">
-        <v>202</v>
+      <c r="S23" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="T23" s="7" t="n">
         <v>6</v>
@@ -5989,11 +5980,11 @@
       <c r="U23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V23" s="8"/>
+      <c r="V23" s="7"/>
       <c r="W23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X23" s="9" t="s">
+      <c r="X23" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y23" s="7" t="n">
@@ -6008,8 +5999,8 @@
       <c r="AB23" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC23" s="9" t="s">
-        <v>203</v>
+      <c r="AC23" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="AD23" s="7" t="n">
         <v>1</v>
@@ -6032,30 +6023,30 @@
       <c r="AJ23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK23" s="8"/>
+      <c r="AK23" s="7"/>
       <c r="AL23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
       <c r="AP23" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AR23" s="7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS23" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AT23" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU23" s="9" t="s">
-        <v>184</v>
+        <v>3000</v>
+      </c>
+      <c r="AU23" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV23" s="7" t="n">
         <v>1</v>
@@ -6069,7 +6060,7 @@
       <c r="AY23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ23" s="9" t="s">
+      <c r="AZ23" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA23" s="7" t="n">
@@ -6081,7 +6072,7 @@
       <c r="BC23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BD23" s="9" t="s">
+      <c r="BD23" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE23" s="7" t="n">
@@ -6093,7 +6084,7 @@
       <c r="BG23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH23" s="9" t="s">
+      <c r="BH23" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI23" s="7" t="n">
@@ -6105,11 +6096,11 @@
       <c r="BK23" s="7" t="n">
         <v>2800</v>
       </c>
-      <c r="BL23" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="BM23" s="9" t="s">
-        <v>204</v>
+      <c r="BL23" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BM23" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6128,20 +6119,20 @@
       <c r="E24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>201</v>
+      <c r="J24" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="K24" s="7" t="n">
         <v>3</v>
@@ -6149,7 +6140,7 @@
       <c r="L24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="7" t="n">
         <v>1</v>
       </c>
@@ -6165,8 +6156,8 @@
       <c r="R24" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="S24" s="9" t="s">
-        <v>202</v>
+      <c r="S24" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="T24" s="7" t="n">
         <v>6</v>
@@ -6174,11 +6165,11 @@
       <c r="U24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V24" s="8"/>
+      <c r="V24" s="7"/>
       <c r="W24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X24" s="9" t="s">
+      <c r="X24" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y24" s="7" t="n">
@@ -6193,8 +6184,8 @@
       <c r="AB24" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC24" s="9" t="s">
-        <v>203</v>
+      <c r="AC24" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="AD24" s="7" t="n">
         <v>1</v>
@@ -6217,13 +6208,13 @@
       <c r="AJ24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK24" s="8"/>
+      <c r="AK24" s="7"/>
       <c r="AL24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
       <c r="AP24" s="7" t="n">
         <v>1</v>
       </c>
@@ -6231,7 +6222,7 @@
         <v>2</v>
       </c>
       <c r="AR24" s="7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AS24" s="7" t="n">
         <v>0.7</v>
@@ -6239,8 +6230,8 @@
       <c r="AT24" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="AU24" s="9" t="s">
-        <v>213</v>
+      <c r="AU24" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="AV24" s="7" t="n">
         <v>1</v>
@@ -6254,7 +6245,7 @@
       <c r="AY24" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ24" s="9" t="s">
+      <c r="AZ24" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA24" s="7" t="n">
@@ -6266,7 +6257,7 @@
       <c r="BC24" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="BD24" s="9" t="s">
+      <c r="BD24" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE24" s="7" t="n">
@@ -6278,7 +6269,7 @@
       <c r="BG24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH24" s="9" t="s">
+      <c r="BH24" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI24" s="7" t="n">
@@ -6290,11 +6281,11 @@
       <c r="BK24" s="7" t="n">
         <v>2800</v>
       </c>
-      <c r="BL24" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="BM24" s="9" t="s">
-        <v>204</v>
+      <c r="BL24" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BM24" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6313,19 +6304,19 @@
       <c r="E25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="5" t="s">
         <v>181</v>
       </c>
       <c r="K25" s="7" t="n">
@@ -6334,7 +6325,7 @@
       <c r="L25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="8"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="7" t="n">
         <v>1</v>
       </c>
@@ -6350,7 +6341,7 @@
       <c r="R25" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="S25" s="5" t="s">
         <v>182</v>
       </c>
       <c r="T25" s="7" t="n">
@@ -6359,11 +6350,11 @@
       <c r="U25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V25" s="8"/>
+      <c r="V25" s="7"/>
       <c r="W25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="X25" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y25" s="7" t="n">
@@ -6378,8 +6369,8 @@
       <c r="AB25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC25" s="9" t="s">
-        <v>214</v>
+      <c r="AC25" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="AD25" s="7" t="n">
         <v>1</v>
@@ -6402,15 +6393,15 @@
       <c r="AJ25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK25" s="8"/>
+      <c r="AK25" s="7"/>
       <c r="AL25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
       <c r="AP25" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="7" t="n">
         <v>0</v>
@@ -6422,10 +6413,10 @@
         <v>1</v>
       </c>
       <c r="AT25" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU25" s="9" t="s">
-        <v>184</v>
+        <v>3000</v>
+      </c>
+      <c r="AU25" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="AV25" s="7" t="n">
         <v>1</v>
@@ -6439,7 +6430,7 @@
       <c r="AY25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ25" s="9" t="s">
+      <c r="AZ25" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA25" s="7" t="n">
@@ -6451,7 +6442,7 @@
       <c r="BC25" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="BD25" s="9" t="s">
+      <c r="BD25" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE25" s="7" t="n">
@@ -6463,7 +6454,7 @@
       <c r="BG25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH25" s="9" t="s">
+      <c r="BH25" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BI25" s="7" t="n">
@@ -6475,139 +6466,139 @@
       <c r="BK25" s="7" t="n">
         <v>2800</v>
       </c>
-      <c r="BL25" s="9" t="s">
+      <c r="BL25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="BM25" s="9" t="s">
+      <c r="BM25" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
       <c r="AU26" s="5"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
       <c r="AZ26" s="5"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
       <c r="BD26" s="5"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
       <c r="BH26" s="5"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
-      <c r="BK26" s="10"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
       <c r="BL26" s="5"/>
     </row>
     <row r="27" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
       <c r="AU27" s="5"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
       <c r="AZ27" s="5"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
       <c r="BD27" s="5"/>
-      <c r="BE27" s="10"/>
-      <c r="BF27" s="10"/>
-      <c r="BG27" s="10"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
       <c r="BH27" s="5"/>
-      <c r="BI27" s="10"/>
-      <c r="BJ27" s="10"/>
-      <c r="BK27" s="10"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
       <c r="BL27" s="5"/>
     </row>
     <row r="28" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="216">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1627,6 +1627,30 @@
     <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=0.950000)</t>
   </si>
   <si>
+    <t xml:space="preserve">(R=0.000000,G=0.144128,B=0.564712,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.086500,G=0.318547,B=0.752942,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.950000,B=0.710000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.580000,G=0.610000,B=0.960000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.163971,G=0.163971,B=0.163971,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.091177,G=0.091177,B=0.091177,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.346324,G=0.346324,B=0.346324,A=0.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.293850,G=0.407996,B=0.555147,A=1.000000)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(R=1.000000,G=0.603827,B=0.327778,A=1.000000)</t>
   </si>
   <si>
@@ -1637,30 +1661,6 @@
   </si>
   <si>
     <t xml:space="preserve">(R=0.854993,G=0.708376,B=0.708376,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.000000,G=0.144128,B=0.564712,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.086500,G=0.318547,B=0.752942,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.950000,B=0.710000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.580000,G=0.610000,B=0.960000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.163971,G=0.163971,B=0.163971,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.091177,G=0.091177,B=0.091177,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.346324,G=0.346324,B=0.346324,A=0.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.293850,G=0.407996,B=0.555147,A=1.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">(R=0.658375,G=0.800000,B=0.760525,A=1.000000)</t>
@@ -1986,10 +1986,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN46"/>
+  <dimension ref="A1:BN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3980,7 +3980,7 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="4" t="n">
         <v>0</v>
@@ -4356,13 +4356,13 @@
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AR14" s="7" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="AS14" s="7" t="n">
         <v>1</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="7" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AS15" s="7" t="n">
         <v>1</v>
@@ -4821,41 +4821,43 @@
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>14307</v>
+      </c>
       <c r="N17" s="7" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O17" s="7" t="n">
         <v>10</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7" t="n">
         <v>14309</v>
       </c>
       <c r="R17" s="7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="T17" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U17" s="7" t="n">
         <v>0</v>
@@ -4879,7 +4881,7 @@
         <v>28450</v>
       </c>
       <c r="AB17" s="7" t="n">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="AC17" s="5" t="s">
         <v>204</v>
@@ -4925,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="AT17" s="7" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU17" s="5" t="s">
         <v>195</v>
@@ -4949,7 +4951,7 @@
         <v>20</v>
       </c>
       <c r="BB17" s="7" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="BC17" s="7" t="n">
         <v>4</v>
@@ -4961,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="BF17" s="7" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="BG17" s="7" t="n">
         <v>1</v>
@@ -5008,50 +5010,46 @@
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>5</v>
+        <v>4.581142</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <v>14307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7"/>
       <c r="N18" s="7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="7" t="n">
         <v>10</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="7" t="n">
         <v>14309</v>
       </c>
       <c r="R18" s="7" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="T18" s="7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V18" s="7" t="n">
-        <v>14302</v>
-      </c>
+      <c r="V18" s="7"/>
       <c r="W18" s="7" t="n">
         <v>1</v>
       </c>
@@ -5068,10 +5066,10 @@
         <v>28450</v>
       </c>
       <c r="AB18" s="7" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AD18" s="7" t="n">
         <v>1</v>
@@ -5135,10 +5133,10 @@
         <v>136</v>
       </c>
       <c r="BA18" s="7" t="n">
-        <v>20</v>
+        <v>-135</v>
       </c>
       <c r="BB18" s="7" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="BC18" s="7" t="n">
         <v>4</v>
@@ -5147,10 +5145,10 @@
         <v>177</v>
       </c>
       <c r="BE18" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="7" t="n">
-        <v>4500</v>
+        <v>5800</v>
       </c>
       <c r="BG18" s="7" t="n">
         <v>1</v>
@@ -5165,16 +5163,16 @@
         <v>1</v>
       </c>
       <c r="BK18" s="7" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="BL18" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BM18" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="4" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -5197,66 +5195,70 @@
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>4.581142</v>
+        <v>6.818502</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="7" t="n">
+        <v>14307</v>
+      </c>
       <c r="N19" s="7" t="n">
-        <v>1</v>
+        <v>0.52871</v>
       </c>
       <c r="O19" s="7" t="n">
-        <v>10</v>
+        <v>11.305022</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="7" t="n">
         <v>14309</v>
       </c>
       <c r="R19" s="7" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="T19" s="7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="7" t="n">
+        <v>95639</v>
+      </c>
       <c r="W19" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y19" s="7" t="n">
-        <v>10</v>
+        <v>65.549843</v>
       </c>
       <c r="Z19" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="7" t="n">
         <v>28450</v>
       </c>
       <c r="AB19" s="7" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="AD19" s="7" t="n">
         <v>1</v>
@@ -5320,22 +5322,22 @@
         <v>136</v>
       </c>
       <c r="BA19" s="7" t="n">
-        <v>-135</v>
+        <v>-137.717209</v>
       </c>
       <c r="BB19" s="7" t="n">
-        <v>-50</v>
+        <v>-20.664221</v>
       </c>
       <c r="BC19" s="7" t="n">
-        <v>4</v>
+        <v>7.131848</v>
       </c>
       <c r="BD19" s="5" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="BE19" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="7" t="n">
-        <v>5800</v>
+        <v>3017.291504</v>
       </c>
       <c r="BG19" s="7" t="n">
         <v>1</v>
@@ -5350,16 +5352,16 @@
         <v>1</v>
       </c>
       <c r="BK19" s="7" t="n">
-        <v>2500</v>
+        <v>1598.976807</v>
       </c>
       <c r="BL19" s="5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="BM19" s="5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -5382,70 +5384,66 @@
         <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>6.818502</v>
+        <v>4.581142</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v>14307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M20" s="7"/>
       <c r="N20" s="7" t="n">
-        <v>0.52871</v>
+        <v>1</v>
       </c>
       <c r="O20" s="7" t="n">
-        <v>11.305022</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="7" t="n">
         <v>14309</v>
       </c>
       <c r="R20" s="7" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="T20" s="7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="7" t="n">
-        <v>95639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V20" s="7"/>
       <c r="W20" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Y20" s="7" t="n">
-        <v>65.549843</v>
+        <v>10</v>
       </c>
       <c r="Z20" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="7" t="n">
         <v>28450</v>
       </c>
       <c r="AB20" s="7" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="AD20" s="7" t="n">
         <v>1</v>
@@ -5509,22 +5507,22 @@
         <v>136</v>
       </c>
       <c r="BA20" s="7" t="n">
-        <v>-137.717209</v>
+        <v>85.13694</v>
       </c>
       <c r="BB20" s="7" t="n">
-        <v>-20.664221</v>
+        <v>-21.774366</v>
       </c>
       <c r="BC20" s="7" t="n">
-        <v>7.131848</v>
+        <v>4</v>
       </c>
       <c r="BD20" s="5" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="BE20" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="7" t="n">
-        <v>3017.291504</v>
+        <v>5800</v>
       </c>
       <c r="BG20" s="7" t="n">
         <v>1</v>
@@ -5539,13 +5537,13 @@
         <v>1</v>
       </c>
       <c r="BK20" s="7" t="n">
-        <v>1598.976807</v>
+        <v>2500</v>
       </c>
       <c r="BL20" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="BM20" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5621,7 +5619,7 @@
         <v>10</v>
       </c>
       <c r="Z21" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="7" t="n">
         <v>28450</v>
@@ -5667,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="7" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AS21" s="7" t="n">
         <v>1</v>
@@ -5694,13 +5692,13 @@
         <v>136</v>
       </c>
       <c r="BA21" s="7" t="n">
-        <v>85.13694</v>
+        <v>-70.836494</v>
       </c>
       <c r="BB21" s="7" t="n">
-        <v>-21.774366</v>
+        <v>-37.348042</v>
       </c>
       <c r="BC21" s="7" t="n">
-        <v>4</v>
+        <v>8.518238</v>
       </c>
       <c r="BD21" s="5" t="s">
         <v>177</v>
@@ -5718,7 +5716,7 @@
         <v>177</v>
       </c>
       <c r="BI21" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ21" s="7" t="n">
         <v>1</v>
@@ -5741,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>14304</v>
+        <v>195710</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>0</v>
@@ -5756,16 +5754,16 @@
         <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>4.581142</v>
+        <v>3</v>
       </c>
       <c r="L22" s="7" t="n">
         <v>0</v>
@@ -5784,13 +5782,13 @@
         <v>14309</v>
       </c>
       <c r="R22" s="7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="T22" s="7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U22" s="7" t="n">
         <v>0</v>
@@ -5806,16 +5804,16 @@
         <v>10</v>
       </c>
       <c r="Z22" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="7" t="n">
         <v>28450</v>
       </c>
       <c r="AB22" s="7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AD22" s="7" t="n">
         <v>1</v>
@@ -5852,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="7" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AS22" s="7" t="n">
         <v>1</v>
@@ -5879,13 +5877,13 @@
         <v>136</v>
       </c>
       <c r="BA22" s="7" t="n">
-        <v>-70.836494</v>
+        <v>1.631169</v>
       </c>
       <c r="BB22" s="7" t="n">
-        <v>-37.348042</v>
+        <v>-20</v>
       </c>
       <c r="BC22" s="7" t="n">
-        <v>8.518238</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="5" t="s">
         <v>177</v>
@@ -5903,19 +5901,19 @@
         <v>177</v>
       </c>
       <c r="BI22" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="7" t="n">
         <v>1</v>
       </c>
       <c r="BK22" s="7" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="BL22" s="5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="BM22" s="5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5926,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>195710</v>
+        <v>14304</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>0</v>
@@ -5947,7 +5945,7 @@
         <v>161</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="n">
         <v>3</v>
@@ -5972,7 +5970,7 @@
         <v>20</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="T23" s="7" t="n">
         <v>6</v>
@@ -6000,7 +5998,7 @@
         <v>0.5</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AD23" s="7" t="n">
         <v>1</v>
@@ -6034,52 +6032,52 @@
         <v>1</v>
       </c>
       <c r="AQ23" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR23" s="7" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AS23" s="7" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AT23" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AV23" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AW23" s="7" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="AX23" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY23" s="7" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AZ23" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA23" s="7" t="n">
-        <v>1.631169</v>
+        <v>20</v>
       </c>
       <c r="BB23" s="7" t="n">
         <v>-20</v>
       </c>
       <c r="BC23" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BD23" s="5" t="s">
         <v>177</v>
       </c>
       <c r="BE23" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="7" t="n">
-        <v>5800</v>
+        <v>4000</v>
       </c>
       <c r="BG23" s="7" t="n">
         <v>1</v>
@@ -6097,10 +6095,10 @@
         <v>2800</v>
       </c>
       <c r="BL23" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="BM23" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6126,16 +6124,16 @@
         <v>1</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>3</v>
+        <v>4.58</v>
       </c>
       <c r="L24" s="7" t="n">
         <v>0</v>
@@ -6154,13 +6152,13 @@
         <v>14309</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U24" s="7" t="n">
         <v>0</v>
@@ -6182,10 +6180,10 @@
         <v>28450</v>
       </c>
       <c r="AB24" s="7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AD24" s="7" t="n">
         <v>1</v>
@@ -6219,40 +6217,40 @@
         <v>1</v>
       </c>
       <c r="AQ24" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="7" t="n">
         <v>0.1</v>
       </c>
       <c r="AS24" s="7" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="AV24" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AW24" s="7" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="AX24" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="7" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="5" t="s">
         <v>136</v>
       </c>
       <c r="BA24" s="7" t="n">
-        <v>20</v>
+        <v>-135</v>
       </c>
       <c r="BB24" s="7" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="BC24" s="7" t="n">
         <v>4</v>
@@ -6264,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="BF24" s="7" t="n">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="BG24" s="7" t="n">
         <v>1</v>
@@ -6282,196 +6280,75 @@
         <v>2800</v>
       </c>
       <c r="BL24" s="5" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="BM24" s="5" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="L25" s="7" t="n">
-        <v>0</v>
-      </c>
+    <row r="25" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R25" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="U25" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y25" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF25" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG25" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH25" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
-      <c r="AL25" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
-      <c r="AP25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU25" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA25" s="7" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB25" s="7" t="n">
-        <v>-50</v>
-      </c>
-      <c r="BC25" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD25" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF25" s="7" t="n">
-        <v>5800</v>
-      </c>
-      <c r="BG25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH25" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK25" s="7" t="n">
-        <v>2800</v>
-      </c>
-      <c r="BL25" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM25" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="7"/>
+      <c r="BC25" s="7"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="7"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="7"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7"/>
+      <c r="BL25" s="5"/>
     </row>
     <row r="26" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7"/>
@@ -6537,70 +6414,7 @@
       <c r="BK26" s="7"/>
       <c r="BL26" s="5"/>
     </row>
-    <row r="27" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
-      <c r="AS27" s="7"/>
-      <c r="AT27" s="7"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="7"/>
-      <c r="AW27" s="7"/>
-      <c r="AX27" s="7"/>
-      <c r="AY27" s="7"/>
-      <c r="AZ27" s="5"/>
-      <c r="BA27" s="7"/>
-      <c r="BB27" s="7"/>
-      <c r="BC27" s="7"/>
-      <c r="BD27" s="5"/>
-      <c r="BE27" s="7"/>
-      <c r="BF27" s="7"/>
-      <c r="BG27" s="7"/>
-      <c r="BH27" s="5"/>
-      <c r="BI27" s="7"/>
-      <c r="BJ27" s="7"/>
-      <c r="BK27" s="7"/>
-      <c r="BL27" s="5"/>
-    </row>
+    <row r="27" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6619,7 +6433,7 @@
     <row r="43" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="202">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1438,22 +1438,79 @@
     <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">188|188|188|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|117|198|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109|162|225|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186|208|243|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|226|182|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235|235|255|255</t>
+    <t xml:space="preserve">(R=0.000000,G=0.144128,B=0.564712,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.086500,G=0.318547,B=0.752942,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.850000,B=0.750000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.760525,B=0.467784,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.950000,B=0.710000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.760784,G=0.800000,B=0.823529,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=0.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.580000,G=0.610000,B=0.960000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.016807,G=0.102242,B=0.799103,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.135633,G=0.332452,B=0.921582,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.356400,G=0.473531,B=0.896269,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.477941,G=0.565413,B=1.000000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=0.950000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.028426,G=0.031896,B=0.059511,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.104616,G=0.132868,B=0.184475,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.283149,G=0.296138,B=0.381326,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.838799,B=0.838799,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.623960,G=0.686685,B=1.000000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.242281,G=0.361307,B=0.571125,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.500000,G=0.500000,B=0.500000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.127438,G=0.141263,B=0.564712,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.752942,G=0.479320,B=0.545725,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.830770,B=0.679543,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|227|156|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|226|204|255</t>
   </si>
   <si>
     <t xml:space="preserve">16|63|111|255</t>
@@ -1462,70 +1519,10 @@
     <t xml:space="preserve">0|0|0|255</t>
   </si>
   <si>
-    <t xml:space="preserve">200|228|250|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|105|198|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225|184|195|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|204|155|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|227|156|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|197|150|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238|219|219|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35|90|231|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103|156|246|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161|183|243|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185|199|255|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|255|255|242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.500000,G=0.500000,B=0.500000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.127438,G=0.141263,B=0.564712,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.752942,G=0.479320,B=0.545725,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.830770,B=0.679543,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|226|204|255</t>
-  </si>
-  <si>
     <t xml:space="preserve">250|248|242|255</t>
   </si>
   <si>
-    <t xml:space="preserve">188|188|188|188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49|81|187|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154|178|243|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228|235|255|255</t>
+    <t xml:space="preserve">(R=0.045343,G=0.037517,B=0.031128,A=1.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">(R=0.124772,G=0.088656,B=0.135633,A=1.000000)</t>
@@ -1540,9 +1537,6 @@
     <t xml:space="preserve">(R=0.522794,G=0.116481,B=0.265481,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=0.623960,G=0.686685,B=1.000000,A=1.000000)</t>
-  </si>
-  <si>
     <t xml:space="preserve">16|63|111|255 </t>
   </si>
   <si>
@@ -1552,12 +1546,6 @@
     <t xml:space="preserve">(R=0.966020,G=0.501341,B=0.985294,A=0.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=0.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.242281,G=0.361307,B=0.571125,A=1.000000)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(R=0.030713,G=0.082283,B=0.496933,A=1.000000)</t>
   </si>
   <si>
@@ -1567,78 +1555,39 @@
     <t xml:space="preserve">(R=0.323143,G=0.445201,B=0.896269,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=1.000000,G=0.760525,B=0.467784,A=1.000000)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(R=0.775822,G=0.822786,B=1.000000,A=0.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">(R=0.162029,G=0.296138,B=0.434154,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=0.028426,G=0.031896,B=0.059511,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.104616,G=0.132868,B=0.184475,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.283149,G=0.296138,B=0.381326,A=1.000000)</t>
+    <t xml:space="preserve">(R=1.000000,G=0.603827,B=0.327778,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.531769,B=0.586675,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.953043,G=0.820950,B=1.000000,A=0.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.854993,G=0.708376,B=0.708376,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.000000,G=0.180000,B=0.540000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.150000,G=0.540000,B=0.700000,A=1.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">(R=0.043945,G=0.178211,B=0.562500,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=1.000000,G=0.838799,B=0.838799,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.806952,G=0.428690,B=0.715693,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.000000,G=0.180000,B=0.540000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.150000,G=0.540000,B=0.700000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.850000,B=0.750000,A=1.000000)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(R=1.000000,G=0.850000,B=0.860000,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=0.760784,G=0.800000,B=0.823529,A=1.000000)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(R=0.605554,G=0.641578,B=0.950000,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=0.016807,G=0.102242,B=0.799103,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.135633,G=0.332452,B=0.921582,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.356400,G=0.473531,B=0.896269,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.477941,G=0.565413,B=1.000000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=0.950000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.000000,G=0.144128,B=0.564712,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.086500,G=0.318547,B=0.752942,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.950000,B=0.710000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.580000,G=0.610000,B=0.960000,A=1.000000)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(R=0.163971,G=0.163971,B=0.163971,A=1.000000)</t>
   </si>
   <si>
@@ -1651,7 +1600,7 @@
     <t xml:space="preserve">(R=0.293850,G=0.407996,B=0.555147,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=1.000000,G=0.603827,B=0.327778,A=1.000000)</t>
+    <t xml:space="preserve">(R=0.690196,G=0.580392,B=0.435294,A=1.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">(R=1.000000,G=0.768151,B=0.332452,A=1.000000)</t>
@@ -1660,22 +1609,30 @@
     <t xml:space="preserve">(R=1.000000,G=0.550000,B=0.300000,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=0.854993,G=0.708376,B=0.708376,A=1.000000)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(R=0.658375,G=0.800000,B=0.760525,A=1.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">(R=0.775822,G=0.822786,B=1.000000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.043267,G=0.190906,B=0.286458,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.274720,G=0.549580,B=0.750000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.431552,G=1.000000,B=0.869431,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.919118,G=0.855434,B=0.594723,A=1.000000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1722,12 +1679,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1764,7 +1727,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1789,11 +1752,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1806,6 +1801,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1988,8 +2043,8 @@
   </sheetPr>
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2787,544 +2842,550 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" s="6" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>195714</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>59817</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>281.930267</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="T6" s="7" t="n">
+        <v>8.076923</v>
+      </c>
+      <c r="U6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y6" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB6" s="7" t="n">
+        <v>0.358025</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="7" t="n">
+        <v>0.293467</v>
+      </c>
+      <c r="AF6" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG6" s="7" t="n">
+        <v>1.899298</v>
+      </c>
+      <c r="AH6" s="7" t="n">
+        <v>1.365227</v>
+      </c>
+      <c r="AI6" s="7" t="n">
+        <v>1.025816</v>
+      </c>
+      <c r="AJ6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA6" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>26.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>184494</v>
-      </c>
-      <c r="R6" s="4" t="n">
+      <c r="BB6" s="7" t="n">
+        <v>-40</v>
+      </c>
+      <c r="BC6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BG6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="7" t="n">
+        <v>2800</v>
+      </c>
+      <c r="BL6" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>14304</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>4.581142</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R7" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="T6" s="4" t="n">
+      <c r="S7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T7" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="U6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>95624</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>178196</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="5" t="s">
+      <c r="U7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y7" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="7" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF7" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH7" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU7" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AD6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AV7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA7" s="7" t="n">
+        <v>-135</v>
+      </c>
+      <c r="BB7" s="7" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC7" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="7" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BL7" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>14304</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>3.272634</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>14307</v>
+      </c>
+      <c r="N8" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="O8" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="7" t="n">
+        <v>8.076923</v>
+      </c>
+      <c r="U8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="7" t="n">
+        <v>14302</v>
+      </c>
+      <c r="W8" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y8" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="7" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB8" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF8" s="7" t="n">
         <v>-1</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG8" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH8" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>-361.83</v>
-      </c>
-      <c r="AU6" s="5" t="s">
+      <c r="AI8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA8" s="7" t="n">
+        <v>-60</v>
+      </c>
+      <c r="BB8" s="7" t="n">
+        <v>-60</v>
+      </c>
+      <c r="BC8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AV6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AX6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA6" s="4" t="n">
-        <v>-159.79</v>
-      </c>
-      <c r="BB6" s="4" t="n">
-        <v>32.74</v>
-      </c>
-      <c r="BC6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD6" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="4" t="n">
-        <v>5256.1</v>
-      </c>
-      <c r="BG6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BH6" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI6" s="4" t="n">
-        <v>-1.36</v>
-      </c>
-      <c r="BJ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="BL6" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>108338</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>14307</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="n">
+      <c r="BE8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="7" t="n">
+        <v>7000</v>
+      </c>
+      <c r="BG8" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>163437</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>95626</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>-361.83</v>
-      </c>
-      <c r="AU7" s="5" t="s">
+      <c r="BH8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AV7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AX7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA7" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB7" s="4" t="n">
-        <v>-20</v>
-      </c>
-      <c r="BC7" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="BG7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="4" t="n">
+      <c r="BI8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="7" t="n">
         <v>2800</v>
       </c>
-      <c r="BL7" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>108338</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>184494</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>95624</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="5" t="s">
+      <c r="BL8" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AS8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="4" t="n">
-        <v>9000</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AX8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA8" s="4" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB8" s="4" t="n">
-        <v>-50</v>
-      </c>
-      <c r="BC8" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="4" t="n">
-        <v>4368.6</v>
-      </c>
-      <c r="BG8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,19 +3405,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>3</v>
@@ -3380,7 +3441,7 @@
         <v>20</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="T9" s="4" t="n">
         <v>6</v>
@@ -3452,7 +3513,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="AV9" s="4" t="n">
         <v>1</v>
@@ -3467,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="5" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="BA9" s="4" t="n">
         <v>78.58</v>
@@ -3503,186 +3564,189 @@
         <v>2000</v>
       </c>
       <c r="BL9" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" s="6" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>195714</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="B10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>59834</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>4.581142</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>185701</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="U10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>184494</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>95624</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
+      <c r="AD10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF10" s="7" t="n">
         <v>-1</v>
       </c>
-      <c r="AG10" s="6" t="n">
+      <c r="AG10" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH10" s="6" t="n">
+      <c r="AH10" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT10" s="4" t="n">
-        <v>-361.83</v>
-      </c>
-      <c r="AU10" s="5" t="s">
+      <c r="AI10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA10" s="7" t="n">
+        <v>-60</v>
+      </c>
+      <c r="BB10" s="7" t="n">
+        <v>-60</v>
+      </c>
+      <c r="BC10" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD10" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AV10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AX10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA10" s="4" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB10" s="4" t="n">
-        <v>-50</v>
-      </c>
-      <c r="BC10" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF10" s="4" t="n">
-        <v>4478.65</v>
-      </c>
-      <c r="BG10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK10" s="4" t="n">
-        <v>2800</v>
-      </c>
-      <c r="BL10" s="5" t="s">
-        <v>130</v>
+      <c r="BE10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="7" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BL10" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,10 +3775,10 @@
         <v>136</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>5.07</v>
@@ -3741,7 +3805,7 @@
         <v>40</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T11" s="4" t="n">
         <v>9</v>
@@ -3756,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y11" s="4" t="n">
         <v>47.85</v>
@@ -3771,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="AD11" s="4" t="n">
         <v>1</v>
@@ -3813,7 +3877,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU11" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AV11" s="4" t="n">
         <v>1</v>
@@ -3828,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BA11" s="4" t="n">
         <v>70</v>
@@ -3840,7 +3904,7 @@
         <v>4</v>
       </c>
       <c r="BD11" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BE11" s="4" t="n">
         <v>1</v>
@@ -3852,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="BH11" s="5" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="BI11" s="4" t="n">
         <v>-0.65</v>
@@ -3864,121 +3928,121 @@
         <v>239.12</v>
       </c>
       <c r="BL11" s="5" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="n">
         <v>14304</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="n">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="n">
+        <v>177</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10" t="n">
         <v>14307</v>
       </c>
-      <c r="N12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7" t="n">
+      <c r="N12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7" t="n">
+      <c r="P12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R12" s="7" t="n">
+      <c r="R12" s="10" t="n">
         <v>40</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T12" s="7" t="n">
+        <v>142</v>
+      </c>
+      <c r="T12" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7" t="n">
+      <c r="U12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10" t="n">
         <v>14302</v>
       </c>
-      <c r="W12" s="7" t="n">
+      <c r="W12" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y12" s="7" t="n">
+      <c r="Y12" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="7" t="n">
+      <c r="Z12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="10" t="n">
         <v>178199</v>
       </c>
-      <c r="AB12" s="7" t="n">
+      <c r="AB12" s="10" t="n">
         <v>1</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="7" t="n">
+        <v>178</v>
+      </c>
+      <c r="AD12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF12" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG12" s="7" t="n">
+      <c r="AG12" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH12" s="7" t="n">
+      <c r="AH12" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
+      <c r="AI12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
       <c r="AP12" s="4" t="n">
         <v>0</v>
       </c>
@@ -3995,7 +4059,7 @@
         <v>3000</v>
       </c>
       <c r="AU12" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AV12" s="4" t="n">
         <v>1</v>
@@ -4006,41 +4070,41 @@
       <c r="AX12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY12" s="7" t="n">
+      <c r="AY12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA12" s="7" t="n">
+      <c r="BA12" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="BB12" s="7" t="n">
+      <c r="BB12" s="10" t="n">
         <v>-90</v>
       </c>
-      <c r="BC12" s="7" t="n">
+      <c r="BC12" s="10" t="n">
         <v>3</v>
       </c>
       <c r="BD12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="10" t="n">
         <v>5800</v>
       </c>
-      <c r="BG12" s="7" t="n">
+      <c r="BG12" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI12" s="7"/>
-      <c r="BJ12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="10" t="n">
         <v>10000</v>
       </c>
       <c r="BL12" s="5" t="s">
@@ -4051,8 +4115,8 @@
       </c>
       <c r="BN12" s="1"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="n">
@@ -4062,65 +4126,61 @@
         <v>14304</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>187</v>
+      <c r="H13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>3</v>
+        <v>5.068356</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7" t="n">
-        <v>14307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9"/>
       <c r="N13" s="7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>10</v>
       </c>
       <c r="P13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7" t="n">
-        <v>14309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9"/>
       <c r="R13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>188</v>
+        <v>12</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="T13" s="7" t="n">
-        <v>10</v>
+        <v>8.076923</v>
       </c>
       <c r="U13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="7"/>
+      <c r="V13" s="9"/>
       <c r="W13" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>189</v>
+        <v>1</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="Y13" s="7" t="n">
         <v>10</v>
@@ -4129,101 +4189,101 @@
         <v>1</v>
       </c>
       <c r="AA13" s="7" t="n">
-        <v>32677</v>
+        <v>178193</v>
       </c>
       <c r="AB13" s="7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>173</v>
+        <v>0.676209</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AD13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AE13" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="AG13" s="7" t="n">
-        <v>1.5</v>
+        <v>2.571862</v>
       </c>
       <c r="AH13" s="7" t="n">
-        <v>1.2</v>
+        <v>1.216748</v>
       </c>
       <c r="AI13" s="7" t="n">
-        <v>1.114359</v>
+        <v>1.251217</v>
       </c>
       <c r="AJ13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK13" s="7"/>
+      <c r="AK13" s="9"/>
       <c r="AL13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
       <c r="AP13" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="7" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AS13" s="7" t="n">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU13" s="5" t="s">
-        <v>190</v>
+        <v>1000</v>
+      </c>
+      <c r="AU13" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="AV13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AW13" s="7" t="n">
-        <v>1365.849976</v>
+        <v>1000</v>
       </c>
       <c r="AX13" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ13" s="5" t="s">
+      <c r="AZ13" s="8" t="s">
         <v>136</v>
       </c>
       <c r="BA13" s="7" t="n">
         <v>20</v>
       </c>
       <c r="BB13" s="7" t="n">
-        <v>-31</v>
+        <v>-20</v>
       </c>
       <c r="BC13" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD13" s="5" t="s">
-        <v>177</v>
+        <v>4</v>
+      </c>
+      <c r="BD13" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="BE13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="BF13" s="7" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="BG13" s="7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BH13" s="5" t="s">
-        <v>177</v>
+        <v>1.6</v>
+      </c>
+      <c r="BH13" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BI13" s="7" t="n">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="7" t="n">
         <v>1</v>
@@ -4231,1138 +4291,1138 @@
       <c r="BK13" s="7" t="n">
         <v>2800</v>
       </c>
-      <c r="BL13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="BM13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="BN13" s="1"/>
+      <c r="BL13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN13" s="12"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="n">
         <v>14304</v>
       </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="n">
+      <c r="D14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="7" t="n">
+        <v>158</v>
+      </c>
+      <c r="G14" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" s="7" t="n">
+        <v>141</v>
+      </c>
+      <c r="K14" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="L14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7" t="n">
+      <c r="L14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10" t="n">
         <v>14307</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7" t="n">
+      <c r="P14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R14" s="7" t="n">
+      <c r="R14" s="10" t="n">
         <v>1</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T14" s="7" t="n">
+        <v>186</v>
+      </c>
+      <c r="T14" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="U14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7" t="n">
+      <c r="U14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="10" t="n">
         <v>14302</v>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="W14" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y14" s="7" t="n">
+      <c r="Y14" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="7" t="n">
+      <c r="Z14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="10" t="n">
         <v>28450</v>
       </c>
-      <c r="AB14" s="7" t="n">
+      <c r="AB14" s="10" t="n">
         <v>0.85</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="7" t="n">
+        <v>187</v>
+      </c>
+      <c r="AD14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF14" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG14" s="7" t="n">
+      <c r="AG14" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH14" s="7" t="n">
+      <c r="AH14" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="7" t="n">
+      <c r="AI14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="7" t="n">
+      <c r="AS14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="10" t="n">
         <v>4000</v>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="AX14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="7" t="n">
+      <c r="AX14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ14" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA14" s="7" t="n">
+      <c r="BA14" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="BB14" s="7" t="n">
+      <c r="BB14" s="10" t="n">
         <v>-40</v>
       </c>
-      <c r="BC14" s="7" t="n">
+      <c r="BC14" s="10" t="n">
         <v>1.340545</v>
       </c>
       <c r="BD14" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="10" t="n">
         <v>3500</v>
       </c>
-      <c r="BG14" s="7" t="n">
+      <c r="BG14" s="10" t="n">
         <v>1.463273</v>
       </c>
       <c r="BH14" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI14" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI14" s="10" t="n">
         <v>-1.271345</v>
       </c>
-      <c r="BJ14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK14" s="7" t="n">
+      <c r="BJ14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="10" t="n">
         <v>2000</v>
       </c>
       <c r="BL14" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="BM14" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10" t="n">
         <v>266280</v>
       </c>
-      <c r="D15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="n">
+      <c r="D15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K15" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="K15" s="10" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7" t="n">
+      <c r="L15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7" t="n">
+      <c r="P15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R15" s="7" t="n">
+      <c r="R15" s="10" t="n">
         <v>40</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T15" s="7" t="n">
+        <v>142</v>
+      </c>
+      <c r="T15" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7" t="n">
+      <c r="U15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y15" s="7" t="n">
+      <c r="Y15" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="7" t="n">
+      <c r="Z15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="10" t="n">
         <v>31970</v>
       </c>
-      <c r="AB15" s="7" t="n">
+      <c r="AB15" s="10" t="n">
         <v>1</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF15" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG15" s="7" t="n">
+      <c r="AG15" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH15" s="7" t="n">
+      <c r="AH15" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="7" t="n">
+      <c r="AI15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="7" t="n">
+      <c r="AS15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="10" t="n">
         <v>4000</v>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="AX15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="7" t="n">
+      <c r="AX15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ15" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA15" s="7" t="n">
+      <c r="BA15" s="10" t="n">
         <v>-135</v>
       </c>
-      <c r="BB15" s="7" t="n">
+      <c r="BB15" s="10" t="n">
         <v>-60</v>
       </c>
-      <c r="BC15" s="7" t="n">
+      <c r="BC15" s="10" t="n">
         <v>4</v>
       </c>
       <c r="BD15" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="10" t="n">
         <v>5800</v>
       </c>
-      <c r="BG15" s="7" t="n">
+      <c r="BG15" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH15" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK15" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK15" s="10" t="n">
         <v>2500</v>
       </c>
       <c r="BL15" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BM15" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7" t="n">
+      <c r="B16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10" t="n">
         <v>14304</v>
       </c>
-      <c r="D16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="n">
+      <c r="D16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K16" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="K16" s="10" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7" t="n">
+      <c r="L16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7" t="n">
+      <c r="P16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R16" s="7" t="n">
+      <c r="R16" s="10" t="n">
         <v>40</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T16" s="7" t="n">
+        <v>142</v>
+      </c>
+      <c r="T16" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7" t="n">
+      <c r="U16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X16" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y16" s="7" t="n">
+      <c r="Y16" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="7" t="n">
+      <c r="Z16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="10" t="n">
         <v>28450</v>
       </c>
-      <c r="AB16" s="7" t="n">
+      <c r="AB16" s="10" t="n">
         <v>1</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF16" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG16" s="7" t="n">
+      <c r="AG16" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH16" s="7" t="n">
+      <c r="AH16" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="7" t="n">
+      <c r="AI16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="7" t="n">
+      <c r="AS16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="10" t="n">
         <v>1000</v>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="AX16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="7" t="n">
+      <c r="AX16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ16" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA16" s="7" t="n">
+      <c r="BA16" s="10" t="n">
         <v>-135</v>
       </c>
-      <c r="BB16" s="7" t="n">
+      <c r="BB16" s="10" t="n">
         <v>-50</v>
       </c>
-      <c r="BC16" s="7" t="n">
+      <c r="BC16" s="10" t="n">
         <v>4</v>
       </c>
       <c r="BD16" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="10" t="n">
         <v>5800</v>
       </c>
-      <c r="BG16" s="7" t="n">
+      <c r="BG16" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH16" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK16" s="10" t="n">
         <v>2500</v>
       </c>
       <c r="BL16" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BM16" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7" t="n">
+      <c r="B17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10" t="n">
         <v>14304</v>
       </c>
-      <c r="D17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
+      <c r="D17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="7" t="n">
+        <v>141</v>
+      </c>
+      <c r="K17" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="L17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7" t="n">
+      <c r="L17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10" t="n">
         <v>14307</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="N17" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7" t="n">
+      <c r="P17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R17" s="7" t="n">
+      <c r="R17" s="10" t="n">
         <v>10</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T17" s="7" t="n">
+        <v>186</v>
+      </c>
+      <c r="T17" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="U17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7" t="n">
+      <c r="U17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="10" t="n">
         <v>14302</v>
       </c>
-      <c r="W17" s="7" t="n">
+      <c r="W17" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y17" s="7" t="n">
+      <c r="Y17" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="7" t="n">
+      <c r="Z17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="10" t="n">
         <v>28450</v>
       </c>
-      <c r="AB17" s="7" t="n">
+      <c r="AB17" s="10" t="n">
         <v>0.85</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="7" t="n">
+        <v>143</v>
+      </c>
+      <c r="AD17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF17" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG17" s="7" t="n">
+      <c r="AG17" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH17" s="7" t="n">
+      <c r="AH17" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="7" t="n">
+      <c r="AI17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="7" t="n">
+      <c r="AS17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="10" t="n">
         <v>3000</v>
       </c>
       <c r="AU17" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="AX17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="7" t="n">
+      <c r="AX17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA17" s="7" t="n">
+      <c r="BA17" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="BB17" s="7" t="n">
+      <c r="BB17" s="10" t="n">
         <v>-40</v>
       </c>
-      <c r="BC17" s="7" t="n">
+      <c r="BC17" s="10" t="n">
         <v>4</v>
       </c>
       <c r="BD17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF17" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF17" s="10" t="n">
         <v>4500</v>
       </c>
-      <c r="BG17" s="7" t="n">
+      <c r="BG17" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK17" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK17" s="10" t="n">
         <v>2800</v>
       </c>
       <c r="BL17" s="5" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="BM17" s="5" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7" t="n">
+      <c r="B18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10" t="n">
         <v>14304</v>
       </c>
-      <c r="D18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7" t="n">
+      <c r="D18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K18" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="K18" s="10" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7" t="n">
+      <c r="L18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7" t="n">
+      <c r="P18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R18" s="7" t="n">
+      <c r="R18" s="10" t="n">
         <v>40</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T18" s="7" t="n">
+        <v>142</v>
+      </c>
+      <c r="T18" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7" t="n">
+      <c r="U18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y18" s="7" t="n">
+      <c r="Y18" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="7" t="n">
+      <c r="Z18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="10" t="n">
         <v>28450</v>
       </c>
-      <c r="AB18" s="7" t="n">
+      <c r="AB18" s="10" t="n">
         <v>1</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF18" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG18" s="7" t="n">
+      <c r="AG18" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH18" s="7" t="n">
+      <c r="AH18" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="7" t="n">
+      <c r="AI18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="7" t="n">
+      <c r="AS18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="10" t="n">
         <v>3000</v>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="AX18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="7" t="n">
+      <c r="AX18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA18" s="7" t="n">
+      <c r="BA18" s="10" t="n">
         <v>-135</v>
       </c>
-      <c r="BB18" s="7" t="n">
+      <c r="BB18" s="10" t="n">
         <v>-50</v>
       </c>
-      <c r="BC18" s="7" t="n">
+      <c r="BC18" s="10" t="n">
         <v>4</v>
       </c>
       <c r="BD18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="10" t="n">
         <v>5800</v>
       </c>
-      <c r="BG18" s="7" t="n">
+      <c r="BG18" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK18" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="10" t="n">
         <v>2500</v>
       </c>
       <c r="BL18" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BM18" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7" t="n">
+      <c r="B19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="n">
         <v>14304</v>
       </c>
-      <c r="D19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7" t="n">
+      <c r="D19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>136</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="n">
+        <v>190</v>
+      </c>
+      <c r="K19" s="10" t="n">
         <v>6.818502</v>
       </c>
-      <c r="L19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7" t="n">
+      <c r="L19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10" t="n">
         <v>14307</v>
       </c>
-      <c r="N19" s="7" t="n">
+      <c r="N19" s="10" t="n">
         <v>0.52871</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="10" t="n">
         <v>11.305022</v>
       </c>
-      <c r="P19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7" t="n">
+      <c r="P19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R19" s="7" t="n">
+      <c r="R19" s="10" t="n">
         <v>1</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T19" s="7" t="n">
+        <v>186</v>
+      </c>
+      <c r="T19" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="U19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="7" t="n">
+      <c r="U19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="10" t="n">
         <v>95639</v>
       </c>
-      <c r="W19" s="7" t="n">
+      <c r="W19" s="10" t="n">
         <v>2</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y19" s="7" t="n">
+      <c r="Y19" s="10" t="n">
         <v>65.549843</v>
       </c>
-      <c r="Z19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7" t="n">
+      <c r="Z19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="10" t="n">
         <v>28450</v>
       </c>
-      <c r="AB19" s="7" t="n">
+      <c r="AB19" s="10" t="n">
         <v>0.25</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="7" t="n">
+        <v>156</v>
+      </c>
+      <c r="AD19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF19" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG19" s="7" t="n">
+      <c r="AG19" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH19" s="7" t="n">
+      <c r="AH19" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="7" t="n">
+      <c r="AI19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="7" t="n">
+      <c r="AS19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="10" t="n">
         <v>3000</v>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="AX19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="7" t="n">
+      <c r="AX19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA19" s="7" t="n">
+      <c r="BA19" s="10" t="n">
         <v>-137.717209</v>
       </c>
-      <c r="BB19" s="7" t="n">
+      <c r="BB19" s="10" t="n">
         <v>-20.664221</v>
       </c>
-      <c r="BC19" s="7" t="n">
+      <c r="BC19" s="10" t="n">
         <v>7.131848</v>
       </c>
       <c r="BD19" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BE19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF19" s="7" t="n">
+        <v>191</v>
+      </c>
+      <c r="BE19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="10" t="n">
         <v>3017.291504</v>
       </c>
-      <c r="BG19" s="7" t="n">
+      <c r="BG19" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH19" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="10" t="n">
         <v>1598.976807</v>
       </c>
       <c r="BL19" s="5" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="BM19" s="5" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
         <v>16</v>
       </c>
       <c r="B20" s="7" t="n">
@@ -5377,20 +5437,20 @@
       <c r="E20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>199</v>
+      <c r="H20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="n">
         <v>4.581142</v>
@@ -5398,7 +5458,7 @@
       <c r="L20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="7" t="n">
         <v>1</v>
       </c>
@@ -5414,8 +5474,8 @@
       <c r="R20" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S20" s="5" t="s">
-        <v>182</v>
+      <c r="S20" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="T20" s="7" t="n">
         <v>9</v>
@@ -5423,11 +5483,11 @@
       <c r="U20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V20" s="7"/>
+      <c r="V20" s="9"/>
       <c r="W20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X20" s="5" t="s">
+      <c r="X20" s="8" t="s">
         <v>138</v>
       </c>
       <c r="Y20" s="7" t="n">
@@ -5442,8 +5502,8 @@
       <c r="AB20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC20" s="5" t="s">
-        <v>200</v>
+      <c r="AC20" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="AD20" s="7" t="n">
         <v>1</v>
@@ -5451,7 +5511,7 @@
       <c r="AE20" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF20" s="4" t="n">
+      <c r="AF20" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="AG20" s="7" t="n">
@@ -5466,57 +5526,57 @@
       <c r="AJ20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK20" s="7"/>
+      <c r="AK20" s="9"/>
       <c r="AL20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
       <c r="AP20" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AQ20" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR20" s="7" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AS20" s="7" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AT20" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="AU20" s="5" t="s">
-        <v>195</v>
+      <c r="AU20" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="AV20" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AW20" s="7" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AX20" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="5" t="s">
+        <v>10000</v>
+      </c>
+      <c r="AZ20" s="8" t="s">
         <v>136</v>
       </c>
       <c r="BA20" s="7" t="n">
-        <v>85.13694</v>
+        <v>-135</v>
       </c>
       <c r="BB20" s="7" t="n">
-        <v>-21.774366</v>
+        <v>-50</v>
       </c>
       <c r="BC20" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="BD20" s="5" t="s">
-        <v>177</v>
+      <c r="BD20" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="BE20" s="7" t="n">
         <v>0</v>
@@ -5527,8 +5587,8 @@
       <c r="BG20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="BH20" s="5" t="s">
-        <v>177</v>
+      <c r="BH20" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="BI20" s="7" t="n">
         <v>0</v>
@@ -5537,746 +5597,746 @@
         <v>1</v>
       </c>
       <c r="BK20" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="BL20" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="BM20" s="5" t="s">
-        <v>201</v>
+        <v>25000</v>
+      </c>
+      <c r="BL20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM20" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7" t="n">
+      <c r="B21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="n">
         <v>14304</v>
       </c>
-      <c r="D21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7" t="n">
+      <c r="D21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="G21" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K21" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="K21" s="10" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7" t="n">
+      <c r="L21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7" t="n">
+      <c r="P21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R21" s="7" t="n">
+      <c r="R21" s="10" t="n">
         <v>40</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T21" s="7" t="n">
+        <v>142</v>
+      </c>
+      <c r="T21" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7" t="n">
+      <c r="U21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y21" s="7" t="n">
+      <c r="Y21" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="7" t="n">
+      <c r="Z21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="10" t="n">
         <v>28450</v>
       </c>
-      <c r="AB21" s="7" t="n">
+      <c r="AB21" s="10" t="n">
         <v>1</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF21" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG21" s="7" t="n">
+      <c r="AG21" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH21" s="7" t="n">
+      <c r="AH21" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="7" t="n">
+      <c r="AI21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="7" t="n">
+      <c r="AS21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="10" t="n">
         <v>3000</v>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="AX21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="7" t="n">
+      <c r="AX21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ21" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA21" s="7" t="n">
+      <c r="BA21" s="10" t="n">
         <v>-70.836494</v>
       </c>
-      <c r="BB21" s="7" t="n">
+      <c r="BB21" s="10" t="n">
         <v>-37.348042</v>
       </c>
-      <c r="BC21" s="7" t="n">
+      <c r="BC21" s="10" t="n">
         <v>8.518238</v>
       </c>
       <c r="BD21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="10" t="n">
         <v>5800</v>
       </c>
-      <c r="BG21" s="7" t="n">
+      <c r="BG21" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK21" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK21" s="10" t="n">
         <v>2500</v>
       </c>
       <c r="BL21" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BM21" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="n">
+      <c r="B22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10" t="n">
         <v>195710</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="10" t="n">
         <v>0.4</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="J22" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="7" t="n">
+        <v>180</v>
+      </c>
+      <c r="K22" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="L22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="7" t="n">
+      <c r="L22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7" t="n">
+      <c r="P22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R22" s="7" t="n">
+      <c r="R22" s="10" t="n">
         <v>20</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="T22" s="7" t="n">
+        <v>194</v>
+      </c>
+      <c r="T22" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="U22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7" t="n">
+      <c r="U22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X22" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y22" s="7" t="n">
+      <c r="Y22" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="7" t="n">
+      <c r="Z22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="10" t="n">
         <v>28450</v>
       </c>
-      <c r="AB22" s="7" t="n">
+      <c r="AB22" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="7" t="n">
+        <v>195</v>
+      </c>
+      <c r="AD22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF22" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG22" s="7" t="n">
+      <c r="AG22" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH22" s="7" t="n">
+      <c r="AH22" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="7" t="n">
+      <c r="AI22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="7" t="n">
+      <c r="AS22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="10" t="n">
         <v>3000</v>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="AX22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="7" t="n">
+      <c r="AX22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ22" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA22" s="7" t="n">
+      <c r="BA22" s="10" t="n">
         <v>1.631169</v>
       </c>
-      <c r="BB22" s="7" t="n">
+      <c r="BB22" s="10" t="n">
         <v>-20</v>
       </c>
-      <c r="BC22" s="7" t="n">
+      <c r="BC22" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BD22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="10" t="n">
         <v>5800</v>
       </c>
-      <c r="BG22" s="7" t="n">
+      <c r="BG22" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK22" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="10" t="n">
         <v>2800</v>
       </c>
       <c r="BL22" s="5" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="BM22" s="5" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7" t="n">
+      <c r="B23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="n">
         <v>14304</v>
       </c>
-      <c r="D23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7" t="n">
+      <c r="D23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="J23" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="7" t="n">
+        <v>180</v>
+      </c>
+      <c r="K23" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="L23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="7" t="n">
+      <c r="L23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="7" t="n">
+      <c r="P23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R23" s="7" t="n">
+      <c r="R23" s="10" t="n">
         <v>20</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="T23" s="7" t="n">
+        <v>194</v>
+      </c>
+      <c r="T23" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="U23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7" t="n">
+      <c r="U23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y23" s="7" t="n">
+      <c r="Y23" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="7" t="n">
+      <c r="Z23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="10" t="n">
         <v>28450</v>
       </c>
-      <c r="AB23" s="7" t="n">
+      <c r="AB23" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="7" t="n">
+        <v>195</v>
+      </c>
+      <c r="AD23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF23" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG23" s="7" t="n">
+      <c r="AG23" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH23" s="7" t="n">
+      <c r="AH23" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ23" s="7" t="n">
+      <c r="AI23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AR23" s="7" t="n">
+      <c r="AR23" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS23" s="7" t="n">
+      <c r="AS23" s="10" t="n">
         <v>0.7</v>
       </c>
-      <c r="AT23" s="7" t="n">
+      <c r="AT23" s="10" t="n">
         <v>3000</v>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AV23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" s="7" t="n">
+        <v>196</v>
+      </c>
+      <c r="AV23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="10" t="n">
         <v>4000</v>
       </c>
-      <c r="AX23" s="7" t="n">
+      <c r="AX23" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="AY23" s="7" t="n">
+      <c r="AY23" s="10" t="n">
         <v>10000</v>
       </c>
       <c r="AZ23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA23" s="7" t="n">
+      <c r="BA23" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="BB23" s="7" t="n">
+      <c r="BB23" s="10" t="n">
         <v>-20</v>
       </c>
-      <c r="BC23" s="7" t="n">
+      <c r="BC23" s="10" t="n">
         <v>4</v>
       </c>
       <c r="BD23" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF23" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="10" t="n">
         <v>4000</v>
       </c>
-      <c r="BG23" s="7" t="n">
+      <c r="BG23" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH23" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="10" t="n">
         <v>2800</v>
       </c>
       <c r="BL23" s="5" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="BM23" s="5" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7" t="n">
+      <c r="B24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="n">
         <v>14304</v>
       </c>
-      <c r="D24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="n">
+      <c r="D24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K24" s="7" t="n">
+        <v>177</v>
+      </c>
+      <c r="K24" s="10" t="n">
         <v>4.58</v>
       </c>
-      <c r="L24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="7" t="n">
+      <c r="L24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="P24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="7" t="n">
+      <c r="P24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="10" t="n">
         <v>14309</v>
       </c>
-      <c r="R24" s="7" t="n">
+      <c r="R24" s="10" t="n">
         <v>40</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T24" s="7" t="n">
+        <v>142</v>
+      </c>
+      <c r="T24" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="U24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7" t="n">
+      <c r="U24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10" t="n">
         <v>1</v>
       </c>
       <c r="X24" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y24" s="7" t="n">
+      <c r="Y24" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Z24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="7" t="n">
+      <c r="Z24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="10" t="n">
         <v>28450</v>
       </c>
-      <c r="AB24" s="7" t="n">
+      <c r="AB24" s="10" t="n">
         <v>1</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="7" t="n">
+        <v>197</v>
+      </c>
+      <c r="AD24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="AF24" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG24" s="7" t="n">
+      <c r="AG24" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH24" s="7" t="n">
+      <c r="AH24" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="7" t="n">
+      <c r="AI24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT24" s="7" t="n">
+      <c r="AS24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="10" t="n">
         <v>3000</v>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="AX24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="7" t="n">
+      <c r="AX24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="10" t="n">
         <v>0</v>
       </c>
       <c r="AZ24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA24" s="7" t="n">
+      <c r="BA24" s="10" t="n">
         <v>-135</v>
       </c>
-      <c r="BB24" s="7" t="n">
+      <c r="BB24" s="10" t="n">
         <v>-50</v>
       </c>
-      <c r="BC24" s="7" t="n">
+      <c r="BC24" s="10" t="n">
         <v>4</v>
       </c>
       <c r="BD24" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF24" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BE24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="10" t="n">
         <v>5800</v>
       </c>
-      <c r="BG24" s="7" t="n">
+      <c r="BG24" s="10" t="n">
         <v>1</v>
       </c>
       <c r="BH24" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK24" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="10" t="n">
         <v>2800</v>
       </c>
       <c r="BL24" s="5" t="s">
@@ -6286,132 +6346,226 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="7"/>
-      <c r="AX25" s="7"/>
-      <c r="AY25" s="7"/>
-      <c r="AZ25" s="5"/>
-      <c r="BA25" s="7"/>
-      <c r="BB25" s="7"/>
-      <c r="BC25" s="7"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="7"/>
-      <c r="BF25" s="7"/>
-      <c r="BG25" s="7"/>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="7"/>
-      <c r="BJ25" s="7"/>
-      <c r="BK25" s="7"/>
-      <c r="BL25" s="5"/>
+    <row r="25" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>59829</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="T25" s="13" t="n">
+        <v>8.076923</v>
+      </c>
+      <c r="U25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15"/>
+      <c r="W25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y25" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF25" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG25" s="13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH25" s="13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="13" t="n">
+        <v>180</v>
+      </c>
+      <c r="BB25" s="13" t="n">
+        <v>-34.166279</v>
+      </c>
+      <c r="BC25" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF25" s="13" t="n">
+        <v>4304.075195</v>
+      </c>
+      <c r="BG25" s="13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BH25" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI25" s="13" t="n">
+        <v>-1.397674</v>
+      </c>
+      <c r="BJ25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="BL25" s="14" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="26" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="7"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
       <c r="AU26" s="5"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="7"/>
-      <c r="AY26" s="7"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
       <c r="AZ26" s="5"/>
-      <c r="BA26" s="7"/>
-      <c r="BB26" s="7"/>
-      <c r="BC26" s="7"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="10"/>
       <c r="BD26" s="5"/>
-      <c r="BE26" s="7"/>
-      <c r="BF26" s="7"/>
-      <c r="BG26" s="7"/>
+      <c r="BE26" s="10"/>
+      <c r="BF26" s="10"/>
+      <c r="BG26" s="10"/>
       <c r="BH26" s="5"/>
-      <c r="BI26" s="7"/>
-      <c r="BJ26" s="7"/>
-      <c r="BK26" s="7"/>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="10"/>
+      <c r="BK26" s="10"/>
       <c r="BL26" s="5"/>
     </row>
     <row r="27" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="214">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1625,6 +1625,42 @@
   </si>
   <si>
     <t xml:space="preserve">(R=0.919118,G=0.855434,B=0.594723,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.799103,G=0.373860,B=0.791631,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.865604,G=0.766333,B=0.921582,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.653950,G=0.805883,B=0.896269,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.374134,G=0.283088,B=1.000000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.781753,G=1.000000,B=0.791280,A=0.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.102941,G=0.102941,B=0.102941,A=0.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.759862,G=1.000000,B=0.899960,A=0.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.037256,G=0.164157,B=0.799103,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.888003,G=0.921582,B=0.910583,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.034016,G=0.037706,B=0.150735,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.154412,G=0.098298,B=0.111916,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.158088,G=0.095458,B=0.051818,A=1.000000)</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1763,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1756,24 +1792,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2043,8 +2071,8 @@
   </sheetPr>
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2879,7 +2907,7 @@
       <c r="L6" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="7" t="n">
         <v>1</v>
       </c>
@@ -2889,7 +2917,7 @@
       <c r="P6" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7" t="n">
         <v>12</v>
       </c>
@@ -2902,7 +2930,7 @@
       <c r="U6" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V6" s="9"/>
+      <c r="V6" s="7"/>
       <c r="W6" s="7" t="n">
         <v>1</v>
       </c>
@@ -2945,13 +2973,13 @@
       <c r="AJ6" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK6" s="9"/>
+      <c r="AK6" s="7"/>
       <c r="AL6" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
       <c r="AP6" s="7" t="n">
         <v>0</v>
       </c>
@@ -3059,7 +3087,7 @@
       <c r="L7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="7"/>
       <c r="N7" s="7" t="n">
         <v>1</v>
       </c>
@@ -3084,7 +3112,7 @@
       <c r="U7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" s="9"/>
+      <c r="V7" s="7"/>
       <c r="W7" s="7" t="n">
         <v>1</v>
       </c>
@@ -3127,13 +3155,13 @@
       <c r="AJ7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK7" s="9"/>
+      <c r="AK7" s="7"/>
       <c r="AL7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
       <c r="AP7" s="7" t="n">
         <v>0</v>
       </c>
@@ -3253,7 +3281,7 @@
       <c r="P8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="7" t="n">
         <v>12</v>
       </c>
@@ -3311,13 +3339,13 @@
       <c r="AJ8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK8" s="9"/>
+      <c r="AK8" s="7"/>
       <c r="AL8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
       <c r="AP8" s="7" t="n">
         <v>0</v>
       </c>
@@ -3604,7 +3632,7 @@
       <c r="L10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="7" t="n">
         <v>1</v>
       </c>
@@ -3629,7 +3657,7 @@
       <c r="U10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="9"/>
+      <c r="V10" s="7"/>
       <c r="W10" s="7" t="n">
         <v>1</v>
       </c>
@@ -3672,13 +3700,13 @@
       <c r="AJ10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK10" s="9"/>
+      <c r="AK10" s="7"/>
       <c r="AL10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
       <c r="AP10" s="7" t="n">
         <v>0</v>
       </c>
@@ -3935,20 +3963,20 @@
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="n">
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="n">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -3960,89 +3988,89 @@
       <c r="J12" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10" t="n">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="n">
         <v>14307</v>
       </c>
-      <c r="N12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="10" t="n">
+      <c r="N12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10" t="n">
+      <c r="P12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R12" s="10" t="n">
+      <c r="R12" s="9" t="n">
         <v>40</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T12" s="10" t="n">
+      <c r="T12" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="10" t="n">
+      <c r="U12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9" t="n">
         <v>14302</v>
       </c>
-      <c r="W12" s="10" t="n">
+      <c r="W12" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y12" s="10" t="n">
+      <c r="Y12" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="10" t="n">
+      <c r="Z12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="9" t="n">
         <v>178199</v>
       </c>
-      <c r="AB12" s="10" t="n">
+      <c r="AB12" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AC12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AD12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="10" t="n">
+      <c r="AD12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF12" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG12" s="10" t="n">
+      <c r="AG12" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH12" s="10" t="n">
+      <c r="AH12" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
+      <c r="AI12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
       <c r="AP12" s="4" t="n">
         <v>0</v>
       </c>
@@ -4070,41 +4098,41 @@
       <c r="AX12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY12" s="10" t="n">
+      <c r="AY12" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA12" s="10" t="n">
+      <c r="BA12" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="BB12" s="10" t="n">
+      <c r="BB12" s="9" t="n">
         <v>-90</v>
       </c>
-      <c r="BC12" s="10" t="n">
+      <c r="BC12" s="9" t="n">
         <v>3</v>
       </c>
       <c r="BD12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="10" t="n">
+      <c r="BE12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG12" s="10" t="n">
+      <c r="BG12" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="10" t="n">
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="9" t="n">
         <v>10000</v>
       </c>
       <c r="BL12" s="5" t="s">
@@ -4152,7 +4180,7 @@
       <c r="L13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="7" t="n">
         <v>1</v>
       </c>
@@ -4162,7 +4190,7 @@
       <c r="P13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7" t="n">
         <v>12</v>
       </c>
@@ -4175,7 +4203,7 @@
       <c r="U13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="9"/>
+      <c r="V13" s="7"/>
       <c r="W13" s="7" t="n">
         <v>1</v>
       </c>
@@ -4218,13 +4246,13 @@
       <c r="AJ13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK13" s="9"/>
+      <c r="AK13" s="7"/>
       <c r="AL13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
       <c r="AP13" s="7" t="n">
         <v>0</v>
       </c>
@@ -4294,31 +4322,31 @@
       <c r="BL13" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="BM13" s="11" t="s">
+      <c r="BM13" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="BN13" s="12"/>
+      <c r="BN13" s="10"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10" t="n">
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10" t="n">
+      <c r="D14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -4330,155 +4358,155 @@
       <c r="J14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="10" t="n">
+      <c r="L14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9" t="n">
         <v>14307</v>
       </c>
-      <c r="N14" s="10" t="n">
+      <c r="N14" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="O14" s="10" t="n">
+      <c r="O14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10" t="n">
+      <c r="P14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R14" s="10" t="n">
+      <c r="R14" s="9" t="n">
         <v>1</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="T14" s="10" t="n">
+      <c r="T14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="U14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="10" t="n">
+      <c r="U14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9" t="n">
         <v>14302</v>
       </c>
-      <c r="W14" s="10" t="n">
+      <c r="W14" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y14" s="10" t="n">
+      <c r="Y14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="10" t="n">
+      <c r="Z14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB14" s="10" t="n">
+      <c r="AB14" s="9" t="n">
         <v>0.85</v>
       </c>
       <c r="AC14" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AD14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="10" t="n">
+      <c r="AD14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF14" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG14" s="10" t="n">
+      <c r="AG14" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH14" s="10" t="n">
+      <c r="AH14" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="10" t="n">
+      <c r="AI14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="10" t="n">
+      <c r="AS14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="9" t="n">
         <v>4000</v>
       </c>
       <c r="AU14" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="10" t="n">
+      <c r="AV14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="AX14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="10" t="n">
+      <c r="AX14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ14" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA14" s="10" t="n">
+      <c r="BA14" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="BB14" s="10" t="n">
+      <c r="BB14" s="9" t="n">
         <v>-40</v>
       </c>
-      <c r="BC14" s="10" t="n">
+      <c r="BC14" s="9" t="n">
         <v>1.340545</v>
       </c>
       <c r="BD14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="10" t="n">
+      <c r="BE14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="9" t="n">
         <v>3500</v>
       </c>
-      <c r="BG14" s="10" t="n">
+      <c r="BG14" s="9" t="n">
         <v>1.463273</v>
       </c>
       <c r="BH14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI14" s="10" t="n">
+      <c r="BI14" s="9" t="n">
         <v>-1.271345</v>
       </c>
-      <c r="BJ14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK14" s="10" t="n">
+      <c r="BJ14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="9" t="n">
         <v>2000</v>
       </c>
       <c r="BL14" s="5" t="s">
@@ -4492,22 +4520,22 @@
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10" t="n">
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
         <v>266280</v>
       </c>
-      <c r="D15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="n">
+      <c r="D15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -4519,151 +4547,151 @@
       <c r="J15" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="10" t="n">
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="10" t="n">
+      <c r="P15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R15" s="10" t="n">
+      <c r="R15" s="9" t="n">
         <v>40</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T15" s="10" t="n">
+      <c r="T15" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10" t="n">
+      <c r="U15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y15" s="10" t="n">
+      <c r="Y15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="10" t="n">
+      <c r="Z15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="9" t="n">
         <v>31970</v>
       </c>
-      <c r="AB15" s="10" t="n">
+      <c r="AB15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AC15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="10" t="n">
+      <c r="AD15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF15" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG15" s="10" t="n">
+      <c r="AG15" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH15" s="10" t="n">
+      <c r="AH15" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="10" t="n">
+      <c r="AI15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="10" t="n">
+      <c r="AS15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="9" t="n">
         <v>4000</v>
       </c>
       <c r="AU15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="10" t="n">
+      <c r="AV15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="10" t="n">
+      <c r="AX15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ15" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA15" s="10" t="n">
+      <c r="BA15" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB15" s="10" t="n">
+      <c r="BB15" s="9" t="n">
         <v>-60</v>
       </c>
-      <c r="BC15" s="10" t="n">
+      <c r="BC15" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BD15" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="10" t="n">
+      <c r="BE15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG15" s="10" t="n">
+      <c r="BG15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH15" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK15" s="10" t="n">
+      <c r="BI15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK15" s="9" t="n">
         <v>2500</v>
       </c>
       <c r="BL15" s="5" t="s">
@@ -4677,22 +4705,22 @@
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10" t="n">
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10" t="n">
+      <c r="D16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -4704,151 +4732,151 @@
       <c r="J16" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="10" t="n">
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="10" t="n">
+      <c r="P16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R16" s="10" t="n">
+      <c r="R16" s="9" t="n">
         <v>40</v>
       </c>
       <c r="S16" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T16" s="10" t="n">
+      <c r="T16" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10" t="n">
+      <c r="U16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X16" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y16" s="10" t="n">
+      <c r="Y16" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="10" t="n">
+      <c r="Z16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB16" s="10" t="n">
+      <c r="AB16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AC16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="10" t="n">
+      <c r="AD16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF16" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG16" s="10" t="n">
+      <c r="AG16" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH16" s="10" t="n">
+      <c r="AH16" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="10" t="n">
+      <c r="AI16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="10" t="n">
+      <c r="AS16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="9" t="n">
         <v>1000</v>
       </c>
       <c r="AU16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="10" t="n">
+      <c r="AV16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="10" t="n">
+      <c r="AX16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ16" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA16" s="10" t="n">
+      <c r="BA16" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB16" s="10" t="n">
+      <c r="BB16" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC16" s="10" t="n">
+      <c r="BC16" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BD16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="10" t="n">
+      <c r="BE16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG16" s="10" t="n">
+      <c r="BG16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="10" t="n">
+      <c r="BI16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK16" s="9" t="n">
         <v>2500</v>
       </c>
       <c r="BL16" s="5" t="s">
@@ -4862,22 +4890,22 @@
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="10" t="n">
+      <c r="B17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10" t="n">
+      <c r="D17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G17" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -4889,155 +4917,155 @@
       <c r="J17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="10" t="n">
+      <c r="L17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9" t="n">
         <v>14307</v>
       </c>
-      <c r="N17" s="10" t="n">
+      <c r="N17" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="O17" s="10" t="n">
+      <c r="O17" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10" t="n">
+      <c r="P17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R17" s="10" t="n">
+      <c r="R17" s="9" t="n">
         <v>10</v>
       </c>
       <c r="S17" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="T17" s="10" t="n">
+      <c r="T17" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="U17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="10" t="n">
+      <c r="U17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9" t="n">
         <v>14302</v>
       </c>
-      <c r="W17" s="10" t="n">
+      <c r="W17" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y17" s="10" t="n">
+      <c r="Y17" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="10" t="n">
+      <c r="Z17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB17" s="10" t="n">
+      <c r="AB17" s="9" t="n">
         <v>0.85</v>
       </c>
       <c r="AC17" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AD17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="10" t="n">
+      <c r="AD17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF17" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG17" s="10" t="n">
+      <c r="AG17" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH17" s="10" t="n">
+      <c r="AH17" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="10" t="n">
+      <c r="AI17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="10" t="n">
+      <c r="AS17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="AU17" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="10" t="n">
+      <c r="AV17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="10" t="n">
+      <c r="AX17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA17" s="10" t="n">
+      <c r="BA17" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="BB17" s="10" t="n">
+      <c r="BB17" s="9" t="n">
         <v>-40</v>
       </c>
-      <c r="BC17" s="10" t="n">
+      <c r="BC17" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BD17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF17" s="10" t="n">
+      <c r="BE17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF17" s="9" t="n">
         <v>4500</v>
       </c>
-      <c r="BG17" s="10" t="n">
+      <c r="BG17" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK17" s="10" t="n">
+      <c r="BI17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK17" s="9" t="n">
         <v>2800</v>
       </c>
       <c r="BL17" s="5" t="s">
@@ -5051,22 +5079,22 @@
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10" t="n">
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="n">
+      <c r="D18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="10" t="n">
+      <c r="G18" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -5078,151 +5106,151 @@
       <c r="J18" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K18" s="10" t="n">
+      <c r="K18" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="10" t="n">
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="10" t="n">
+      <c r="P18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R18" s="10" t="n">
+      <c r="R18" s="9" t="n">
         <v>40</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T18" s="10" t="n">
+      <c r="T18" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10" t="n">
+      <c r="U18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y18" s="10" t="n">
+      <c r="Y18" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="10" t="n">
+      <c r="Z18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB18" s="10" t="n">
+      <c r="AB18" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AC18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="10" t="n">
+      <c r="AD18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF18" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG18" s="10" t="n">
+      <c r="AG18" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH18" s="10" t="n">
+      <c r="AH18" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="10" t="n">
+      <c r="AI18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="10" t="n">
+      <c r="AS18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="AU18" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="10" t="n">
+      <c r="AV18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="10" t="n">
+      <c r="AX18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA18" s="10" t="n">
+      <c r="BA18" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB18" s="10" t="n">
+      <c r="BB18" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC18" s="10" t="n">
+      <c r="BC18" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BD18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="10" t="n">
+      <c r="BE18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG18" s="10" t="n">
+      <c r="BG18" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK18" s="10" t="n">
+      <c r="BI18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="9" t="n">
         <v>2500</v>
       </c>
       <c r="BL18" s="5" t="s">
@@ -5236,22 +5264,22 @@
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="10" t="n">
+      <c r="B19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="n">
+      <c r="D19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="10" t="n">
+      <c r="G19" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -5263,155 +5291,155 @@
       <c r="J19" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K19" s="10" t="n">
+      <c r="K19" s="9" t="n">
         <v>6.818502</v>
       </c>
-      <c r="L19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10" t="n">
+      <c r="L19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9" t="n">
         <v>14307</v>
       </c>
-      <c r="N19" s="10" t="n">
+      <c r="N19" s="9" t="n">
         <v>0.52871</v>
       </c>
-      <c r="O19" s="10" t="n">
+      <c r="O19" s="9" t="n">
         <v>11.305022</v>
       </c>
-      <c r="P19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10" t="n">
+      <c r="P19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R19" s="10" t="n">
+      <c r="R19" s="9" t="n">
         <v>1</v>
       </c>
       <c r="S19" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="T19" s="10" t="n">
+      <c r="T19" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="U19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="10" t="n">
+      <c r="U19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="9" t="n">
         <v>95639</v>
       </c>
-      <c r="W19" s="10" t="n">
+      <c r="W19" s="9" t="n">
         <v>2</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y19" s="10" t="n">
+      <c r="Y19" s="9" t="n">
         <v>65.549843</v>
       </c>
-      <c r="Z19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="10" t="n">
+      <c r="Z19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB19" s="10" t="n">
+      <c r="AB19" s="9" t="n">
         <v>0.25</v>
       </c>
       <c r="AC19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AD19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="10" t="n">
+      <c r="AD19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF19" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG19" s="10" t="n">
+      <c r="AG19" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH19" s="10" t="n">
+      <c r="AH19" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="10" t="n">
+      <c r="AI19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="10" t="n">
+      <c r="AS19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="AU19" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="10" t="n">
+      <c r="AV19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="10" t="n">
+      <c r="AX19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA19" s="10" t="n">
+      <c r="BA19" s="9" t="n">
         <v>-137.717209</v>
       </c>
-      <c r="BB19" s="10" t="n">
+      <c r="BB19" s="9" t="n">
         <v>-20.664221</v>
       </c>
-      <c r="BC19" s="10" t="n">
+      <c r="BC19" s="9" t="n">
         <v>7.131848</v>
       </c>
       <c r="BD19" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="BE19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF19" s="10" t="n">
+      <c r="BE19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="9" t="n">
         <v>3017.291504</v>
       </c>
-      <c r="BG19" s="10" t="n">
+      <c r="BG19" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" s="10" t="n">
+      <c r="BI19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="9" t="n">
         <v>1598.976807</v>
       </c>
       <c r="BL19" s="5" t="s">
@@ -5458,7 +5486,7 @@
       <c r="L20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="7" t="n">
         <v>1</v>
       </c>
@@ -5483,7 +5511,7 @@
       <c r="U20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V20" s="9"/>
+      <c r="V20" s="7"/>
       <c r="W20" s="7" t="n">
         <v>1</v>
       </c>
@@ -5526,13 +5554,13 @@
       <c r="AJ20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AK20" s="9"/>
+      <c r="AK20" s="7"/>
       <c r="AL20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
       <c r="AP20" s="7" t="n">
         <v>1</v>
       </c>
@@ -5602,7 +5630,7 @@
       <c r="BL20" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="BM20" s="11" t="s">
+      <c r="BM20" s="8" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5610,22 +5638,22 @@
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="n">
+      <c r="B21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10" t="n">
+      <c r="D21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="10" t="n">
+      <c r="G21" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -5637,151 +5665,151 @@
       <c r="J21" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10" t="n">
+      <c r="L21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="10" t="n">
+      <c r="P21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R21" s="10" t="n">
+      <c r="R21" s="9" t="n">
         <v>40</v>
       </c>
       <c r="S21" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T21" s="10" t="n">
+      <c r="T21" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10" t="n">
+      <c r="U21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y21" s="10" t="n">
+      <c r="Y21" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="10" t="n">
+      <c r="Z21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB21" s="10" t="n">
+      <c r="AB21" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AC21" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="10" t="n">
+      <c r="AD21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF21" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG21" s="10" t="n">
+      <c r="AG21" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH21" s="10" t="n">
+      <c r="AH21" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="10" t="n">
+      <c r="AI21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="10" t="n">
+      <c r="AS21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="AU21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="10" t="n">
+      <c r="AV21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="10" t="n">
+      <c r="AX21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ21" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA21" s="10" t="n">
+      <c r="BA21" s="9" t="n">
         <v>-70.836494</v>
       </c>
-      <c r="BB21" s="10" t="n">
+      <c r="BB21" s="9" t="n">
         <v>-37.348042</v>
       </c>
-      <c r="BC21" s="10" t="n">
+      <c r="BC21" s="9" t="n">
         <v>8.518238</v>
       </c>
       <c r="BD21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="10" t="n">
+      <c r="BE21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG21" s="10" t="n">
+      <c r="BG21" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK21" s="10" t="n">
+      <c r="BI21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK21" s="9" t="n">
         <v>2500</v>
       </c>
       <c r="BL21" s="5" t="s">
@@ -5795,22 +5823,22 @@
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10" t="n">
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
         <v>195710</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E22" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -5822,151 +5850,151 @@
       <c r="J22" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="10" t="n">
+      <c r="L22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="10" t="n">
+      <c r="P22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R22" s="10" t="n">
+      <c r="R22" s="9" t="n">
         <v>20</v>
       </c>
       <c r="S22" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="T22" s="10" t="n">
+      <c r="T22" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="U22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10" t="n">
+      <c r="U22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X22" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y22" s="10" t="n">
+      <c r="Y22" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="10" t="n">
+      <c r="Z22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB22" s="10" t="n">
+      <c r="AB22" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AC22" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AD22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="10" t="n">
+      <c r="AD22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF22" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG22" s="10" t="n">
+      <c r="AG22" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH22" s="10" t="n">
+      <c r="AH22" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="10" t="n">
+      <c r="AI22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="10" t="n">
+      <c r="AS22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="AU22" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="10" t="n">
+      <c r="AV22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="10" t="n">
+      <c r="AX22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ22" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA22" s="10" t="n">
+      <c r="BA22" s="9" t="n">
         <v>1.631169</v>
       </c>
-      <c r="BB22" s="10" t="n">
+      <c r="BB22" s="9" t="n">
         <v>-20</v>
       </c>
-      <c r="BC22" s="10" t="n">
+      <c r="BC22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BD22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="10" t="n">
+      <c r="BE22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG22" s="10" t="n">
+      <c r="BG22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK22" s="10" t="n">
+      <c r="BI22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="9" t="n">
         <v>2800</v>
       </c>
       <c r="BL22" s="5" t="s">
@@ -5980,22 +6008,22 @@
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10" t="n">
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="n">
+      <c r="D23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="G23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -6007,151 +6035,151 @@
       <c r="J23" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="10" t="n">
+      <c r="L23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="10" t="n">
+      <c r="P23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R23" s="10" t="n">
+      <c r="R23" s="9" t="n">
         <v>20</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="T23" s="10" t="n">
+      <c r="T23" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="U23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10" t="n">
+      <c r="U23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y23" s="10" t="n">
+      <c r="Y23" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="10" t="n">
+      <c r="Z23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB23" s="10" t="n">
+      <c r="AB23" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AC23" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AD23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="10" t="n">
+      <c r="AD23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF23" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG23" s="10" t="n">
+      <c r="AG23" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH23" s="10" t="n">
+      <c r="AH23" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ23" s="10" t="n">
+      <c r="AI23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AR23" s="10" t="n">
+      <c r="AR23" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS23" s="10" t="n">
+      <c r="AS23" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="AT23" s="10" t="n">
+      <c r="AT23" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="AU23" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AV23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" s="10" t="n">
+      <c r="AV23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="9" t="n">
         <v>4000</v>
       </c>
-      <c r="AX23" s="10" t="n">
+      <c r="AX23" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AY23" s="10" t="n">
+      <c r="AY23" s="9" t="n">
         <v>10000</v>
       </c>
       <c r="AZ23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA23" s="10" t="n">
+      <c r="BA23" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="BB23" s="10" t="n">
+      <c r="BB23" s="9" t="n">
         <v>-20</v>
       </c>
-      <c r="BC23" s="10" t="n">
+      <c r="BC23" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BD23" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF23" s="10" t="n">
+      <c r="BE23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="9" t="n">
         <v>4000</v>
       </c>
-      <c r="BG23" s="10" t="n">
+      <c r="BG23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH23" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="10" t="n">
+      <c r="BI23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="9" t="n">
         <v>2800</v>
       </c>
       <c r="BL23" s="5" t="s">
@@ -6165,22 +6193,22 @@
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10" t="n">
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10" t="n">
+      <c r="D24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -6192,151 +6220,151 @@
       <c r="J24" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K24" s="10" t="n">
+      <c r="K24" s="9" t="n">
         <v>4.58</v>
       </c>
-      <c r="L24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="10" t="n">
+      <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="10" t="n">
+      <c r="P24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R24" s="10" t="n">
+      <c r="R24" s="9" t="n">
         <v>40</v>
       </c>
       <c r="S24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T24" s="10" t="n">
+      <c r="T24" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10" t="n">
+      <c r="U24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X24" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y24" s="10" t="n">
+      <c r="Y24" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="10" t="n">
+      <c r="Z24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB24" s="10" t="n">
+      <c r="AB24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AC24" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="10" t="n">
+      <c r="AD24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="AF24" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="AG24" s="10" t="n">
+      <c r="AG24" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH24" s="10" t="n">
+      <c r="AH24" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="10" t="n">
+      <c r="AI24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT24" s="10" t="n">
+      <c r="AS24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="AU24" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="10" t="n">
+      <c r="AV24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="10" t="n">
+      <c r="AX24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AZ24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA24" s="10" t="n">
+      <c r="BA24" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB24" s="10" t="n">
+      <c r="BB24" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC24" s="10" t="n">
+      <c r="BC24" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BD24" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF24" s="10" t="n">
+      <c r="BE24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG24" s="10" t="n">
+      <c r="BG24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="BH24" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK24" s="10" t="n">
+      <c r="BI24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="9" t="n">
         <v>2800</v>
       </c>
       <c r="BL24" s="5" t="s">
@@ -6350,231 +6378,1624 @@
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13" t="n">
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
         <v>59829</v>
       </c>
-      <c r="D25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="D25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="s">
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K25" s="13" t="n">
+      <c r="K25" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="13" t="n">
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="13" t="n">
+      <c r="P25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T25" s="13" t="n">
+      <c r="T25" s="9" t="n">
         <v>8.076923</v>
       </c>
-      <c r="U25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="15"/>
-      <c r="W25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" s="14" t="s">
+      <c r="U25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y25" s="13" t="n">
+      <c r="Y25" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="13" t="n">
+      <c r="Z25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="14" t="s">
+      <c r="AB25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AD25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="13" t="n">
+      <c r="AD25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF25" s="13" t="n">
+      <c r="AF25" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG25" s="13" t="n">
+      <c r="AG25" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH25" s="13" t="n">
+      <c r="AH25" s="9" t="n">
         <v>1.3</v>
       </c>
-      <c r="AI25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="13" t="n">
+      <c r="AI25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9" t="n">
         <v>180</v>
       </c>
-      <c r="BB25" s="13" t="n">
+      <c r="BB25" s="9" t="n">
         <v>-34.166279</v>
       </c>
-      <c r="BC25" s="13" t="n">
+      <c r="BC25" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="BD25" s="14" t="s">
+      <c r="BD25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF25" s="13" t="n">
+      <c r="BE25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF25" s="9" t="n">
         <v>4304.075195</v>
       </c>
-      <c r="BG25" s="13" t="n">
+      <c r="BG25" s="9" t="n">
         <v>1.7</v>
       </c>
-      <c r="BH25" s="14" t="s">
+      <c r="BH25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI25" s="13" t="n">
+      <c r="BI25" s="9" t="n">
         <v>-1.397674</v>
       </c>
-      <c r="BJ25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK25" s="13" t="n">
+      <c r="BJ25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="BL25" s="14" t="s">
+      <c r="BL25" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="5"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="5"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="5"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
-      <c r="BK26" s="10"/>
-      <c r="BL26" s="5"/>
+    <row r="26" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <v>14304</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="11" t="n">
+        <v>4.581142</v>
+      </c>
+      <c r="L26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R26" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T26" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="13"/>
+      <c r="W26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y26" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="11" t="n">
+        <v>178199</v>
+      </c>
+      <c r="AB26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF26" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG26" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH26" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU26" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA26" s="11" t="n">
+        <v>-135</v>
+      </c>
+      <c r="BB26" s="11" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC26" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD26" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH26" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BL26" s="12" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="27" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11" t="n">
+        <v>108343</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="11" t="n">
+        <v>3.687359</v>
+      </c>
+      <c r="L27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R27" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="T27" s="11" t="n">
+        <v>14.592033</v>
+      </c>
+      <c r="U27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13"/>
+      <c r="W27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y27" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="11" t="n">
+        <v>31970</v>
+      </c>
+      <c r="AB27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG27" s="11" t="n">
+        <v>2.730016</v>
+      </c>
+      <c r="AH27" s="11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI27" s="11" t="n">
+        <v>1.248717</v>
+      </c>
+      <c r="AJ27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU27" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA27" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB27" s="11" t="n">
+        <v>-20</v>
+      </c>
+      <c r="BC27" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD27" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BG27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK27" s="11" t="n">
+        <v>2800</v>
+      </c>
+      <c r="BL27" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>14304</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="11" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R28" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T28" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13"/>
+      <c r="W28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y28" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="11" t="n">
+        <v>178192</v>
+      </c>
+      <c r="AB28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF28" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG28" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH28" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU28" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA28" s="11" t="n">
+        <v>-135</v>
+      </c>
+      <c r="BB28" s="11" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC28" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD28" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BL28" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="11" t="n">
+        <v>182111</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" s="11" t="n">
+        <v>4.581142</v>
+      </c>
+      <c r="L29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13"/>
+      <c r="N29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R29" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T29" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="13"/>
+      <c r="W29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y29" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="11" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB29" s="11" t="n">
+        <v>0.039865</v>
+      </c>
+      <c r="AC29" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF29" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG29" s="11" t="n">
+        <v>0.425231</v>
+      </c>
+      <c r="AH29" s="11" t="n">
+        <v>1.233221</v>
+      </c>
+      <c r="AI29" s="11" t="n">
+        <v>1.232547</v>
+      </c>
+      <c r="AJ29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA29" s="11" t="n">
+        <v>95.086586</v>
+      </c>
+      <c r="BB29" s="11" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC29" s="11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BD29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF29" s="11" t="n">
+        <v>9598.182617</v>
+      </c>
+      <c r="BG29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH29" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI29" s="11" t="n">
+        <v>-2.690918</v>
+      </c>
+      <c r="BJ29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK29" s="11" t="n">
+        <v>45486.88281</v>
+      </c>
+      <c r="BL29" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <v>108338</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="11" t="n">
+        <v>14307</v>
+      </c>
+      <c r="N30" s="11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O30" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R30" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T30" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="11" t="n">
+        <v>14302</v>
+      </c>
+      <c r="W30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y30" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="11" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB30" s="11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AC30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF30" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG30" s="11" t="n">
+        <v>3.007801</v>
+      </c>
+      <c r="AH30" s="11" t="n">
+        <v>1.143673</v>
+      </c>
+      <c r="AI30" s="11" t="n">
+        <v>1.346621</v>
+      </c>
+      <c r="AJ30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU30" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA30" s="11" t="n">
+        <v>-60</v>
+      </c>
+      <c r="BB30" s="11" t="n">
+        <v>-42.339676</v>
+      </c>
+      <c r="BC30" s="11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BD30" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="11" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BG30" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH30" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI30" s="11" t="n">
+        <v>-1.364819</v>
+      </c>
+      <c r="BJ30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="11" t="n">
+        <v>8420.873047</v>
+      </c>
+      <c r="BL30" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="11" t="n">
+        <v>108338</v>
+      </c>
+      <c r="D31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>225.560257</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13"/>
+      <c r="N31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R31" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T31" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="13"/>
+      <c r="W31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y31" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="11" t="n">
+        <v>178197</v>
+      </c>
+      <c r="AB31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF31" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG31" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH31" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU31" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA31" s="11" t="n">
+        <v>-135</v>
+      </c>
+      <c r="BB31" s="11" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC31" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD31" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BL31" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>14304</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" s="11" t="n">
+        <v>1.777251</v>
+      </c>
+      <c r="L32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11" t="n">
+        <v>14307</v>
+      </c>
+      <c r="N32" s="11" t="n">
+        <v>0.700009</v>
+      </c>
+      <c r="O32" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R32" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="T32" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" s="11" t="n">
+        <v>233557</v>
+      </c>
+      <c r="W32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y32" s="11" t="n">
+        <v>45.226273</v>
+      </c>
+      <c r="Z32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="11" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB32" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC32" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF32" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG32" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH32" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU32" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA32" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB32" s="11" t="n">
+        <v>-20</v>
+      </c>
+      <c r="BC32" s="11" t="n">
+        <v>10.817523</v>
+      </c>
+      <c r="BD32" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF32" s="11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BG32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH32" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="11" t="n">
+        <v>2800</v>
+      </c>
+      <c r="BL32" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11" t="n">
+        <v>14304</v>
+      </c>
+      <c r="D33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="11" t="n">
+        <v>4.581142</v>
+      </c>
+      <c r="L33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R33" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T33" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13"/>
+      <c r="W33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y33" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="11" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF33" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG33" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH33" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU33" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA33" s="11" t="n">
+        <v>-135</v>
+      </c>
+      <c r="BB33" s="11" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC33" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD33" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH33" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" s="11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BL33" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="34" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1763,7 +1763,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1805,18 +1805,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2071,8 +2059,8 @@
   </sheetPr>
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR14" activeCellId="0" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2987,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="7" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AS6" s="7" t="n">
         <v>1</v>
@@ -3169,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="7" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AS7" s="7" t="n">
         <v>1</v>
@@ -3353,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="7" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AS8" s="7" t="n">
         <v>1</v>
@@ -3714,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="7" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AS10" s="7" t="n">
         <v>1</v>
@@ -4260,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="7" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AS13" s="7" t="n">
         <v>1</v>
@@ -6536,181 +6524,181 @@
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11" t="n">
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="D26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="12" t="s">
+      <c r="G26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K26" s="11" t="n">
+      <c r="K26" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="11" t="n">
+      <c r="L26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="11" t="n">
+      <c r="P26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R26" s="11" t="n">
+      <c r="R26" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="S26" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T26" s="11" t="n">
+      <c r="T26" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="13"/>
-      <c r="W26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" s="12" t="s">
+      <c r="U26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y26" s="11" t="n">
+      <c r="Y26" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="11" t="n">
+      <c r="Z26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="9" t="n">
         <v>178199</v>
       </c>
-      <c r="AB26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="12" t="s">
+      <c r="AB26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AD26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="11" t="n">
+      <c r="AD26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF26" s="11" t="n">
+      <c r="AF26" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG26" s="11" t="n">
+      <c r="AG26" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH26" s="11" t="n">
+      <c r="AH26" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="11" t="n">
+      <c r="AI26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT26" s="11" t="n">
+      <c r="AS26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU26" s="12" t="s">
+      <c r="AU26" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW26" s="11" t="n">
+      <c r="AV26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="12" t="s">
+      <c r="AX26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA26" s="11" t="n">
+      <c r="BA26" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB26" s="11" t="n">
+      <c r="BB26" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC26" s="11" t="n">
+      <c r="BC26" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD26" s="12" t="s">
+      <c r="BD26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" s="11" t="n">
+      <c r="BE26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH26" s="12" t="s">
+      <c r="BG26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK26" s="11" t="n">
+      <c r="BI26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="9" t="n">
         <v>2500</v>
       </c>
-      <c r="BL26" s="12" t="s">
+      <c r="BL26" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6718,181 +6706,181 @@
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="11" t="n">
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="n">
         <v>108343</v>
       </c>
-      <c r="D27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="D27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12" t="s">
+      <c r="G27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K27" s="11" t="n">
+      <c r="K27" s="9" t="n">
         <v>3.687359</v>
       </c>
-      <c r="L27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="11" t="n">
+      <c r="L27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="11" t="n">
+      <c r="P27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R27" s="11" t="n">
+      <c r="R27" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="S27" s="12" t="s">
+      <c r="S27" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="T27" s="11" t="n">
+      <c r="T27" s="9" t="n">
         <v>14.592033</v>
       </c>
-      <c r="U27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="13"/>
-      <c r="W27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X27" s="12" t="s">
+      <c r="U27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y27" s="11" t="n">
+      <c r="Y27" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="11" t="n">
+      <c r="Z27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="9" t="n">
         <v>31970</v>
       </c>
-      <c r="AB27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="12" t="s">
+      <c r="AB27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AD27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="11" t="n">
+      <c r="AD27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG27" s="11" t="n">
+      <c r="AG27" s="9" t="n">
         <v>2.730016</v>
       </c>
-      <c r="AH27" s="11" t="n">
+      <c r="AH27" s="9" t="n">
         <v>1.29</v>
       </c>
-      <c r="AI27" s="11" t="n">
+      <c r="AI27" s="9" t="n">
         <v>1.248717</v>
       </c>
-      <c r="AJ27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="11" t="n">
+      <c r="AJ27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT27" s="11" t="n">
+      <c r="AS27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU27" s="12" t="s">
+      <c r="AU27" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW27" s="11" t="n">
+      <c r="AV27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="12" t="s">
+      <c r="AX27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA27" s="11" t="n">
+      <c r="BA27" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="BB27" s="11" t="n">
+      <c r="BB27" s="9" t="n">
         <v>-20</v>
       </c>
-      <c r="BC27" s="11" t="n">
+      <c r="BC27" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD27" s="12" t="s">
+      <c r="BD27" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF27" s="11" t="n">
+      <c r="BE27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="9" t="n">
         <v>4000</v>
       </c>
-      <c r="BG27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH27" s="12" t="s">
+      <c r="BG27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK27" s="11" t="n">
+      <c r="BI27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK27" s="9" t="n">
         <v>2800</v>
       </c>
-      <c r="BL27" s="12" t="s">
+      <c r="BL27" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6900,181 +6888,181 @@
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="11" t="n">
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="D28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K28" s="11" t="n">
+      <c r="K28" s="9" t="n">
         <v>4.58</v>
       </c>
-      <c r="L28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="11" t="n">
+      <c r="L28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="11" t="n">
+      <c r="P28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R28" s="11" t="n">
+      <c r="R28" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="S28" s="12" t="s">
+      <c r="S28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T28" s="11" t="n">
+      <c r="T28" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="13"/>
-      <c r="W28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X28" s="12" t="s">
+      <c r="U28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y28" s="11" t="n">
+      <c r="Y28" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="11" t="n">
+      <c r="Z28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="9" t="n">
         <v>178192</v>
       </c>
-      <c r="AB28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="12" t="s">
+      <c r="AB28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="11" t="n">
+      <c r="AD28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF28" s="11" t="n">
+      <c r="AF28" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG28" s="11" t="n">
+      <c r="AG28" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH28" s="11" t="n">
+      <c r="AH28" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="11" t="n">
+      <c r="AI28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT28" s="11" t="n">
+      <c r="AS28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU28" s="12" t="s">
+      <c r="AU28" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW28" s="11" t="n">
+      <c r="AV28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="12" t="s">
+      <c r="AX28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA28" s="11" t="n">
+      <c r="BA28" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB28" s="11" t="n">
+      <c r="BB28" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC28" s="11" t="n">
+      <c r="BC28" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD28" s="12" t="s">
+      <c r="BD28" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BE28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF28" s="11" t="n">
+      <c r="BE28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH28" s="12" t="s">
+      <c r="BG28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="11" t="n">
+      <c r="BI28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="9" t="n">
         <v>15000</v>
       </c>
-      <c r="BL28" s="12" t="s">
+      <c r="BL28" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7082,181 +7070,181 @@
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="11" t="n">
+      <c r="B29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="n">
         <v>182111</v>
       </c>
-      <c r="D29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="D29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="11" t="n">
+      <c r="L29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="11" t="n">
+      <c r="P29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R29" s="11" t="n">
+      <c r="R29" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="S29" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T29" s="11" t="n">
+      <c r="T29" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="13"/>
-      <c r="W29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="12" t="s">
+      <c r="U29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y29" s="11" t="n">
+      <c r="Y29" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="11" t="n">
+      <c r="Z29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB29" s="11" t="n">
+      <c r="AB29" s="9" t="n">
         <v>0.039865</v>
       </c>
-      <c r="AC29" s="12" t="s">
+      <c r="AC29" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="11" t="n">
+      <c r="AD29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF29" s="11" t="n">
+      <c r="AF29" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG29" s="11" t="n">
+      <c r="AG29" s="9" t="n">
         <v>0.425231</v>
       </c>
-      <c r="AH29" s="11" t="n">
+      <c r="AH29" s="9" t="n">
         <v>1.233221</v>
       </c>
-      <c r="AI29" s="11" t="n">
+      <c r="AI29" s="9" t="n">
         <v>1.232547</v>
       </c>
-      <c r="AJ29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="11" t="n">
+      <c r="AJ29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="11" t="n">
+      <c r="AS29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU29" s="12" t="s">
+      <c r="AU29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW29" s="11" t="n">
+      <c r="AV29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ29" s="12" t="s">
+      <c r="AX29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA29" s="11" t="n">
+      <c r="BA29" s="9" t="n">
         <v>95.086586</v>
       </c>
-      <c r="BB29" s="11" t="n">
+      <c r="BB29" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC29" s="11" t="n">
+      <c r="BC29" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="BD29" s="12" t="s">
+      <c r="BD29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF29" s="11" t="n">
+      <c r="BE29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF29" s="9" t="n">
         <v>9598.182617</v>
       </c>
-      <c r="BG29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH29" s="12" t="s">
+      <c r="BG29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH29" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="BI29" s="11" t="n">
+      <c r="BI29" s="9" t="n">
         <v>-2.690918</v>
       </c>
-      <c r="BJ29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK29" s="11" t="n">
+      <c r="BJ29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK29" s="9" t="n">
         <v>45486.88281</v>
       </c>
-      <c r="BL29" s="12" t="s">
+      <c r="BL29" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7264,185 +7252,185 @@
       <c r="A30" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="11" t="n">
+      <c r="B30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="n">
         <v>108338</v>
       </c>
-      <c r="D30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="D30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K30" s="11" t="n">
+      <c r="K30" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="11" t="n">
+      <c r="L30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9" t="n">
         <v>14307</v>
       </c>
-      <c r="N30" s="11" t="n">
+      <c r="N30" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="O30" s="11" t="n">
+      <c r="O30" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="11" t="n">
+      <c r="P30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R30" s="11" t="n">
+      <c r="R30" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="S30" s="12" t="s">
+      <c r="S30" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="T30" s="11" t="n">
+      <c r="T30" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="U30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="11" t="n">
+      <c r="U30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="9" t="n">
         <v>14302</v>
       </c>
-      <c r="W30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" s="12" t="s">
+      <c r="W30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y30" s="11" t="n">
+      <c r="Y30" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="11" t="n">
+      <c r="Z30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB30" s="11" t="n">
+      <c r="AB30" s="9" t="n">
         <v>0.85</v>
       </c>
-      <c r="AC30" s="12" t="s">
+      <c r="AC30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AD30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="11" t="n">
+      <c r="AD30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF30" s="11" t="n">
+      <c r="AF30" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG30" s="11" t="n">
+      <c r="AG30" s="9" t="n">
         <v>3.007801</v>
       </c>
-      <c r="AH30" s="11" t="n">
+      <c r="AH30" s="9" t="n">
         <v>1.143673</v>
       </c>
-      <c r="AI30" s="11" t="n">
+      <c r="AI30" s="9" t="n">
         <v>1.346621</v>
       </c>
-      <c r="AJ30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="11" t="n">
+      <c r="AJ30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="11" t="n">
+      <c r="AS30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU30" s="12" t="s">
+      <c r="AU30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW30" s="11" t="n">
+      <c r="AV30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ30" s="12" t="s">
+      <c r="AX30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA30" s="11" t="n">
+      <c r="BA30" s="9" t="n">
         <v>-60</v>
       </c>
-      <c r="BB30" s="11" t="n">
+      <c r="BB30" s="9" t="n">
         <v>-42.339676</v>
       </c>
-      <c r="BC30" s="11" t="n">
+      <c r="BC30" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="BD30" s="12" t="s">
+      <c r="BD30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF30" s="11" t="n">
+      <c r="BE30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="9" t="n">
         <v>4500</v>
       </c>
-      <c r="BG30" s="11" t="n">
+      <c r="BG30" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="BH30" s="12" t="s">
+      <c r="BH30" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="BI30" s="11" t="n">
+      <c r="BI30" s="9" t="n">
         <v>-1.364819</v>
       </c>
-      <c r="BJ30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK30" s="11" t="n">
+      <c r="BJ30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="9" t="n">
         <v>8420.873047</v>
       </c>
-      <c r="BL30" s="12" t="s">
+      <c r="BL30" s="5" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7450,181 +7438,181 @@
       <c r="A31" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="11" t="n">
+      <c r="B31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="n">
         <v>108338</v>
       </c>
-      <c r="D31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11" t="n">
+      <c r="D31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="n">
         <v>225.560257</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="12" t="s">
+      <c r="G31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="11" t="n">
+      <c r="K31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="11" t="n">
+      <c r="P31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R31" s="11" t="n">
+      <c r="R31" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="S31" s="12" t="s">
+      <c r="S31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T31" s="11" t="n">
+      <c r="T31" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="13"/>
-      <c r="W31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" s="12" t="s">
+      <c r="U31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y31" s="11" t="n">
+      <c r="Y31" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="11" t="n">
+      <c r="Z31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="9" t="n">
         <v>178197</v>
       </c>
-      <c r="AB31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="12" t="s">
+      <c r="AB31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="11" t="n">
+      <c r="AD31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF31" s="11" t="n">
+      <c r="AF31" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG31" s="11" t="n">
+      <c r="AG31" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH31" s="11" t="n">
+      <c r="AH31" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="11" t="n">
+      <c r="AI31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="11" t="n">
+      <c r="AS31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU31" s="12" t="s">
+      <c r="AU31" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW31" s="11" t="n">
+      <c r="AV31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="12" t="s">
+      <c r="AX31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA31" s="11" t="n">
+      <c r="BA31" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB31" s="11" t="n">
+      <c r="BB31" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC31" s="11" t="n">
+      <c r="BC31" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD31" s="12" t="s">
+      <c r="BD31" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" s="11" t="n">
+      <c r="BE31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH31" s="12" t="s">
+      <c r="BG31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK31" s="11" t="n">
+      <c r="BI31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="9" t="n">
         <v>2500</v>
       </c>
-      <c r="BL31" s="12" t="s">
+      <c r="BL31" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7632,185 +7620,185 @@
       <c r="A32" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="11" t="n">
+      <c r="B32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="D32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="G32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="K32" s="11" t="n">
+      <c r="K32" s="9" t="n">
         <v>1.777251</v>
       </c>
-      <c r="L32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="11" t="n">
+      <c r="L32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="9" t="n">
         <v>14307</v>
       </c>
-      <c r="N32" s="11" t="n">
+      <c r="N32" s="9" t="n">
         <v>0.700009</v>
       </c>
-      <c r="O32" s="11" t="n">
+      <c r="O32" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="11" t="n">
+      <c r="P32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R32" s="11" t="n">
+      <c r="R32" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="S32" s="12" t="s">
+      <c r="S32" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="T32" s="11" t="n">
+      <c r="T32" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="U32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V32" s="11" t="n">
+      <c r="U32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" s="9" t="n">
         <v>233557</v>
       </c>
-      <c r="W32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X32" s="12" t="s">
+      <c r="W32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y32" s="11" t="n">
+      <c r="Y32" s="9" t="n">
         <v>45.226273</v>
       </c>
-      <c r="Z32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="11" t="n">
+      <c r="Z32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB32" s="11" t="n">
+      <c r="AB32" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC32" s="12" t="s">
+      <c r="AC32" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AD32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="11" t="n">
+      <c r="AD32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF32" s="11" t="n">
+      <c r="AF32" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG32" s="11" t="n">
+      <c r="AG32" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH32" s="11" t="n">
+      <c r="AH32" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-      <c r="AP32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="11" t="n">
+      <c r="AI32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="11" t="n">
+      <c r="AS32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU32" s="12" t="s">
+      <c r="AU32" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW32" s="11" t="n">
+      <c r="AV32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="12" t="s">
+      <c r="AX32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA32" s="11" t="n">
+      <c r="BA32" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="BB32" s="11" t="n">
+      <c r="BB32" s="9" t="n">
         <v>-20</v>
       </c>
-      <c r="BC32" s="11" t="n">
+      <c r="BC32" s="9" t="n">
         <v>10.817523</v>
       </c>
-      <c r="BD32" s="12" t="s">
+      <c r="BD32" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF32" s="11" t="n">
+      <c r="BE32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF32" s="9" t="n">
         <v>4000</v>
       </c>
-      <c r="BG32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH32" s="12" t="s">
+      <c r="BG32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH32" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK32" s="11" t="n">
+      <c r="BI32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="9" t="n">
         <v>2800</v>
       </c>
-      <c r="BL32" s="12" t="s">
+      <c r="BL32" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7818,181 +7806,181 @@
       <c r="A33" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="11" t="n">
+      <c r="B33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="D33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="G33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K33" s="11" t="n">
+      <c r="K33" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="11" t="n">
+      <c r="L33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="11" t="n">
+      <c r="P33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R33" s="11" t="n">
+      <c r="R33" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="S33" s="12" t="s">
+      <c r="S33" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T33" s="11" t="n">
+      <c r="T33" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="13"/>
-      <c r="W33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X33" s="12" t="s">
+      <c r="U33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y33" s="11" t="n">
+      <c r="Y33" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="11" t="n">
+      <c r="Z33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="12" t="s">
+      <c r="AB33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AD33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="11" t="n">
+      <c r="AD33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF33" s="11" t="n">
+      <c r="AF33" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG33" s="11" t="n">
+      <c r="AG33" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH33" s="11" t="n">
+      <c r="AH33" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="13"/>
-      <c r="AO33" s="13"/>
-      <c r="AP33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="11" t="n">
+      <c r="AI33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT33" s="11" t="n">
+      <c r="AS33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU33" s="12" t="s">
+      <c r="AU33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW33" s="11" t="n">
+      <c r="AV33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="12" t="s">
+      <c r="AX33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA33" s="11" t="n">
+      <c r="BA33" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB33" s="11" t="n">
+      <c r="BB33" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC33" s="11" t="n">
+      <c r="BC33" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD33" s="12" t="s">
+      <c r="BD33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF33" s="11" t="n">
+      <c r="BE33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH33" s="12" t="s">
+      <c r="BG33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK33" s="11" t="n">
+      <c r="BI33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" s="9" t="n">
         <v>2500</v>
       </c>
-      <c r="BL33" s="12" t="s">
+      <c r="BL33" s="5" t="s">
         <v>151</v>
       </c>
     </row>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="217">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1661,6 +1661,15 @@
   </si>
   <si>
     <t xml:space="preserve">(R=0.158088,G=0.095458,B=0.051818,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.058142,G=0.060049,B=0.056798,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.821290,G=0.859069,B=0.791559,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.323154,G=0.332108,B=0.314200,A=1.000000)</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1772,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1805,6 +1814,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2059,8 +2080,8 @@
   </sheetPr>
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR14" activeCellId="0" sqref="AR14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7984,9 +8005,554 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <v>266272</v>
+      </c>
+      <c r="D34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>66.834641</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" s="11" t="n">
+        <v>4.581142</v>
+      </c>
+      <c r="L34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R34" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T34" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="13"/>
+      <c r="W34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y34" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="11" t="n">
+        <v>178197</v>
+      </c>
+      <c r="AB34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF34" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG34" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH34" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU34" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW34" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA34" s="11" t="n">
+        <v>-135</v>
+      </c>
+      <c r="BB34" s="11" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC34" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD34" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH34" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK34" s="11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BL34" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11" t="n">
+        <v>14304</v>
+      </c>
+      <c r="D35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K35" s="11" t="n">
+        <v>4.581142</v>
+      </c>
+      <c r="L35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13"/>
+      <c r="N35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R35" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T35" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="13"/>
+      <c r="W35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y35" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="11" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF35" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG35" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH35" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU35" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW35" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA35" s="11" t="n">
+        <v>-135</v>
+      </c>
+      <c r="BB35" s="11" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC35" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD35" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH35" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK35" s="11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BL35" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="11" t="n">
+        <v>59817</v>
+      </c>
+      <c r="D36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" s="11" t="n">
+        <v>4.581142</v>
+      </c>
+      <c r="L36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13"/>
+      <c r="N36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11" t="n">
+        <v>14309</v>
+      </c>
+      <c r="R36" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T36" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="11" t="n">
+        <v>95619</v>
+      </c>
+      <c r="W36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y36" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="11" t="n">
+        <v>28450</v>
+      </c>
+      <c r="AB36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF36" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG36" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH36" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU36" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW36" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA36" s="11" t="n">
+        <v>-135</v>
+      </c>
+      <c r="BB36" s="11" t="n">
+        <v>-60</v>
+      </c>
+      <c r="BC36" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD36" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH36" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK36" s="11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BL36" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="37" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="220">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1670,6 +1670,15 @@
   </si>
   <si>
     <t xml:space="preserve">(R=0.323154,G=0.332108,B=0.314200,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.599265,G=0.599265,B=0.599265,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.752942,G=0.752942,B=0.752942,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.044853,B=0.048402,A=1.000000)</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2090,7 @@
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8009,181 +8018,181 @@
       <c r="A34" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11" t="n">
+      <c r="B34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9" t="n">
         <v>266272</v>
       </c>
-      <c r="D34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11" t="n">
+      <c r="D34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="n">
         <v>66.834641</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="G34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="11" t="n">
+      <c r="K34" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="11" t="n">
+      <c r="L34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="11" t="n">
+      <c r="P34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R34" s="11" t="n">
+      <c r="R34" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="S34" s="12" t="s">
+      <c r="S34" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T34" s="11" t="n">
+      <c r="T34" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="13"/>
-      <c r="W34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X34" s="12" t="s">
+      <c r="U34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y34" s="11" t="n">
+      <c r="Y34" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="11" t="n">
+      <c r="Z34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="9" t="n">
         <v>178197</v>
       </c>
-      <c r="AB34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="12" t="s">
+      <c r="AB34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="11" t="n">
+      <c r="AD34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF34" s="11" t="n">
+      <c r="AF34" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG34" s="11" t="n">
+      <c r="AG34" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH34" s="11" t="n">
+      <c r="AH34" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-      <c r="AO34" s="13"/>
-      <c r="AP34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="11" t="n">
+      <c r="AI34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT34" s="11" t="n">
+      <c r="AS34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU34" s="12" t="s">
+      <c r="AU34" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW34" s="11" t="n">
+      <c r="AV34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW34" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ34" s="12" t="s">
+      <c r="AX34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA34" s="11" t="n">
+      <c r="BA34" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB34" s="11" t="n">
+      <c r="BB34" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC34" s="11" t="n">
+      <c r="BC34" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD34" s="12" t="s">
+      <c r="BD34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF34" s="11" t="n">
+      <c r="BE34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH34" s="12" t="s">
+      <c r="BG34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK34" s="11" t="n">
+      <c r="BI34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK34" s="9" t="n">
         <v>2500</v>
       </c>
-      <c r="BL34" s="12" t="s">
+      <c r="BL34" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8191,181 +8200,181 @@
       <c r="A35" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="11" t="n">
+      <c r="B35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9" t="n">
         <v>14304</v>
       </c>
-      <c r="D35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="D35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="12" t="s">
+      <c r="G35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K35" s="11" t="n">
+      <c r="K35" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="11" t="n">
+      <c r="L35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="11" t="n">
+      <c r="P35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R35" s="11" t="n">
+      <c r="R35" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="S35" s="12" t="s">
+      <c r="S35" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T35" s="11" t="n">
+      <c r="T35" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="13"/>
-      <c r="W35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X35" s="12" t="s">
+      <c r="U35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y35" s="11" t="n">
+      <c r="Y35" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="11" t="n">
+      <c r="Z35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="12" t="s">
+      <c r="AB35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="11" t="n">
+      <c r="AD35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF35" s="11" t="n">
+      <c r="AF35" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG35" s="11" t="n">
+      <c r="AG35" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH35" s="11" t="n">
+      <c r="AH35" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="13"/>
-      <c r="AP35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="11" t="n">
+      <c r="AI35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT35" s="11" t="n">
+      <c r="AS35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU35" s="12" t="s">
+      <c r="AU35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW35" s="11" t="n">
+      <c r="AV35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW35" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="12" t="s">
+      <c r="AX35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA35" s="11" t="n">
+      <c r="BA35" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB35" s="11" t="n">
+      <c r="BB35" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC35" s="11" t="n">
+      <c r="BC35" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD35" s="12" t="s">
+      <c r="BD35" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF35" s="11" t="n">
+      <c r="BE35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH35" s="12" t="s">
+      <c r="BG35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH35" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK35" s="11" t="n">
+      <c r="BI35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK35" s="9" t="n">
         <v>2500</v>
       </c>
-      <c r="BL35" s="12" t="s">
+      <c r="BL35" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8373,188 +8382,550 @@
       <c r="A36" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="B36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="11" t="n">
+      <c r="B36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9" t="n">
         <v>59817</v>
       </c>
-      <c r="D36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="D36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="G36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K36" s="11" t="n">
+      <c r="K36" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="11" t="n">
+      <c r="L36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="11" t="n">
+      <c r="P36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9" t="n">
         <v>14309</v>
       </c>
-      <c r="R36" s="11" t="n">
+      <c r="R36" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="S36" s="12" t="s">
+      <c r="S36" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T36" s="11" t="n">
+      <c r="T36" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="U36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V36" s="11" t="n">
+      <c r="U36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="9" t="n">
         <v>95619</v>
       </c>
-      <c r="W36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" s="12" t="s">
+      <c r="W36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y36" s="11" t="n">
+      <c r="Y36" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="11" t="n">
+      <c r="Z36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="9" t="n">
         <v>28450</v>
       </c>
-      <c r="AB36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="12" t="s">
+      <c r="AB36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AD36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="11" t="n">
+      <c r="AD36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF36" s="11" t="n">
+      <c r="AF36" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG36" s="11" t="n">
+      <c r="AG36" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH36" s="11" t="n">
+      <c r="AH36" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="13"/>
-      <c r="AN36" s="13"/>
-      <c r="AO36" s="13"/>
-      <c r="AP36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="11" t="n">
+      <c r="AI36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT36" s="11" t="n">
+      <c r="AS36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU36" s="12" t="s">
+      <c r="AU36" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW36" s="11" t="n">
+      <c r="AV36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW36" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AX36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" s="12" t="s">
+      <c r="AX36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA36" s="11" t="n">
+      <c r="BA36" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB36" s="11" t="n">
+      <c r="BB36" s="9" t="n">
         <v>-60</v>
       </c>
-      <c r="BC36" s="11" t="n">
+      <c r="BC36" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD36" s="12" t="s">
+      <c r="BD36" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" s="11" t="n">
+      <c r="BE36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH36" s="12" t="s">
+      <c r="BG36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH36" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK36" s="11" t="n">
+      <c r="BI36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK36" s="9" t="n">
         <v>2500</v>
       </c>
-      <c r="BL36" s="12" t="s">
+      <c r="BL36" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11" t="n">
+        <v>286845</v>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="11" t="n">
+        <v>4.581142</v>
+      </c>
+      <c r="L37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13"/>
+      <c r="N37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="11" t="n">
+        <v>95638</v>
+      </c>
+      <c r="R37" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T37" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="U37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="13"/>
+      <c r="W37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y37" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="11" t="n">
+        <v>178193</v>
+      </c>
+      <c r="AB37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF37" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG37" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH37" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU37" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW37" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA37" s="11" t="n">
+        <v>-135</v>
+      </c>
+      <c r="BB37" s="11" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC37" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" s="11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BL37" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <v>59837</v>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>110.18</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="13"/>
+      <c r="N38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="11" t="n">
+        <v>233557</v>
+      </c>
+      <c r="R38" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="T38" s="11" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="U38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="13"/>
+      <c r="W38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y38" s="11" t="n">
+        <v>66.533463</v>
+      </c>
+      <c r="Z38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="11" t="n">
+        <v>178201</v>
+      </c>
+      <c r="AB38" s="11" t="n">
+        <v>0.162025</v>
+      </c>
+      <c r="AC38" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF38" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="11" t="n">
+        <v>1.042475</v>
+      </c>
+      <c r="AI38" s="11" t="n">
+        <v>0.977496</v>
+      </c>
+      <c r="AJ38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU38" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW38" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="11" t="n">
+        <v>-26.075975</v>
+      </c>
+      <c r="BC38" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD38" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF38" s="11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BG38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH38" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK38" s="11" t="n">
+        <v>2800</v>
+      </c>
+      <c r="BL38" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="39" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
+++ b/dragon-verse/Excels/SceneEnvironment_场景环境表.xlsx
@@ -1781,7 +1781,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1823,18 +1823,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2089,8 +2077,8 @@
   </sheetPr>
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AU23" activeCellId="0" sqref="AU23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2999,7 +2987,7 @@
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="7" t="n">
         <v>0</v>
@@ -3181,7 +3169,7 @@
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="7" t="n">
         <v>0</v>
@@ -3365,7 +3353,7 @@
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="7" t="n">
         <v>0</v>
@@ -3726,7 +3714,7 @@
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="7" t="n">
         <v>0</v>
@@ -4272,7 +4260,7 @@
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="7" t="n">
         <v>0</v>
@@ -6502,7 +6490,9 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
+      <c r="AP25" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
       <c r="AS25" s="9"/>
@@ -6663,19 +6653,19 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR26" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS26" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT26" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU26" s="5" t="s">
         <v>144</v>
@@ -6845,19 +6835,19 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR27" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS27" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT27" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU27" s="5" t="s">
         <v>144</v>
@@ -7027,19 +7017,19 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR28" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS28" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT28" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU28" s="5" t="s">
         <v>144</v>
@@ -7209,19 +7199,19 @@
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
       <c r="AP29" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR29" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS29" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT29" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU29" s="5" t="s">
         <v>144</v>
@@ -7395,19 +7385,19 @@
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR30" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS30" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT30" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU30" s="5" t="s">
         <v>144</v>
@@ -7577,19 +7567,19 @@
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
       <c r="AP31" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR31" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS31" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT31" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU31" s="5" t="s">
         <v>144</v>
@@ -7763,19 +7753,19 @@
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR32" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS32" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT32" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU32" s="5" t="s">
         <v>144</v>
@@ -7945,19 +7935,19 @@
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR33" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS33" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT33" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU33" s="5" t="s">
         <v>144</v>
@@ -8127,19 +8117,19 @@
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR34" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS34" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT34" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU34" s="5" t="s">
         <v>144</v>
@@ -8309,19 +8299,19 @@
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
       <c r="AP35" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR35" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS35" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT35" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU35" s="5" t="s">
         <v>144</v>
@@ -8493,19 +8483,19 @@
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
       <c r="AP36" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AR36" s="9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS36" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AT36" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AU36" s="5" t="s">
         <v>144</v>
@@ -8566,181 +8556,181 @@
       <c r="A37" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="B37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="11" t="n">
+      <c r="B37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9" t="n">
         <v>286845</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="12" t="s">
+      <c r="G37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K37" s="11" t="n">
+      <c r="K37" s="9" t="n">
         <v>4.581142</v>
       </c>
-      <c r="L37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="11" t="n">
+      <c r="L37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="11" t="n">
+      <c r="P37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="9" t="n">
         <v>95638</v>
       </c>
-      <c r="R37" s="11" t="n">
+      <c r="R37" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="S37" s="12" t="s">
+      <c r="S37" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T37" s="11" t="n">
+      <c r="T37" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="U37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="13"/>
-      <c r="W37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" s="12" t="s">
+      <c r="U37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y37" s="11" t="n">
+      <c r="Y37" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Z37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="11" t="n">
+      <c r="Z37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="9" t="n">
         <v>178193</v>
       </c>
-      <c r="AB37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="12" t="s">
+      <c r="AB37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AD37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="11" t="n">
+      <c r="AD37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF37" s="11" t="n">
+      <c r="AF37" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG37" s="11" t="n">
+      <c r="AG37" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH37" s="11" t="n">
+      <c r="AH37" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
-      <c r="AO37" s="13"/>
-      <c r="AP37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR37" s="11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT37" s="11" t="n">
+      <c r="AI37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AS37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AU37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW37" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU37" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW37" s="11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="12" t="s">
+      <c r="AX37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA37" s="11" t="n">
+      <c r="BA37" s="9" t="n">
         <v>-135</v>
       </c>
-      <c r="BB37" s="11" t="n">
+      <c r="BB37" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="BC37" s="11" t="n">
+      <c r="BC37" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD37" s="12" t="s">
+      <c r="BD37" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF37" s="11" t="n">
+      <c r="BE37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="BG37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH37" s="12" t="s">
+      <c r="BG37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH37" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK37" s="11" t="n">
+      <c r="BI37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" s="9" t="n">
         <v>15000</v>
       </c>
-      <c r="BL37" s="12" t="s">
+      <c r="BL37" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8748,185 +8738,191 @@
       <c r="A38" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="B38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="11" t="n">
+      <c r="B38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9" t="n">
         <v>59837</v>
       </c>
-      <c r="D38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11" t="n">
+      <c r="D38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9" t="n">
         <v>110.18</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="12" t="s">
+      <c r="G38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="K38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="13"/>
-      <c r="N38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="11" t="n">
+      <c r="K38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="11" t="n">
+      <c r="P38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="9" t="n">
         <v>233557</v>
       </c>
-      <c r="R38" s="11" t="n">
+      <c r="R38" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="S38" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="T38" s="11" t="n">
+      <c r="T38" s="9" t="n">
         <v>58.13</v>
       </c>
-      <c r="U38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="13"/>
-      <c r="W38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X38" s="12" t="s">
+      <c r="U38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Y38" s="11" t="n">
+      <c r="Y38" s="9" t="n">
         <v>66.533463</v>
       </c>
-      <c r="Z38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="11" t="n">
+      <c r="Z38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="9" t="n">
         <v>178201</v>
       </c>
-      <c r="AB38" s="11" t="n">
+      <c r="AB38" s="9" t="n">
         <v>0.162025</v>
       </c>
-      <c r="AC38" s="12" t="s">
+      <c r="AC38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AD38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="11" t="n">
+      <c r="AD38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF38" s="11" t="n">
+      <c r="AF38" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="AG38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="11" t="n">
+      <c r="AG38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="9" t="n">
         <v>1.042475</v>
       </c>
-      <c r="AI38" s="11" t="n">
+      <c r="AI38" s="9" t="n">
         <v>0.977496</v>
       </c>
-      <c r="AJ38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT38" s="11" t="n">
+      <c r="AJ38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AS38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AU38" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW38" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="AU38" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW38" s="11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ38" s="12" t="s">
+      <c r="AX38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BA38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="11" t="n">
+      <c r="BA38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="9" t="n">
         <v>-26.075975</v>
       </c>
-      <c r="BC38" s="11" t="n">
+      <c r="BC38" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="BD38" s="12" t="s">
+      <c r="BD38" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BE38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF38" s="11" t="n">
+      <c r="BE38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF38" s="9" t="n">
         <v>4000</v>
       </c>
-      <c r="BG38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH38" s="12" t="s">
+      <c r="BG38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH38" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="BI38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK38" s="11" t="n">
+      <c r="BI38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK38" s="9" t="n">
         <v>2800</v>
       </c>
-      <c r="BL38" s="12" t="s">
+      <c r="BL38" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="5"/>
+    </row>
     <row r="40" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
